--- a/Oyster/cultchmass/cultchmass_packet.xlsx
+++ b/Oyster/cultchmass/cultchmass_packet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datasheet" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
   <si>
     <t>REEF MASS FIELD DATASHEET</t>
   </si>
@@ -644,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1012,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,6 +1056,566 @@
       </c>
       <c r="K1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.86</v>
+      </c>
+      <c r="I2">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.86</v>
+      </c>
+      <c r="K2">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0.86</v>
+      </c>
+      <c r="I3">
+        <v>13.7</v>
+      </c>
+      <c r="J3">
+        <v>0.86</v>
+      </c>
+      <c r="K3">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0.86</v>
+      </c>
+      <c r="I4">
+        <v>10.94</v>
+      </c>
+      <c r="J4">
+        <v>0.86</v>
+      </c>
+      <c r="K4">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0.86</v>
+      </c>
+      <c r="I5">
+        <v>15.02</v>
+      </c>
+      <c r="J5">
+        <v>0.86</v>
+      </c>
+      <c r="K5">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0.86</v>
+      </c>
+      <c r="I6">
+        <v>20.04</v>
+      </c>
+      <c r="J6">
+        <v>1.84</v>
+      </c>
+      <c r="K6">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0.86</v>
+      </c>
+      <c r="I7">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="J7">
+        <v>2.86</v>
+      </c>
+      <c r="K7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0.86</v>
+      </c>
+      <c r="I8">
+        <v>16.46</v>
+      </c>
+      <c r="J8">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.86</v>
+      </c>
+      <c r="I9">
+        <v>12.02</v>
+      </c>
+      <c r="J9">
+        <v>1.36</v>
+      </c>
+      <c r="K9">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>0.86</v>
+      </c>
+      <c r="I10">
+        <v>21.28</v>
+      </c>
+      <c r="J10">
+        <v>4.53</v>
+      </c>
+      <c r="K10">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0.86</v>
+      </c>
+      <c r="I11">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="J11">
+        <v>4.99</v>
+      </c>
+      <c r="K11">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.86</v>
+      </c>
+      <c r="I12">
+        <v>23.13</v>
+      </c>
+      <c r="J12">
+        <v>2.38</v>
+      </c>
+      <c r="K12">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0.86</v>
+      </c>
+      <c r="I13">
+        <v>-999</v>
+      </c>
+      <c r="J13">
+        <v>0.86</v>
+      </c>
+      <c r="K13">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.86</v>
+      </c>
+      <c r="I14">
+        <v>-999</v>
+      </c>
+      <c r="J14">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="K14">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0.86</v>
+      </c>
+      <c r="I15">
+        <v>-999</v>
+      </c>
+      <c r="J15">
+        <v>1.59</v>
+      </c>
+      <c r="K15">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0.86</v>
+      </c>
+      <c r="I16">
+        <v>-999</v>
+      </c>
+      <c r="J16">
+        <v>0.86</v>
+      </c>
+      <c r="K16">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>0.86</v>
+      </c>
+      <c r="I17">
+        <v>-999</v>
+      </c>
+      <c r="J17">
+        <v>4.08</v>
+      </c>
+      <c r="K17">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -1260,737 +1820,737 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(raw_data_1!A2=raw_data_2!A2,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B2" t="str">
         <f>IF(raw_data_1!B2=raw_data_2!B2,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C2" t="str">
         <f>IF(raw_data_1!C2=raw_data_2!C2,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D2" t="str">
         <f>IF(raw_data_1!D2=raw_data_2!D2,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E2" t="str">
         <f>IF(raw_data_1!E2=raw_data_2!E2,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F2" t="str">
         <f>IF(raw_data_1!F2=raw_data_2!F2,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G2" t="str">
         <f>IF(raw_data_1!G2=raw_data_2!G2,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H2" t="str">
         <f>IF(raw_data_1!H2=raw_data_2!H2,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I2" t="str">
         <f>IF(raw_data_1!I2=raw_data_2!I2,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J2" t="str">
         <f>IF(raw_data_1!J2=raw_data_2!J2,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K2" t="str">
         <f>IF(raw_data_1!K2=raw_data_2!K2,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>IF(raw_data_1!A3=raw_data_2!A3,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B3" t="str">
         <f>IF(raw_data_1!B3=raw_data_2!B3,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C3" t="str">
         <f>IF(raw_data_1!C3=raw_data_2!C3,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D3" t="str">
         <f>IF(raw_data_1!D3=raw_data_2!D3,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E3" t="str">
         <f>IF(raw_data_1!E3=raw_data_2!E3,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F3" t="str">
         <f>IF(raw_data_1!F3=raw_data_2!F3,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G3" t="str">
         <f>IF(raw_data_1!G3=raw_data_2!G3,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H3" t="str">
         <f>IF(raw_data_1!H3=raw_data_2!H3,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I3" t="str">
         <f>IF(raw_data_1!I3=raw_data_2!I3,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J3" t="str">
         <f>IF(raw_data_1!J3=raw_data_2!J3,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K3" t="str">
         <f>IF(raw_data_1!K3=raw_data_2!K3,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF(raw_data_1!A4=raw_data_2!A4,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B4" t="str">
         <f>IF(raw_data_1!B4=raw_data_2!B4,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C4" t="str">
         <f>IF(raw_data_1!C4=raw_data_2!C4,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D4" t="str">
         <f>IF(raw_data_1!D4=raw_data_2!D4,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E4" t="str">
         <f>IF(raw_data_1!E4=raw_data_2!E4,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F4" t="str">
         <f>IF(raw_data_1!F4=raw_data_2!F4,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G4" t="str">
         <f>IF(raw_data_1!G4=raw_data_2!G4,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H4" t="str">
         <f>IF(raw_data_1!H4=raw_data_2!H4,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I4" t="str">
         <f>IF(raw_data_1!I4=raw_data_2!I4,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J4" t="str">
         <f>IF(raw_data_1!J4=raw_data_2!J4,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K4" t="str">
         <f>IF(raw_data_1!K4=raw_data_2!K4,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF(raw_data_1!A5=raw_data_2!A5,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B5" t="str">
         <f>IF(raw_data_1!B5=raw_data_2!B5,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C5" t="str">
         <f>IF(raw_data_1!C5=raw_data_2!C5,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D5" t="str">
         <f>IF(raw_data_1!D5=raw_data_2!D5,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E5" t="str">
         <f>IF(raw_data_1!E5=raw_data_2!E5,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F5" t="str">
         <f>IF(raw_data_1!F5=raw_data_2!F5,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G5" t="str">
         <f>IF(raw_data_1!G5=raw_data_2!G5,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H5" t="str">
         <f>IF(raw_data_1!H5=raw_data_2!H5,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I5" t="str">
         <f>IF(raw_data_1!I5=raw_data_2!I5,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J5" t="str">
         <f>IF(raw_data_1!J5=raw_data_2!J5,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K5" t="str">
         <f>IF(raw_data_1!K5=raw_data_2!K5,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF(raw_data_1!A6=raw_data_2!A6,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B6" t="str">
         <f>IF(raw_data_1!B6=raw_data_2!B6,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C6" t="str">
         <f>IF(raw_data_1!C6=raw_data_2!C6,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D6" t="str">
         <f>IF(raw_data_1!D6=raw_data_2!D6,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E6" t="str">
         <f>IF(raw_data_1!E6=raw_data_2!E6,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F6" t="str">
         <f>IF(raw_data_1!F6=raw_data_2!F6,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G6" t="str">
         <f>IF(raw_data_1!G6=raw_data_2!G6,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H6" t="str">
         <f>IF(raw_data_1!H6=raw_data_2!H6,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I6" t="str">
         <f>IF(raw_data_1!I6=raw_data_2!I6,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J6" t="str">
         <f>IF(raw_data_1!J6=raw_data_2!J6,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K6" t="str">
         <f>IF(raw_data_1!K6=raw_data_2!K6,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>IF(raw_data_1!A7=raw_data_2!A7,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B7" t="str">
         <f>IF(raw_data_1!B7=raw_data_2!B7,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C7" t="str">
         <f>IF(raw_data_1!C7=raw_data_2!C7,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D7" t="str">
         <f>IF(raw_data_1!D7=raw_data_2!D7,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E7" t="str">
         <f>IF(raw_data_1!E7=raw_data_2!E7,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F7" t="str">
         <f>IF(raw_data_1!F7=raw_data_2!F7,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G7" t="str">
         <f>IF(raw_data_1!G7=raw_data_2!G7,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H7" t="str">
         <f>IF(raw_data_1!H7=raw_data_2!H7,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I7" t="str">
         <f>IF(raw_data_1!I7=raw_data_2!I7,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J7" t="str">
         <f>IF(raw_data_1!J7=raw_data_2!J7,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K7" t="str">
         <f>IF(raw_data_1!K7=raw_data_2!K7,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF(raw_data_1!A8=raw_data_2!A8,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B8" t="str">
         <f>IF(raw_data_1!B8=raw_data_2!B8,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C8" t="str">
         <f>IF(raw_data_1!C8=raw_data_2!C8,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D8" t="str">
         <f>IF(raw_data_1!D8=raw_data_2!D8,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E8" t="str">
         <f>IF(raw_data_1!E8=raw_data_2!E8,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F8" t="str">
         <f>IF(raw_data_1!F8=raw_data_2!F8,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G8" t="str">
         <f>IF(raw_data_1!G8=raw_data_2!G8,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H8" t="str">
         <f>IF(raw_data_1!H8=raw_data_2!H8,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I8" t="str">
         <f>IF(raw_data_1!I8=raw_data_2!I8,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J8" t="str">
         <f>IF(raw_data_1!J8=raw_data_2!J8,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K8" t="str">
         <f>IF(raw_data_1!K8=raw_data_2!K8,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF(raw_data_1!A9=raw_data_2!A9,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B9" t="str">
         <f>IF(raw_data_1!B9=raw_data_2!B9,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C9" t="str">
         <f>IF(raw_data_1!C9=raw_data_2!C9,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D9" t="str">
         <f>IF(raw_data_1!D9=raw_data_2!D9,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E9" t="str">
         <f>IF(raw_data_1!E9=raw_data_2!E9,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F9" t="str">
         <f>IF(raw_data_1!F9=raw_data_2!F9,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G9" t="str">
         <f>IF(raw_data_1!G9=raw_data_2!G9,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H9" t="str">
         <f>IF(raw_data_1!H9=raw_data_2!H9,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I9" t="str">
         <f>IF(raw_data_1!I9=raw_data_2!I9,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J9" t="str">
         <f>IF(raw_data_1!J9=raw_data_2!J9,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K9" t="str">
         <f>IF(raw_data_1!K9=raw_data_2!K9,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF(raw_data_1!A10=raw_data_2!A10,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B10" t="str">
         <f>IF(raw_data_1!B10=raw_data_2!B10,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C10" t="str">
         <f>IF(raw_data_1!C10=raw_data_2!C10,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D10" t="str">
         <f>IF(raw_data_1!D10=raw_data_2!D10,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E10" t="str">
         <f>IF(raw_data_1!E10=raw_data_2!E10,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F10" t="str">
         <f>IF(raw_data_1!F10=raw_data_2!F10,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G10" t="str">
         <f>IF(raw_data_1!G10=raw_data_2!G10,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H10" t="str">
         <f>IF(raw_data_1!H10=raw_data_2!H10,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I10" t="str">
         <f>IF(raw_data_1!I10=raw_data_2!I10,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J10" t="str">
         <f>IF(raw_data_1!J10=raw_data_2!J10,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K10" t="str">
         <f>IF(raw_data_1!K10=raw_data_2!K10,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>IF(raw_data_1!A11=raw_data_2!A11,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B11" t="str">
         <f>IF(raw_data_1!B11=raw_data_2!B11,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C11" t="str">
         <f>IF(raw_data_1!C11=raw_data_2!C11,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D11" t="str">
         <f>IF(raw_data_1!D11=raw_data_2!D11,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E11" t="str">
         <f>IF(raw_data_1!E11=raw_data_2!E11,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F11" t="str">
         <f>IF(raw_data_1!F11=raw_data_2!F11,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G11" t="str">
         <f>IF(raw_data_1!G11=raw_data_2!G11,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H11" t="str">
         <f>IF(raw_data_1!H11=raw_data_2!H11,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I11" t="str">
         <f>IF(raw_data_1!I11=raw_data_2!I11,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J11" t="str">
         <f>IF(raw_data_1!J11=raw_data_2!J11,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K11" t="str">
         <f>IF(raw_data_1!K11=raw_data_2!K11,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>IF(raw_data_1!A12=raw_data_2!A12,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B12" t="str">
         <f>IF(raw_data_1!B12=raw_data_2!B12,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C12" t="str">
         <f>IF(raw_data_1!C12=raw_data_2!C12,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D12" t="str">
         <f>IF(raw_data_1!D12=raw_data_2!D12,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E12" t="str">
         <f>IF(raw_data_1!E12=raw_data_2!E12,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F12" t="str">
         <f>IF(raw_data_1!F12=raw_data_2!F12,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G12" t="str">
         <f>IF(raw_data_1!G12=raw_data_2!G12,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H12" t="str">
         <f>IF(raw_data_1!H12=raw_data_2!H12,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I12" t="str">
         <f>IF(raw_data_1!I12=raw_data_2!I12,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J12" t="str">
         <f>IF(raw_data_1!J12=raw_data_2!J12,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K12" t="str">
         <f>IF(raw_data_1!K12=raw_data_2!K12,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>IF(raw_data_1!A13=raw_data_2!A13,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B13" t="str">
         <f>IF(raw_data_1!B13=raw_data_2!B13,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C13" t="str">
         <f>IF(raw_data_1!C13=raw_data_2!C13,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D13" t="str">
         <f>IF(raw_data_1!D13=raw_data_2!D13,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E13" t="str">
         <f>IF(raw_data_1!E13=raw_data_2!E13,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F13" t="str">
         <f>IF(raw_data_1!F13=raw_data_2!F13,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G13" t="str">
         <f>IF(raw_data_1!G13=raw_data_2!G13,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H13" t="str">
         <f>IF(raw_data_1!H13=raw_data_2!H13,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I13" t="str">
         <f>IF(raw_data_1!I13=raw_data_2!I13,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J13" t="str">
         <f>IF(raw_data_1!J13=raw_data_2!J13,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K13" t="str">
         <f>IF(raw_data_1!K13=raw_data_2!K13,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF(raw_data_1!A14=raw_data_2!A14,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B14" t="str">
         <f>IF(raw_data_1!B14=raw_data_2!B14,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C14" t="str">
         <f>IF(raw_data_1!C14=raw_data_2!C14,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D14" t="str">
         <f>IF(raw_data_1!D14=raw_data_2!D14,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E14" t="str">
         <f>IF(raw_data_1!E14=raw_data_2!E14,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F14" t="str">
         <f>IF(raw_data_1!F14=raw_data_2!F14,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G14" t="str">
         <f>IF(raw_data_1!G14=raw_data_2!G14,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H14" t="str">
         <f>IF(raw_data_1!H14=raw_data_2!H14,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I14" t="str">
         <f>IF(raw_data_1!I14=raw_data_2!I14,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J14" t="str">
         <f>IF(raw_data_1!J14=raw_data_2!J14,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K14" t="str">
         <f>IF(raw_data_1!K14=raw_data_2!K14,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>IF(raw_data_1!A15=raw_data_2!A15,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B15" t="str">
         <f>IF(raw_data_1!B15=raw_data_2!B15,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C15" t="str">
         <f>IF(raw_data_1!C15=raw_data_2!C15,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D15" t="str">
         <f>IF(raw_data_1!D15=raw_data_2!D15,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E15" t="str">
         <f>IF(raw_data_1!E15=raw_data_2!E15,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F15" t="str">
         <f>IF(raw_data_1!F15=raw_data_2!F15,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G15" t="str">
         <f>IF(raw_data_1!G15=raw_data_2!G15,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H15" t="str">
         <f>IF(raw_data_1!H15=raw_data_2!H15,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I15" t="str">
         <f>IF(raw_data_1!I15=raw_data_2!I15,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J15" t="str">
         <f>IF(raw_data_1!J15=raw_data_2!J15,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K15" t="str">
         <f>IF(raw_data_1!K15=raw_data_2!K15,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF(raw_data_1!A16=raw_data_2!A16,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B16" t="str">
         <f>IF(raw_data_1!B16=raw_data_2!B16,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C16" t="str">
         <f>IF(raw_data_1!C16=raw_data_2!C16,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D16" t="str">
         <f>IF(raw_data_1!D16=raw_data_2!D16,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E16" t="str">
         <f>IF(raw_data_1!E16=raw_data_2!E16,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F16" t="str">
         <f>IF(raw_data_1!F16=raw_data_2!F16,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G16" t="str">
         <f>IF(raw_data_1!G16=raw_data_2!G16,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H16" t="str">
         <f>IF(raw_data_1!H16=raw_data_2!H16,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I16" t="str">
         <f>IF(raw_data_1!I16=raw_data_2!I16,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J16" t="str">
         <f>IF(raw_data_1!J16=raw_data_2!J16,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K16" t="str">
         <f>IF(raw_data_1!K16=raw_data_2!K16,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>IF(raw_data_1!A17=raw_data_2!A17,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="B17" t="str">
         <f>IF(raw_data_1!B17=raw_data_2!B17,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="C17" t="str">
         <f>IF(raw_data_1!C17=raw_data_2!C17,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="D17" t="str">
         <f>IF(raw_data_1!D17=raw_data_2!D17,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="E17" t="str">
         <f>IF(raw_data_1!E17=raw_data_2!E17,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="F17" t="str">
         <f>IF(raw_data_1!F17=raw_data_2!F17,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="G17" t="str">
         <f>IF(raw_data_1!G17=raw_data_2!G17,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="H17" t="str">
         <f>IF(raw_data_1!H17=raw_data_2!H17,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="I17" t="str">
         <f>IF(raw_data_1!I17=raw_data_2!I17,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="J17" t="str">
         <f>IF(raw_data_1!J17=raw_data_2!J17,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
       <c r="K17" t="str">
         <f>IF(raw_data_1!K17=raw_data_2!K17,"","check")</f>
-        <v/>
+        <v>check</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Oyster/cultchmass/cultchmass_packet.xlsx
+++ b/Oyster/cultchmass/cultchmass_packet.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasheet" sheetId="1" r:id="rId1"/>
     <sheet name="raw_data_1" sheetId="2" r:id="rId2"/>
-    <sheet name="raw_data_2" sheetId="7" r:id="rId3"/>
+    <sheet name="raw_data_2" sheetId="8" r:id="rId3"/>
     <sheet name="raw_check" sheetId="4" r:id="rId4"/>
     <sheet name="pick" sheetId="5" r:id="rId5"/>
     <sheet name="description" sheetId="6" r:id="rId6"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="53">
   <si>
     <t>REEF MASS FIELD DATASHEET</t>
   </si>
@@ -156,6 +156,33 @@
   </si>
   <si>
     <t>mass of the weighing bucket plus all reef material retained in the 5 x 5cm seive in kg.  This excludes the material retained in the 10 x 10cm seive.</t>
+  </si>
+  <si>
+    <t>collector</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>person collecting data</t>
+  </si>
+  <si>
+    <t>person recording data</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>sbpf</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>jh</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1050,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1057,8 +1084,14 @@
       <c r="K1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1092,8 +1125,14 @@
       <c r="K2">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -1127,8 +1166,14 @@
       <c r="K3">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -1162,8 +1207,14 @@
       <c r="K4">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -1197,8 +1248,14 @@
       <c r="K5">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1232,8 +1289,14 @@
       <c r="K6">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -1267,8 +1330,14 @@
       <c r="K7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -1302,8 +1371,14 @@
       <c r="K8">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -1337,8 +1412,14 @@
       <c r="K9">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -1372,8 +1453,14 @@
       <c r="K10">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -1407,8 +1494,14 @@
       <c r="K11">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -1442,8 +1535,14 @@
       <c r="K12">
         <v>7.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -1477,8 +1576,14 @@
       <c r="K13">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -1512,8 +1617,14 @@
       <c r="K14">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -1547,8 +1658,14 @@
       <c r="K15">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -1582,8 +1699,14 @@
       <c r="K16">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -1616,13 +1739,19 @@
       </c>
       <c r="K17">
         <v>0.86</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>pick!$A$2</xm:f>
@@ -1665,6 +1794,18 @@
           </x14:formula1>
           <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>pick!$L$2:$L$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>pick!$M$2:$M$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1673,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,7 +1825,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1717,13 +1858,675 @@
       </c>
       <c r="K1" t="s">
         <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.86</v>
+      </c>
+      <c r="I2">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.86</v>
+      </c>
+      <c r="K2">
+        <v>1.06</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0.86</v>
+      </c>
+      <c r="I3">
+        <v>13.7</v>
+      </c>
+      <c r="J3">
+        <v>0.86</v>
+      </c>
+      <c r="K3">
+        <v>1.08</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0.86</v>
+      </c>
+      <c r="I4">
+        <v>10.94</v>
+      </c>
+      <c r="J4">
+        <v>0.86</v>
+      </c>
+      <c r="K4">
+        <v>1.06</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0.86</v>
+      </c>
+      <c r="I5">
+        <v>15.02</v>
+      </c>
+      <c r="J5">
+        <v>0.86</v>
+      </c>
+      <c r="K5">
+        <v>1.86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0.86</v>
+      </c>
+      <c r="I6">
+        <v>20.04</v>
+      </c>
+      <c r="J6">
+        <v>1.84</v>
+      </c>
+      <c r="K6">
+        <v>1.22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0.86</v>
+      </c>
+      <c r="I7">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="J7">
+        <v>2.86</v>
+      </c>
+      <c r="K7">
+        <v>1.6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0.86</v>
+      </c>
+      <c r="I8">
+        <v>16.46</v>
+      </c>
+      <c r="J8">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.86</v>
+      </c>
+      <c r="I9">
+        <v>12.02</v>
+      </c>
+      <c r="J9">
+        <v>1.36</v>
+      </c>
+      <c r="K9">
+        <v>0.86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>0.86</v>
+      </c>
+      <c r="I10">
+        <v>21.28</v>
+      </c>
+      <c r="J10">
+        <v>4.53</v>
+      </c>
+      <c r="K10">
+        <v>2.15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0.86</v>
+      </c>
+      <c r="I11">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="J11">
+        <v>4.99</v>
+      </c>
+      <c r="K11">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.86</v>
+      </c>
+      <c r="I12">
+        <v>23.13</v>
+      </c>
+      <c r="J12">
+        <v>2.38</v>
+      </c>
+      <c r="K12">
+        <v>7.03</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0.86</v>
+      </c>
+      <c r="I13">
+        <v>-999</v>
+      </c>
+      <c r="J13">
+        <v>0.86</v>
+      </c>
+      <c r="K13">
+        <v>1.25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.86</v>
+      </c>
+      <c r="I14">
+        <v>-999</v>
+      </c>
+      <c r="J14">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="K14">
+        <v>2.15</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0.86</v>
+      </c>
+      <c r="I15">
+        <v>-999</v>
+      </c>
+      <c r="J15">
+        <v>1.59</v>
+      </c>
+      <c r="K15">
+        <v>0.86</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0.86</v>
+      </c>
+      <c r="I16">
+        <v>-999</v>
+      </c>
+      <c r="J16">
+        <v>0.86</v>
+      </c>
+      <c r="K16">
+        <v>0.86</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>0.86</v>
+      </c>
+      <c r="I17">
+        <v>-999</v>
+      </c>
+      <c r="J17">
+        <v>4.08</v>
+      </c>
+      <c r="K17">
+        <v>0.86</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>pick!$G$2:$G$5</xm:f>
@@ -1766,6 +2569,18 @@
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>pick!$L$2:$L$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>pick!$M$2:$M$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1774,15 +2589,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1816,744 +2631,878 @@
       <c r="K1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(raw_data_1!A2=raw_data_2!A2,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B2" t="str">
         <f>IF(raw_data_1!B2=raw_data_2!B2,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C2" t="str">
         <f>IF(raw_data_1!C2=raw_data_2!C2,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D2" t="str">
         <f>IF(raw_data_1!D2=raw_data_2!D2,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E2" t="str">
         <f>IF(raw_data_1!E2=raw_data_2!E2,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F2" t="str">
         <f>IF(raw_data_1!F2=raw_data_2!F2,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G2" t="str">
         <f>IF(raw_data_1!G2=raw_data_2!G2,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H2" t="str">
         <f>IF(raw_data_1!H2=raw_data_2!H2,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <f>IF(raw_data_1!I2=raw_data_2!I2,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J2" t="str">
         <f>IF(raw_data_1!J2=raw_data_2!J2,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K2" t="str">
         <f>IF(raw_data_1!K2=raw_data_2!K2,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(raw_data_1!L2=raw_data_2!L2,"","check")</f>
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(raw_data_1!M2=raw_data_2!M2,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>IF(raw_data_1!A3=raw_data_2!A3,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B3" t="str">
         <f>IF(raw_data_1!B3=raw_data_2!B3,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C3" t="str">
         <f>IF(raw_data_1!C3=raw_data_2!C3,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D3" t="str">
         <f>IF(raw_data_1!D3=raw_data_2!D3,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E3" t="str">
         <f>IF(raw_data_1!E3=raw_data_2!E3,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F3" t="str">
         <f>IF(raw_data_1!F3=raw_data_2!F3,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G3" t="str">
         <f>IF(raw_data_1!G3=raw_data_2!G3,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <f>IF(raw_data_1!H3=raw_data_2!H3,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I3" t="str">
         <f>IF(raw_data_1!I3=raw_data_2!I3,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J3" t="str">
         <f>IF(raw_data_1!J3=raw_data_2!J3,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K3" t="str">
         <f>IF(raw_data_1!K3=raw_data_2!K3,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f>IF(raw_data_1!L3=raw_data_2!L3,"","check")</f>
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(raw_data_1!M3=raw_data_2!M3,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF(raw_data_1!A4=raw_data_2!A4,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B4" t="str">
         <f>IF(raw_data_1!B4=raw_data_2!B4,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C4" t="str">
         <f>IF(raw_data_1!C4=raw_data_2!C4,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D4" t="str">
         <f>IF(raw_data_1!D4=raw_data_2!D4,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <f>IF(raw_data_1!E4=raw_data_2!E4,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F4" t="str">
         <f>IF(raw_data_1!F4=raw_data_2!F4,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f>IF(raw_data_1!G4=raw_data_2!G4,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <f>IF(raw_data_1!H4=raw_data_2!H4,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I4" t="str">
         <f>IF(raw_data_1!I4=raw_data_2!I4,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J4" t="str">
         <f>IF(raw_data_1!J4=raw_data_2!J4,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K4" t="str">
         <f>IF(raw_data_1!K4=raw_data_2!K4,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(raw_data_1!L4=raw_data_2!L4,"","check")</f>
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <f>IF(raw_data_1!M4=raw_data_2!M4,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF(raw_data_1!A5=raw_data_2!A5,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B5" t="str">
         <f>IF(raw_data_1!B5=raw_data_2!B5,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C5" t="str">
         <f>IF(raw_data_1!C5=raw_data_2!C5,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D5" t="str">
         <f>IF(raw_data_1!D5=raw_data_2!D5,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f>IF(raw_data_1!E5=raw_data_2!E5,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F5" t="str">
         <f>IF(raw_data_1!F5=raw_data_2!F5,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <f>IF(raw_data_1!G5=raw_data_2!G5,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H5" t="str">
         <f>IF(raw_data_1!H5=raw_data_2!H5,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I5" t="str">
         <f>IF(raw_data_1!I5=raw_data_2!I5,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J5" t="str">
         <f>IF(raw_data_1!J5=raw_data_2!J5,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K5" t="str">
         <f>IF(raw_data_1!K5=raw_data_2!K5,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f>IF(raw_data_1!L5=raw_data_2!L5,"","check")</f>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f>IF(raw_data_1!M5=raw_data_2!M5,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF(raw_data_1!A6=raw_data_2!A6,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B6" t="str">
         <f>IF(raw_data_1!B6=raw_data_2!B6,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C6" t="str">
         <f>IF(raw_data_1!C6=raw_data_2!C6,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D6" t="str">
         <f>IF(raw_data_1!D6=raw_data_2!D6,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f>IF(raw_data_1!E6=raw_data_2!E6,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F6" t="str">
         <f>IF(raw_data_1!F6=raw_data_2!F6,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>IF(raw_data_1!G6=raw_data_2!G6,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H6" t="str">
         <f>IF(raw_data_1!H6=raw_data_2!H6,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I6" t="str">
         <f>IF(raw_data_1!I6=raw_data_2!I6,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J6" t="str">
         <f>IF(raw_data_1!J6=raw_data_2!J6,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K6" t="str">
         <f>IF(raw_data_1!K6=raw_data_2!K6,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(raw_data_1!L6=raw_data_2!L6,"","check")</f>
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <f>IF(raw_data_1!M6=raw_data_2!M6,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>IF(raw_data_1!A7=raw_data_2!A7,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B7" t="str">
         <f>IF(raw_data_1!B7=raw_data_2!B7,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C7" t="str">
         <f>IF(raw_data_1!C7=raw_data_2!C7,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D7" t="str">
         <f>IF(raw_data_1!D7=raw_data_2!D7,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E7" t="str">
         <f>IF(raw_data_1!E7=raw_data_2!E7,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F7" t="str">
         <f>IF(raw_data_1!F7=raw_data_2!F7,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G7" t="str">
         <f>IF(raw_data_1!G7=raw_data_2!G7,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H7" t="str">
         <f>IF(raw_data_1!H7=raw_data_2!H7,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I7" t="str">
         <f>IF(raw_data_1!I7=raw_data_2!I7,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J7" t="str">
         <f>IF(raw_data_1!J7=raw_data_2!J7,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K7" t="str">
         <f>IF(raw_data_1!K7=raw_data_2!K7,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(raw_data_1!L7=raw_data_2!L7,"","check")</f>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f>IF(raw_data_1!M7=raw_data_2!M7,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF(raw_data_1!A8=raw_data_2!A8,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B8" t="str">
         <f>IF(raw_data_1!B8=raw_data_2!B8,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C8" t="str">
         <f>IF(raw_data_1!C8=raw_data_2!C8,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D8" t="str">
         <f>IF(raw_data_1!D8=raw_data_2!D8,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E8" t="str">
         <f>IF(raw_data_1!E8=raw_data_2!E8,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F8" t="str">
         <f>IF(raw_data_1!F8=raw_data_2!F8,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G8" t="str">
         <f>IF(raw_data_1!G8=raw_data_2!G8,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H8" t="str">
         <f>IF(raw_data_1!H8=raw_data_2!H8,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I8" t="str">
         <f>IF(raw_data_1!I8=raw_data_2!I8,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J8" t="str">
         <f>IF(raw_data_1!J8=raw_data_2!J8,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K8" t="str">
         <f>IF(raw_data_1!K8=raw_data_2!K8,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f>IF(raw_data_1!L8=raw_data_2!L8,"","check")</f>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f>IF(raw_data_1!M8=raw_data_2!M8,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF(raw_data_1!A9=raw_data_2!A9,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B9" t="str">
         <f>IF(raw_data_1!B9=raw_data_2!B9,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C9" t="str">
         <f>IF(raw_data_1!C9=raw_data_2!C9,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D9" t="str">
         <f>IF(raw_data_1!D9=raw_data_2!D9,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E9" t="str">
         <f>IF(raw_data_1!E9=raw_data_2!E9,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F9" t="str">
         <f>IF(raw_data_1!F9=raw_data_2!F9,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G9" t="str">
         <f>IF(raw_data_1!G9=raw_data_2!G9,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H9" t="str">
         <f>IF(raw_data_1!H9=raw_data_2!H9,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I9" t="str">
         <f>IF(raw_data_1!I9=raw_data_2!I9,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J9" t="str">
         <f>IF(raw_data_1!J9=raw_data_2!J9,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K9" t="str">
         <f>IF(raw_data_1!K9=raw_data_2!K9,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f>IF(raw_data_1!L9=raw_data_2!L9,"","check")</f>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f>IF(raw_data_1!M9=raw_data_2!M9,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF(raw_data_1!A10=raw_data_2!A10,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B10" t="str">
         <f>IF(raw_data_1!B10=raw_data_2!B10,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C10" t="str">
         <f>IF(raw_data_1!C10=raw_data_2!C10,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D10" t="str">
         <f>IF(raw_data_1!D10=raw_data_2!D10,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E10" t="str">
         <f>IF(raw_data_1!E10=raw_data_2!E10,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F10" t="str">
         <f>IF(raw_data_1!F10=raw_data_2!F10,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G10" t="str">
         <f>IF(raw_data_1!G10=raw_data_2!G10,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H10" t="str">
         <f>IF(raw_data_1!H10=raw_data_2!H10,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I10" t="str">
         <f>IF(raw_data_1!I10=raw_data_2!I10,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J10" t="str">
         <f>IF(raw_data_1!J10=raw_data_2!J10,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K10" t="str">
         <f>IF(raw_data_1!K10=raw_data_2!K10,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(raw_data_1!L10=raw_data_2!L10,"","check")</f>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f>IF(raw_data_1!M10=raw_data_2!M10,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>IF(raw_data_1!A11=raw_data_2!A11,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B11" t="str">
         <f>IF(raw_data_1!B11=raw_data_2!B11,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C11" t="str">
         <f>IF(raw_data_1!C11=raw_data_2!C11,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D11" t="str">
         <f>IF(raw_data_1!D11=raw_data_2!D11,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E11" t="str">
         <f>IF(raw_data_1!E11=raw_data_2!E11,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F11" t="str">
         <f>IF(raw_data_1!F11=raw_data_2!F11,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G11" t="str">
         <f>IF(raw_data_1!G11=raw_data_2!G11,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H11" t="str">
         <f>IF(raw_data_1!H11=raw_data_2!H11,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I11" t="str">
         <f>IF(raw_data_1!I11=raw_data_2!I11,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J11" t="str">
         <f>IF(raw_data_1!J11=raw_data_2!J11,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K11" t="str">
         <f>IF(raw_data_1!K11=raw_data_2!K11,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f>IF(raw_data_1!L11=raw_data_2!L11,"","check")</f>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f>IF(raw_data_1!M11=raw_data_2!M11,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>IF(raw_data_1!A12=raw_data_2!A12,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B12" t="str">
         <f>IF(raw_data_1!B12=raw_data_2!B12,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C12" t="str">
         <f>IF(raw_data_1!C12=raw_data_2!C12,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D12" t="str">
         <f>IF(raw_data_1!D12=raw_data_2!D12,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E12" t="str">
         <f>IF(raw_data_1!E12=raw_data_2!E12,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F12" t="str">
         <f>IF(raw_data_1!F12=raw_data_2!F12,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G12" t="str">
         <f>IF(raw_data_1!G12=raw_data_2!G12,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H12" t="str">
         <f>IF(raw_data_1!H12=raw_data_2!H12,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I12" t="str">
         <f>IF(raw_data_1!I12=raw_data_2!I12,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J12" t="str">
         <f>IF(raw_data_1!J12=raw_data_2!J12,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K12" t="str">
         <f>IF(raw_data_1!K12=raw_data_2!K12,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f>IF(raw_data_1!L12=raw_data_2!L12,"","check")</f>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f>IF(raw_data_1!M12=raw_data_2!M12,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>IF(raw_data_1!A13=raw_data_2!A13,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B13" t="str">
         <f>IF(raw_data_1!B13=raw_data_2!B13,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C13" t="str">
         <f>IF(raw_data_1!C13=raw_data_2!C13,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D13" t="str">
         <f>IF(raw_data_1!D13=raw_data_2!D13,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E13" t="str">
         <f>IF(raw_data_1!E13=raw_data_2!E13,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F13" t="str">
         <f>IF(raw_data_1!F13=raw_data_2!F13,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G13" t="str">
         <f>IF(raw_data_1!G13=raw_data_2!G13,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H13" t="str">
         <f>IF(raw_data_1!H13=raw_data_2!H13,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I13" t="str">
         <f>IF(raw_data_1!I13=raw_data_2!I13,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J13" t="str">
         <f>IF(raw_data_1!J13=raw_data_2!J13,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K13" t="str">
         <f>IF(raw_data_1!K13=raw_data_2!K13,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(raw_data_1!L13=raw_data_2!L13,"","check")</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF(raw_data_1!M13=raw_data_2!M13,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF(raw_data_1!A14=raw_data_2!A14,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B14" t="str">
         <f>IF(raw_data_1!B14=raw_data_2!B14,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C14" t="str">
         <f>IF(raw_data_1!C14=raw_data_2!C14,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D14" t="str">
         <f>IF(raw_data_1!D14=raw_data_2!D14,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E14" t="str">
         <f>IF(raw_data_1!E14=raw_data_2!E14,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F14" t="str">
         <f>IF(raw_data_1!F14=raw_data_2!F14,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G14" t="str">
         <f>IF(raw_data_1!G14=raw_data_2!G14,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H14" t="str">
         <f>IF(raw_data_1!H14=raw_data_2!H14,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I14" t="str">
         <f>IF(raw_data_1!I14=raw_data_2!I14,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J14" t="str">
         <f>IF(raw_data_1!J14=raw_data_2!J14,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K14" t="str">
         <f>IF(raw_data_1!K14=raw_data_2!K14,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f>IF(raw_data_1!L14=raw_data_2!L14,"","check")</f>
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <f>IF(raw_data_1!M14=raw_data_2!M14,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>IF(raw_data_1!A15=raw_data_2!A15,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B15" t="str">
         <f>IF(raw_data_1!B15=raw_data_2!B15,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C15" t="str">
         <f>IF(raw_data_1!C15=raw_data_2!C15,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D15" t="str">
         <f>IF(raw_data_1!D15=raw_data_2!D15,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E15" t="str">
         <f>IF(raw_data_1!E15=raw_data_2!E15,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F15" t="str">
         <f>IF(raw_data_1!F15=raw_data_2!F15,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G15" t="str">
         <f>IF(raw_data_1!G15=raw_data_2!G15,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H15" t="str">
         <f>IF(raw_data_1!H15=raw_data_2!H15,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I15" t="str">
         <f>IF(raw_data_1!I15=raw_data_2!I15,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J15" t="str">
         <f>IF(raw_data_1!J15=raw_data_2!J15,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K15" t="str">
         <f>IF(raw_data_1!K15=raw_data_2!K15,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(raw_data_1!L15=raw_data_2!L15,"","check")</f>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f>IF(raw_data_1!M15=raw_data_2!M15,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF(raw_data_1!A16=raw_data_2!A16,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B16" t="str">
         <f>IF(raw_data_1!B16=raw_data_2!B16,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C16" t="str">
         <f>IF(raw_data_1!C16=raw_data_2!C16,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D16" t="str">
         <f>IF(raw_data_1!D16=raw_data_2!D16,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E16" t="str">
         <f>IF(raw_data_1!E16=raw_data_2!E16,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F16" t="str">
         <f>IF(raw_data_1!F16=raw_data_2!F16,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G16" t="str">
         <f>IF(raw_data_1!G16=raw_data_2!G16,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H16" t="str">
         <f>IF(raw_data_1!H16=raw_data_2!H16,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I16" t="str">
         <f>IF(raw_data_1!I16=raw_data_2!I16,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J16" t="str">
         <f>IF(raw_data_1!J16=raw_data_2!J16,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K16" t="str">
         <f>IF(raw_data_1!K16=raw_data_2!K16,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(raw_data_1!L16=raw_data_2!L16,"","check")</f>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f>IF(raw_data_1!M16=raw_data_2!M16,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>IF(raw_data_1!A17=raw_data_2!A17,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="B17" t="str">
         <f>IF(raw_data_1!B17=raw_data_2!B17,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="C17" t="str">
         <f>IF(raw_data_1!C17=raw_data_2!C17,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="D17" t="str">
         <f>IF(raw_data_1!D17=raw_data_2!D17,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="E17" t="str">
         <f>IF(raw_data_1!E17=raw_data_2!E17,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="F17" t="str">
         <f>IF(raw_data_1!F17=raw_data_2!F17,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="G17" t="str">
         <f>IF(raw_data_1!G17=raw_data_2!G17,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="H17" t="str">
         <f>IF(raw_data_1!H17=raw_data_2!H17,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="I17" t="str">
         <f>IF(raw_data_1!I17=raw_data_2!I17,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="J17" t="str">
         <f>IF(raw_data_1!J17=raw_data_2!J17,"","check")</f>
-        <v>check</v>
+        <v/>
       </c>
       <c r="K17" t="str">
         <f>IF(raw_data_1!K17=raw_data_2!K17,"","check")</f>
-        <v>check</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(raw_data_1!L17=raw_data_2!L17,"","check")</f>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f>IF(raw_data_1!M17=raw_data_2!M17,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>IF(raw_data_1!A18=raw_data_2!A18,"","check")</f>
         <v/>
@@ -2598,8 +3547,16 @@
         <f>IF(raw_data_1!K18=raw_data_2!K18,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="str">
+        <f>IF(raw_data_1!L18=raw_data_2!L18,"","check")</f>
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <f>IF(raw_data_1!M18=raw_data_2!M18,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>IF(raw_data_1!A19=raw_data_2!A19,"","check")</f>
         <v/>
@@ -2644,8 +3601,16 @@
         <f>IF(raw_data_1!K19=raw_data_2!K19,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="str">
+        <f>IF(raw_data_1!L19=raw_data_2!L19,"","check")</f>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f>IF(raw_data_1!M19=raw_data_2!M19,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>IF(raw_data_1!A20=raw_data_2!A20,"","check")</f>
         <v/>
@@ -2690,8 +3655,16 @@
         <f>IF(raw_data_1!K20=raw_data_2!K20,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="str">
+        <f>IF(raw_data_1!L20=raw_data_2!L20,"","check")</f>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f>IF(raw_data_1!M20=raw_data_2!M20,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>IF(raw_data_1!A21=raw_data_2!A21,"","check")</f>
         <v/>
@@ -2736,8 +3709,16 @@
         <f>IF(raw_data_1!K21=raw_data_2!K21,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="str">
+        <f>IF(raw_data_1!L21=raw_data_2!L21,"","check")</f>
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <f>IF(raw_data_1!M21=raw_data_2!M21,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>IF(raw_data_1!A22=raw_data_2!A22,"","check")</f>
         <v/>
@@ -2782,8 +3763,16 @@
         <f>IF(raw_data_1!K22=raw_data_2!K22,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="str">
+        <f>IF(raw_data_1!L22=raw_data_2!L22,"","check")</f>
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <f>IF(raw_data_1!M22=raw_data_2!M22,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>IF(raw_data_1!A23=raw_data_2!A23,"","check")</f>
         <v/>
@@ -2828,8 +3817,16 @@
         <f>IF(raw_data_1!K23=raw_data_2!K23,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="str">
+        <f>IF(raw_data_1!L23=raw_data_2!L23,"","check")</f>
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <f>IF(raw_data_1!M23=raw_data_2!M23,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>IF(raw_data_1!A24=raw_data_2!A24,"","check")</f>
         <v/>
@@ -2874,8 +3871,16 @@
         <f>IF(raw_data_1!K24=raw_data_2!K24,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="str">
+        <f>IF(raw_data_1!L24=raw_data_2!L24,"","check")</f>
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <f>IF(raw_data_1!M24=raw_data_2!M24,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>IF(raw_data_1!A25=raw_data_2!A25,"","check")</f>
         <v/>
@@ -2920,8 +3925,16 @@
         <f>IF(raw_data_1!K25=raw_data_2!K25,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="str">
+        <f>IF(raw_data_1!L25=raw_data_2!L25,"","check")</f>
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <f>IF(raw_data_1!M25=raw_data_2!M25,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>IF(raw_data_1!A26=raw_data_2!A26,"","check")</f>
         <v/>
@@ -2966,8 +3979,16 @@
         <f>IF(raw_data_1!K26=raw_data_2!K26,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="str">
+        <f>IF(raw_data_1!L26=raw_data_2!L26,"","check")</f>
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <f>IF(raw_data_1!M26=raw_data_2!M26,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>IF(raw_data_1!A27=raw_data_2!A27,"","check")</f>
         <v/>
@@ -3012,8 +4033,16 @@
         <f>IF(raw_data_1!K27=raw_data_2!K27,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="str">
+        <f>IF(raw_data_1!L27=raw_data_2!L27,"","check")</f>
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <f>IF(raw_data_1!M27=raw_data_2!M27,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>IF(raw_data_1!A28=raw_data_2!A28,"","check")</f>
         <v/>
@@ -3058,8 +4087,16 @@
         <f>IF(raw_data_1!K28=raw_data_2!K28,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="str">
+        <f>IF(raw_data_1!L28=raw_data_2!L28,"","check")</f>
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <f>IF(raw_data_1!M28=raw_data_2!M28,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>IF(raw_data_1!A29=raw_data_2!A29,"","check")</f>
         <v/>
@@ -3104,8 +4141,16 @@
         <f>IF(raw_data_1!K29=raw_data_2!K29,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="str">
+        <f>IF(raw_data_1!L29=raw_data_2!L29,"","check")</f>
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <f>IF(raw_data_1!M29=raw_data_2!M29,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>IF(raw_data_1!A30=raw_data_2!A30,"","check")</f>
         <v/>
@@ -3150,8 +4195,16 @@
         <f>IF(raw_data_1!K30=raw_data_2!K30,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="str">
+        <f>IF(raw_data_1!L30=raw_data_2!L30,"","check")</f>
+        <v/>
+      </c>
+      <c r="M30" t="str">
+        <f>IF(raw_data_1!M30=raw_data_2!M30,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>IF(raw_data_1!A31=raw_data_2!A31,"","check")</f>
         <v/>
@@ -3196,8 +4249,16 @@
         <f>IF(raw_data_1!K31=raw_data_2!K31,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="str">
+        <f>IF(raw_data_1!L31=raw_data_2!L31,"","check")</f>
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <f>IF(raw_data_1!M31=raw_data_2!M31,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>IF(raw_data_1!A32=raw_data_2!A32,"","check")</f>
         <v/>
@@ -3242,8 +4303,16 @@
         <f>IF(raw_data_1!K32=raw_data_2!K32,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="str">
+        <f>IF(raw_data_1!L32=raw_data_2!L32,"","check")</f>
+        <v/>
+      </c>
+      <c r="M32" t="str">
+        <f>IF(raw_data_1!M32=raw_data_2!M32,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>IF(raw_data_1!A33=raw_data_2!A33,"","check")</f>
         <v/>
@@ -3288,8 +4357,16 @@
         <f>IF(raw_data_1!K33=raw_data_2!K33,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="str">
+        <f>IF(raw_data_1!L33=raw_data_2!L33,"","check")</f>
+        <v/>
+      </c>
+      <c r="M33" t="str">
+        <f>IF(raw_data_1!M33=raw_data_2!M33,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>IF(raw_data_1!A34=raw_data_2!A34,"","check")</f>
         <v/>
@@ -3334,8 +4411,16 @@
         <f>IF(raw_data_1!K34=raw_data_2!K34,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" t="str">
+        <f>IF(raw_data_1!L34=raw_data_2!L34,"","check")</f>
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <f>IF(raw_data_1!M34=raw_data_2!M34,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>IF(raw_data_1!A35=raw_data_2!A35,"","check")</f>
         <v/>
@@ -3380,8 +4465,16 @@
         <f>IF(raw_data_1!K35=raw_data_2!K35,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="str">
+        <f>IF(raw_data_1!L35=raw_data_2!L35,"","check")</f>
+        <v/>
+      </c>
+      <c r="M35" t="str">
+        <f>IF(raw_data_1!M35=raw_data_2!M35,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>IF(raw_data_1!A36=raw_data_2!A36,"","check")</f>
         <v/>
@@ -3426,8 +4519,16 @@
         <f>IF(raw_data_1!K36=raw_data_2!K36,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="str">
+        <f>IF(raw_data_1!L36=raw_data_2!L36,"","check")</f>
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <f>IF(raw_data_1!M36=raw_data_2!M36,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>IF(raw_data_1!A37=raw_data_2!A37,"","check")</f>
         <v/>
@@ -3472,8 +4573,16 @@
         <f>IF(raw_data_1!K37=raw_data_2!K37,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="str">
+        <f>IF(raw_data_1!L37=raw_data_2!L37,"","check")</f>
+        <v/>
+      </c>
+      <c r="M37" t="str">
+        <f>IF(raw_data_1!M37=raw_data_2!M37,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>IF(raw_data_1!A38=raw_data_2!A38,"","check")</f>
         <v/>
@@ -3518,8 +4627,16 @@
         <f>IF(raw_data_1!K38=raw_data_2!K38,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="str">
+        <f>IF(raw_data_1!L38=raw_data_2!L38,"","check")</f>
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <f>IF(raw_data_1!M38=raw_data_2!M38,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>IF(raw_data_1!A39=raw_data_2!A39,"","check")</f>
         <v/>
@@ -3564,8 +4681,16 @@
         <f>IF(raw_data_1!K39=raw_data_2!K39,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="str">
+        <f>IF(raw_data_1!L39=raw_data_2!L39,"","check")</f>
+        <v/>
+      </c>
+      <c r="M39" t="str">
+        <f>IF(raw_data_1!M39=raw_data_2!M39,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>IF(raw_data_1!A40=raw_data_2!A40,"","check")</f>
         <v/>
@@ -3610,8 +4735,16 @@
         <f>IF(raw_data_1!K40=raw_data_2!K40,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="str">
+        <f>IF(raw_data_1!L40=raw_data_2!L40,"","check")</f>
+        <v/>
+      </c>
+      <c r="M40" t="str">
+        <f>IF(raw_data_1!M40=raw_data_2!M40,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>IF(raw_data_1!A41=raw_data_2!A41,"","check")</f>
         <v/>
@@ -3656,8 +4789,16 @@
         <f>IF(raw_data_1!K41=raw_data_2!K41,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="str">
+        <f>IF(raw_data_1!L41=raw_data_2!L41,"","check")</f>
+        <v/>
+      </c>
+      <c r="M41" t="str">
+        <f>IF(raw_data_1!M41=raw_data_2!M41,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>IF(raw_data_1!A42=raw_data_2!A42,"","check")</f>
         <v/>
@@ -3702,8 +4843,16 @@
         <f>IF(raw_data_1!K42=raw_data_2!K42,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" t="str">
+        <f>IF(raw_data_1!L42=raw_data_2!L42,"","check")</f>
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <f>IF(raw_data_1!M42=raw_data_2!M42,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>IF(raw_data_1!A43=raw_data_2!A43,"","check")</f>
         <v/>
@@ -3748,8 +4897,16 @@
         <f>IF(raw_data_1!K43=raw_data_2!K43,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="str">
+        <f>IF(raw_data_1!L43=raw_data_2!L43,"","check")</f>
+        <v/>
+      </c>
+      <c r="M43" t="str">
+        <f>IF(raw_data_1!M43=raw_data_2!M43,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>IF(raw_data_1!A44=raw_data_2!A44,"","check")</f>
         <v/>
@@ -3794,8 +4951,16 @@
         <f>IF(raw_data_1!K44=raw_data_2!K44,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="str">
+        <f>IF(raw_data_1!L44=raw_data_2!L44,"","check")</f>
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <f>IF(raw_data_1!M44=raw_data_2!M44,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>IF(raw_data_1!A45=raw_data_2!A45,"","check")</f>
         <v/>
@@ -3840,8 +5005,16 @@
         <f>IF(raw_data_1!K45=raw_data_2!K45,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="str">
+        <f>IF(raw_data_1!L45=raw_data_2!L45,"","check")</f>
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <f>IF(raw_data_1!M45=raw_data_2!M45,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>IF(raw_data_1!A46=raw_data_2!A46,"","check")</f>
         <v/>
@@ -3886,8 +5059,16 @@
         <f>IF(raw_data_1!K46=raw_data_2!K46,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="str">
+        <f>IF(raw_data_1!L46=raw_data_2!L46,"","check")</f>
+        <v/>
+      </c>
+      <c r="M46" t="str">
+        <f>IF(raw_data_1!M46=raw_data_2!M46,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>IF(raw_data_1!A47=raw_data_2!A47,"","check")</f>
         <v/>
@@ -3932,8 +5113,16 @@
         <f>IF(raw_data_1!K47=raw_data_2!K47,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" t="str">
+        <f>IF(raw_data_1!L47=raw_data_2!L47,"","check")</f>
+        <v/>
+      </c>
+      <c r="M47" t="str">
+        <f>IF(raw_data_1!M47=raw_data_2!M47,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>IF(raw_data_1!A48=raw_data_2!A48,"","check")</f>
         <v/>
@@ -3978,8 +5167,16 @@
         <f>IF(raw_data_1!K48=raw_data_2!K48,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="str">
+        <f>IF(raw_data_1!L48=raw_data_2!L48,"","check")</f>
+        <v/>
+      </c>
+      <c r="M48" t="str">
+        <f>IF(raw_data_1!M48=raw_data_2!M48,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>IF(raw_data_1!A49=raw_data_2!A49,"","check")</f>
         <v/>
@@ -4024,8 +5221,16 @@
         <f>IF(raw_data_1!K49=raw_data_2!K49,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="str">
+        <f>IF(raw_data_1!L49=raw_data_2!L49,"","check")</f>
+        <v/>
+      </c>
+      <c r="M49" t="str">
+        <f>IF(raw_data_1!M49=raw_data_2!M49,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>IF(raw_data_1!A50=raw_data_2!A50,"","check")</f>
         <v/>
@@ -4070,8 +5275,16 @@
         <f>IF(raw_data_1!K50=raw_data_2!K50,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="str">
+        <f>IF(raw_data_1!L50=raw_data_2!L50,"","check")</f>
+        <v/>
+      </c>
+      <c r="M50" t="str">
+        <f>IF(raw_data_1!M50=raw_data_2!M50,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>IF(raw_data_1!A51=raw_data_2!A51,"","check")</f>
         <v/>
@@ -4116,8 +5329,16 @@
         <f>IF(raw_data_1!K51=raw_data_2!K51,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" t="str">
+        <f>IF(raw_data_1!L51=raw_data_2!L51,"","check")</f>
+        <v/>
+      </c>
+      <c r="M51" t="str">
+        <f>IF(raw_data_1!M51=raw_data_2!M51,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>IF(raw_data_1!A52=raw_data_2!A52,"","check")</f>
         <v/>
@@ -4162,8 +5383,16 @@
         <f>IF(raw_data_1!K52=raw_data_2!K52,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" t="str">
+        <f>IF(raw_data_1!L52=raw_data_2!L52,"","check")</f>
+        <v/>
+      </c>
+      <c r="M52" t="str">
+        <f>IF(raw_data_1!M52=raw_data_2!M52,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>IF(raw_data_1!A53=raw_data_2!A53,"","check")</f>
         <v/>
@@ -4208,8 +5437,16 @@
         <f>IF(raw_data_1!K53=raw_data_2!K53,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" t="str">
+        <f>IF(raw_data_1!L53=raw_data_2!L53,"","check")</f>
+        <v/>
+      </c>
+      <c r="M53" t="str">
+        <f>IF(raw_data_1!M53=raw_data_2!M53,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>IF(raw_data_1!A54=raw_data_2!A54,"","check")</f>
         <v/>
@@ -4254,8 +5491,16 @@
         <f>IF(raw_data_1!K54=raw_data_2!K54,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" t="str">
+        <f>IF(raw_data_1!L54=raw_data_2!L54,"","check")</f>
+        <v/>
+      </c>
+      <c r="M54" t="str">
+        <f>IF(raw_data_1!M54=raw_data_2!M54,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>IF(raw_data_1!A55=raw_data_2!A55,"","check")</f>
         <v/>
@@ -4300,8 +5545,16 @@
         <f>IF(raw_data_1!K55=raw_data_2!K55,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" t="str">
+        <f>IF(raw_data_1!L55=raw_data_2!L55,"","check")</f>
+        <v/>
+      </c>
+      <c r="M55" t="str">
+        <f>IF(raw_data_1!M55=raw_data_2!M55,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>IF(raw_data_1!A56=raw_data_2!A56,"","check")</f>
         <v/>
@@ -4346,8 +5599,16 @@
         <f>IF(raw_data_1!K56=raw_data_2!K56,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" t="str">
+        <f>IF(raw_data_1!L56=raw_data_2!L56,"","check")</f>
+        <v/>
+      </c>
+      <c r="M56" t="str">
+        <f>IF(raw_data_1!M56=raw_data_2!M56,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>IF(raw_data_1!A57=raw_data_2!A57,"","check")</f>
         <v/>
@@ -4392,8 +5653,16 @@
         <f>IF(raw_data_1!K57=raw_data_2!K57,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" t="str">
+        <f>IF(raw_data_1!L57=raw_data_2!L57,"","check")</f>
+        <v/>
+      </c>
+      <c r="M57" t="str">
+        <f>IF(raw_data_1!M57=raw_data_2!M57,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>IF(raw_data_1!A58=raw_data_2!A58,"","check")</f>
         <v/>
@@ -4438,8 +5707,16 @@
         <f>IF(raw_data_1!K58=raw_data_2!K58,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" t="str">
+        <f>IF(raw_data_1!L58=raw_data_2!L58,"","check")</f>
+        <v/>
+      </c>
+      <c r="M58" t="str">
+        <f>IF(raw_data_1!M58=raw_data_2!M58,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>IF(raw_data_1!A59=raw_data_2!A59,"","check")</f>
         <v/>
@@ -4484,8 +5761,16 @@
         <f>IF(raw_data_1!K59=raw_data_2!K59,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" t="str">
+        <f>IF(raw_data_1!L59=raw_data_2!L59,"","check")</f>
+        <v/>
+      </c>
+      <c r="M59" t="str">
+        <f>IF(raw_data_1!M59=raw_data_2!M59,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>IF(raw_data_1!A60=raw_data_2!A60,"","check")</f>
         <v/>
@@ -4530,8 +5815,16 @@
         <f>IF(raw_data_1!K60=raw_data_2!K60,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" t="str">
+        <f>IF(raw_data_1!L60=raw_data_2!L60,"","check")</f>
+        <v/>
+      </c>
+      <c r="M60" t="str">
+        <f>IF(raw_data_1!M60=raw_data_2!M60,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>IF(raw_data_1!A61=raw_data_2!A61,"","check")</f>
         <v/>
@@ -4576,8 +5869,16 @@
         <f>IF(raw_data_1!K61=raw_data_2!K61,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" t="str">
+        <f>IF(raw_data_1!L61=raw_data_2!L61,"","check")</f>
+        <v/>
+      </c>
+      <c r="M61" t="str">
+        <f>IF(raw_data_1!M61=raw_data_2!M61,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>IF(raw_data_1!A62=raw_data_2!A62,"","check")</f>
         <v/>
@@ -4622,8 +5923,16 @@
         <f>IF(raw_data_1!K62=raw_data_2!K62,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" t="str">
+        <f>IF(raw_data_1!L62=raw_data_2!L62,"","check")</f>
+        <v/>
+      </c>
+      <c r="M62" t="str">
+        <f>IF(raw_data_1!M62=raw_data_2!M62,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>IF(raw_data_1!A63=raw_data_2!A63,"","check")</f>
         <v/>
@@ -4668,8 +5977,16 @@
         <f>IF(raw_data_1!K63=raw_data_2!K63,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" t="str">
+        <f>IF(raw_data_1!L63=raw_data_2!L63,"","check")</f>
+        <v/>
+      </c>
+      <c r="M63" t="str">
+        <f>IF(raw_data_1!M63=raw_data_2!M63,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>IF(raw_data_1!A64=raw_data_2!A64,"","check")</f>
         <v/>
@@ -4714,8 +6031,16 @@
         <f>IF(raw_data_1!K64=raw_data_2!K64,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" t="str">
+        <f>IF(raw_data_1!L64=raw_data_2!L64,"","check")</f>
+        <v/>
+      </c>
+      <c r="M64" t="str">
+        <f>IF(raw_data_1!M64=raw_data_2!M64,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>IF(raw_data_1!A65=raw_data_2!A65,"","check")</f>
         <v/>
@@ -4760,8 +6085,16 @@
         <f>IF(raw_data_1!K65=raw_data_2!K65,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" t="str">
+        <f>IF(raw_data_1!L65=raw_data_2!L65,"","check")</f>
+        <v/>
+      </c>
+      <c r="M65" t="str">
+        <f>IF(raw_data_1!M65=raw_data_2!M65,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>IF(raw_data_1!A66=raw_data_2!A66,"","check")</f>
         <v/>
@@ -4806,8 +6139,16 @@
         <f>IF(raw_data_1!K66=raw_data_2!K66,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" t="str">
+        <f>IF(raw_data_1!L66=raw_data_2!L66,"","check")</f>
+        <v/>
+      </c>
+      <c r="M66" t="str">
+        <f>IF(raw_data_1!M66=raw_data_2!M66,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>IF(raw_data_1!A67=raw_data_2!A67,"","check")</f>
         <v/>
@@ -4852,8 +6193,16 @@
         <f>IF(raw_data_1!K67=raw_data_2!K67,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" t="str">
+        <f>IF(raw_data_1!L67=raw_data_2!L67,"","check")</f>
+        <v/>
+      </c>
+      <c r="M67" t="str">
+        <f>IF(raw_data_1!M67=raw_data_2!M67,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>IF(raw_data_1!A68=raw_data_2!A68,"","check")</f>
         <v/>
@@ -4898,8 +6247,16 @@
         <f>IF(raw_data_1!K68=raw_data_2!K68,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" t="str">
+        <f>IF(raw_data_1!L68=raw_data_2!L68,"","check")</f>
+        <v/>
+      </c>
+      <c r="M68" t="str">
+        <f>IF(raw_data_1!M68=raw_data_2!M68,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>IF(raw_data_1!A69=raw_data_2!A69,"","check")</f>
         <v/>
@@ -4944,8 +6301,16 @@
         <f>IF(raw_data_1!K69=raw_data_2!K69,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" t="str">
+        <f>IF(raw_data_1!L69=raw_data_2!L69,"","check")</f>
+        <v/>
+      </c>
+      <c r="M69" t="str">
+        <f>IF(raw_data_1!M69=raw_data_2!M69,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>IF(raw_data_1!A70=raw_data_2!A70,"","check")</f>
         <v/>
@@ -4990,8 +6355,16 @@
         <f>IF(raw_data_1!K70=raw_data_2!K70,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" t="str">
+        <f>IF(raw_data_1!L70=raw_data_2!L70,"","check")</f>
+        <v/>
+      </c>
+      <c r="M70" t="str">
+        <f>IF(raw_data_1!M70=raw_data_2!M70,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>IF(raw_data_1!A71=raw_data_2!A71,"","check")</f>
         <v/>
@@ -5036,8 +6409,16 @@
         <f>IF(raw_data_1!K71=raw_data_2!K71,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" t="str">
+        <f>IF(raw_data_1!L71=raw_data_2!L71,"","check")</f>
+        <v/>
+      </c>
+      <c r="M71" t="str">
+        <f>IF(raw_data_1!M71=raw_data_2!M71,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>IF(raw_data_1!A72=raw_data_2!A72,"","check")</f>
         <v/>
@@ -5082,8 +6463,16 @@
         <f>IF(raw_data_1!K72=raw_data_2!K72,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" t="str">
+        <f>IF(raw_data_1!L72=raw_data_2!L72,"","check")</f>
+        <v/>
+      </c>
+      <c r="M72" t="str">
+        <f>IF(raw_data_1!M72=raw_data_2!M72,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>IF(raw_data_1!A73=raw_data_2!A73,"","check")</f>
         <v/>
@@ -5128,8 +6517,16 @@
         <f>IF(raw_data_1!K73=raw_data_2!K73,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" t="str">
+        <f>IF(raw_data_1!L73=raw_data_2!L73,"","check")</f>
+        <v/>
+      </c>
+      <c r="M73" t="str">
+        <f>IF(raw_data_1!M73=raw_data_2!M73,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>IF(raw_data_1!A74=raw_data_2!A74,"","check")</f>
         <v/>
@@ -5174,8 +6571,16 @@
         <f>IF(raw_data_1!K74=raw_data_2!K74,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" t="str">
+        <f>IF(raw_data_1!L74=raw_data_2!L74,"","check")</f>
+        <v/>
+      </c>
+      <c r="M74" t="str">
+        <f>IF(raw_data_1!M74=raw_data_2!M74,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>IF(raw_data_1!A75=raw_data_2!A75,"","check")</f>
         <v/>
@@ -5220,8 +6625,16 @@
         <f>IF(raw_data_1!K75=raw_data_2!K75,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" t="str">
+        <f>IF(raw_data_1!L75=raw_data_2!L75,"","check")</f>
+        <v/>
+      </c>
+      <c r="M75" t="str">
+        <f>IF(raw_data_1!M75=raw_data_2!M75,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>IF(raw_data_1!A76=raw_data_2!A76,"","check")</f>
         <v/>
@@ -5266,8 +6679,16 @@
         <f>IF(raw_data_1!K76=raw_data_2!K76,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" t="str">
+        <f>IF(raw_data_1!L76=raw_data_2!L76,"","check")</f>
+        <v/>
+      </c>
+      <c r="M76" t="str">
+        <f>IF(raw_data_1!M76=raw_data_2!M76,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>IF(raw_data_1!A77=raw_data_2!A77,"","check")</f>
         <v/>
@@ -5312,8 +6733,16 @@
         <f>IF(raw_data_1!K77=raw_data_2!K77,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" t="str">
+        <f>IF(raw_data_1!L77=raw_data_2!L77,"","check")</f>
+        <v/>
+      </c>
+      <c r="M77" t="str">
+        <f>IF(raw_data_1!M77=raw_data_2!M77,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>IF(raw_data_1!A78=raw_data_2!A78,"","check")</f>
         <v/>
@@ -5358,8 +6787,16 @@
         <f>IF(raw_data_1!K78=raw_data_2!K78,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" t="str">
+        <f>IF(raw_data_1!L78=raw_data_2!L78,"","check")</f>
+        <v/>
+      </c>
+      <c r="M78" t="str">
+        <f>IF(raw_data_1!M78=raw_data_2!M78,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>IF(raw_data_1!A79=raw_data_2!A79,"","check")</f>
         <v/>
@@ -5404,8 +6841,16 @@
         <f>IF(raw_data_1!K79=raw_data_2!K79,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" t="str">
+        <f>IF(raw_data_1!L79=raw_data_2!L79,"","check")</f>
+        <v/>
+      </c>
+      <c r="M79" t="str">
+        <f>IF(raw_data_1!M79=raw_data_2!M79,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>IF(raw_data_1!A80=raw_data_2!A80,"","check")</f>
         <v/>
@@ -5450,8 +6895,16 @@
         <f>IF(raw_data_1!K80=raw_data_2!K80,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" t="str">
+        <f>IF(raw_data_1!L80=raw_data_2!L80,"","check")</f>
+        <v/>
+      </c>
+      <c r="M80" t="str">
+        <f>IF(raw_data_1!M80=raw_data_2!M80,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>IF(raw_data_1!A81=raw_data_2!A81,"","check")</f>
         <v/>
@@ -5496,8 +6949,16 @@
         <f>IF(raw_data_1!K81=raw_data_2!K81,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" t="str">
+        <f>IF(raw_data_1!L81=raw_data_2!L81,"","check")</f>
+        <v/>
+      </c>
+      <c r="M81" t="str">
+        <f>IF(raw_data_1!M81=raw_data_2!M81,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>IF(raw_data_1!A82=raw_data_2!A82,"","check")</f>
         <v/>
@@ -5542,8 +7003,16 @@
         <f>IF(raw_data_1!K82=raw_data_2!K82,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" t="str">
+        <f>IF(raw_data_1!L82=raw_data_2!L82,"","check")</f>
+        <v/>
+      </c>
+      <c r="M82" t="str">
+        <f>IF(raw_data_1!M82=raw_data_2!M82,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>IF(raw_data_1!A83=raw_data_2!A83,"","check")</f>
         <v/>
@@ -5588,8 +7057,16 @@
         <f>IF(raw_data_1!K83=raw_data_2!K83,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" t="str">
+        <f>IF(raw_data_1!L83=raw_data_2!L83,"","check")</f>
+        <v/>
+      </c>
+      <c r="M83" t="str">
+        <f>IF(raw_data_1!M83=raw_data_2!M83,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>IF(raw_data_1!A84=raw_data_2!A84,"","check")</f>
         <v/>
@@ -5634,8 +7111,16 @@
         <f>IF(raw_data_1!K84=raw_data_2!K84,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" t="str">
+        <f>IF(raw_data_1!L84=raw_data_2!L84,"","check")</f>
+        <v/>
+      </c>
+      <c r="M84" t="str">
+        <f>IF(raw_data_1!M84=raw_data_2!M84,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>IF(raw_data_1!A85=raw_data_2!A85,"","check")</f>
         <v/>
@@ -5680,8 +7165,16 @@
         <f>IF(raw_data_1!K85=raw_data_2!K85,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" t="str">
+        <f>IF(raw_data_1!L85=raw_data_2!L85,"","check")</f>
+        <v/>
+      </c>
+      <c r="M85" t="str">
+        <f>IF(raw_data_1!M85=raw_data_2!M85,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>IF(raw_data_1!A86=raw_data_2!A86,"","check")</f>
         <v/>
@@ -5726,8 +7219,16 @@
         <f>IF(raw_data_1!K86=raw_data_2!K86,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" t="str">
+        <f>IF(raw_data_1!L86=raw_data_2!L86,"","check")</f>
+        <v/>
+      </c>
+      <c r="M86" t="str">
+        <f>IF(raw_data_1!M86=raw_data_2!M86,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>IF(raw_data_1!A87=raw_data_2!A87,"","check")</f>
         <v/>
@@ -5772,8 +7273,16 @@
         <f>IF(raw_data_1!K87=raw_data_2!K87,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" t="str">
+        <f>IF(raw_data_1!L87=raw_data_2!L87,"","check")</f>
+        <v/>
+      </c>
+      <c r="M87" t="str">
+        <f>IF(raw_data_1!M87=raw_data_2!M87,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>IF(raw_data_1!A88=raw_data_2!A88,"","check")</f>
         <v/>
@@ -5818,8 +7327,16 @@
         <f>IF(raw_data_1!K88=raw_data_2!K88,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" t="str">
+        <f>IF(raw_data_1!L88=raw_data_2!L88,"","check")</f>
+        <v/>
+      </c>
+      <c r="M88" t="str">
+        <f>IF(raw_data_1!M88=raw_data_2!M88,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>IF(raw_data_1!A89=raw_data_2!A89,"","check")</f>
         <v/>
@@ -5864,8 +7381,16 @@
         <f>IF(raw_data_1!K89=raw_data_2!K89,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" t="str">
+        <f>IF(raw_data_1!L89=raw_data_2!L89,"","check")</f>
+        <v/>
+      </c>
+      <c r="M89" t="str">
+        <f>IF(raw_data_1!M89=raw_data_2!M89,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>IF(raw_data_1!A90=raw_data_2!A90,"","check")</f>
         <v/>
@@ -5910,8 +7435,16 @@
         <f>IF(raw_data_1!K90=raw_data_2!K90,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" t="str">
+        <f>IF(raw_data_1!L90=raw_data_2!L90,"","check")</f>
+        <v/>
+      </c>
+      <c r="M90" t="str">
+        <f>IF(raw_data_1!M90=raw_data_2!M90,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>IF(raw_data_1!A91=raw_data_2!A91,"","check")</f>
         <v/>
@@ -5956,8 +7489,16 @@
         <f>IF(raw_data_1!K91=raw_data_2!K91,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" t="str">
+        <f>IF(raw_data_1!L91=raw_data_2!L91,"","check")</f>
+        <v/>
+      </c>
+      <c r="M91" t="str">
+        <f>IF(raw_data_1!M91=raw_data_2!M91,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>IF(raw_data_1!A92=raw_data_2!A92,"","check")</f>
         <v/>
@@ -6002,8 +7543,16 @@
         <f>IF(raw_data_1!K92=raw_data_2!K92,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" t="str">
+        <f>IF(raw_data_1!L92=raw_data_2!L92,"","check")</f>
+        <v/>
+      </c>
+      <c r="M92" t="str">
+        <f>IF(raw_data_1!M92=raw_data_2!M92,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>IF(raw_data_1!A93=raw_data_2!A93,"","check")</f>
         <v/>
@@ -6048,8 +7597,16 @@
         <f>IF(raw_data_1!K93=raw_data_2!K93,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" t="str">
+        <f>IF(raw_data_1!L93=raw_data_2!L93,"","check")</f>
+        <v/>
+      </c>
+      <c r="M93" t="str">
+        <f>IF(raw_data_1!M93=raw_data_2!M93,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>IF(raw_data_1!A94=raw_data_2!A94,"","check")</f>
         <v/>
@@ -6094,8 +7651,16 @@
         <f>IF(raw_data_1!K94=raw_data_2!K94,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" t="str">
+        <f>IF(raw_data_1!L94=raw_data_2!L94,"","check")</f>
+        <v/>
+      </c>
+      <c r="M94" t="str">
+        <f>IF(raw_data_1!M94=raw_data_2!M94,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>IF(raw_data_1!A95=raw_data_2!A95,"","check")</f>
         <v/>
@@ -6140,8 +7705,16 @@
         <f>IF(raw_data_1!K95=raw_data_2!K95,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" t="str">
+        <f>IF(raw_data_1!L95=raw_data_2!L95,"","check")</f>
+        <v/>
+      </c>
+      <c r="M95" t="str">
+        <f>IF(raw_data_1!M95=raw_data_2!M95,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>IF(raw_data_1!A96=raw_data_2!A96,"","check")</f>
         <v/>
@@ -6186,8 +7759,16 @@
         <f>IF(raw_data_1!K96=raw_data_2!K96,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" t="str">
+        <f>IF(raw_data_1!L96=raw_data_2!L96,"","check")</f>
+        <v/>
+      </c>
+      <c r="M96" t="str">
+        <f>IF(raw_data_1!M96=raw_data_2!M96,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>IF(raw_data_1!A97=raw_data_2!A97,"","check")</f>
         <v/>
@@ -6232,8 +7813,16 @@
         <f>IF(raw_data_1!K97=raw_data_2!K97,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" t="str">
+        <f>IF(raw_data_1!L97=raw_data_2!L97,"","check")</f>
+        <v/>
+      </c>
+      <c r="M97" t="str">
+        <f>IF(raw_data_1!M97=raw_data_2!M97,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>IF(raw_data_1!A98=raw_data_2!A98,"","check")</f>
         <v/>
@@ -6278,8 +7867,16 @@
         <f>IF(raw_data_1!K98=raw_data_2!K98,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" t="str">
+        <f>IF(raw_data_1!L98=raw_data_2!L98,"","check")</f>
+        <v/>
+      </c>
+      <c r="M98" t="str">
+        <f>IF(raw_data_1!M98=raw_data_2!M98,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>IF(raw_data_1!A99=raw_data_2!A99,"","check")</f>
         <v/>
@@ -6324,8 +7921,16 @@
         <f>IF(raw_data_1!K99=raw_data_2!K99,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" t="str">
+        <f>IF(raw_data_1!L99=raw_data_2!L99,"","check")</f>
+        <v/>
+      </c>
+      <c r="M99" t="str">
+        <f>IF(raw_data_1!M99=raw_data_2!M99,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>IF(raw_data_1!A100=raw_data_2!A100,"","check")</f>
         <v/>
@@ -6368,6 +7973,14 @@
       </c>
       <c r="K100" t="str">
         <f>IF(raw_data_1!K100=raw_data_2!K100,"","check")</f>
+        <v/>
+      </c>
+      <c r="L100" t="str">
+        <f>IF(raw_data_1!L100=raw_data_2!L100,"","check")</f>
+        <v/>
+      </c>
+      <c r="M100" t="str">
+        <f>IF(raw_data_1!M100=raw_data_2!M100,"","check")</f>
         <v/>
       </c>
     </row>
@@ -6426,15 +8039,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -6468,8 +8081,14 @@
       <c r="K1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -6491,8 +8110,14 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>9</v>
       </c>
@@ -6511,8 +8136,14 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>3</v>
       </c>
@@ -6525,8 +8156,14 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>4</v>
       </c>
@@ -6539,16 +8176,28 @@
       <c r="G5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>5</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>6</v>
       </c>
@@ -6556,7 +8205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>7</v>
       </c>
@@ -6564,7 +8213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>8</v>
       </c>
@@ -6572,7 +8221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>9</v>
       </c>
@@ -6580,7 +8229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>10</v>
       </c>
@@ -6588,7 +8237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>11</v>
       </c>
@@ -6596,7 +8245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>12</v>
       </c>
@@ -6604,7 +8253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>13</v>
       </c>
@@ -6612,7 +8261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>14</v>
       </c>
@@ -6620,7 +8269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>15</v>
       </c>
@@ -6730,10 +8379,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6829,6 +8478,22 @@
         <v>43</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Oyster/cultchmass/cultchmass_packet.xlsx
+++ b/Oyster/cultchmass/cultchmass_packet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="datasheet" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="raw_check" sheetId="4" r:id="rId4"/>
     <sheet name="pick" sheetId="5" r:id="rId5"/>
     <sheet name="description" sheetId="6" r:id="rId6"/>
+    <sheet name="progress" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="75">
   <si>
     <t>REEF MASS FIELD DATASHEET</t>
   </si>
@@ -184,6 +185,72 @@
   <si>
     <t>jh</t>
   </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>sampled</t>
+  </si>
+  <si>
+    <t>scanned</t>
+  </si>
+  <si>
+    <t>entry1</t>
+  </si>
+  <si>
+    <t>entry2</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>BTI1</t>
+  </si>
+  <si>
+    <t>BTI5</t>
+  </si>
+  <si>
+    <t>BTI6</t>
+  </si>
+  <si>
+    <t>LCI1</t>
+  </si>
+  <si>
+    <t>LCI12</t>
+  </si>
+  <si>
+    <t>LCI19</t>
+  </si>
+  <si>
+    <t>LCI2</t>
+  </si>
+  <si>
+    <t>LCI6</t>
+  </si>
+  <si>
+    <t>LCI8</t>
+  </si>
+  <si>
+    <t>LCN3</t>
+  </si>
+  <si>
+    <t>LCN7</t>
+  </si>
+  <si>
+    <t>LCN8</t>
+  </si>
+  <si>
+    <t>LTI1</t>
+  </si>
+  <si>
+    <t>LTI5</t>
+  </si>
+  <si>
+    <t>LTI6</t>
+  </si>
+  <si>
+    <t>NNI1</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -389,6 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1816,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -8497,4 +8565,1085 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D2" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D3" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D4" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D5" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D6" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D7" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D8" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D9" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D10" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D11" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D12" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D13" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D14" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E14" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F14" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G14" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D15" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E15" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F15" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G15" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D16" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E16" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F16" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G16" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D17" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E17" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F17" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G17" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D18" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E18" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F18" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G18" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D19" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E19" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F19" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G19" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D20" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E20" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F20" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G20" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D21" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E21" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F21" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G21" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D22" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E22" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F22" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G22" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D23" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E23" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F23" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G23" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D24" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E24" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F24" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G24" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D25" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E25" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F25" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G25" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D26" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E26" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F26" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G26" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D27" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E27" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F27" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G27" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D28" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E28" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F28" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G28" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="21">
+        <v>43703</v>
+      </c>
+      <c r="D29" s="21">
+        <v>43704</v>
+      </c>
+      <c r="E29" s="21">
+        <v>43720</v>
+      </c>
+      <c r="F29" s="21">
+        <v>43721</v>
+      </c>
+      <c r="G29" s="21">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D30" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D31" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D32" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D33" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D34" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D35" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D36" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D37" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D38" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D39" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D40" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D41" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D42" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D43" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D44" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D45" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D46" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D47" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D48" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D49" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D50" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D51" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D52" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D53" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D54" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D55" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D56" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" s="21">
+        <v>43731</v>
+      </c>
+      <c r="D57" s="21">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D58" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D59" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D60" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" s="21">
+        <v>43733</v>
+      </c>
+      <c r="D61" s="21">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D62" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D63" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D64" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" s="21">
+        <v>43732</v>
+      </c>
+      <c r="D65" s="21">
+        <v>43733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Oyster/cultchmass/cultchmass_packet.xlsx
+++ b/Oyster/cultchmass/cultchmass_packet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="78">
   <si>
     <t>REEF MASS FIELD DATASHEET</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>NNI1</t>
+  </si>
+  <si>
+    <t>sbkk</t>
+  </si>
+  <si>
+    <t>sbjh</t>
+  </si>
+  <si>
+    <t>jhkk</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A18" sqref="A18:M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,22 +1185,22 @@
         <v>42</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>0.86</v>
       </c>
       <c r="I2">
-        <v>16.920000000000002</v>
+        <v>21.28</v>
       </c>
       <c r="J2">
-        <v>0.86</v>
+        <v>4.53</v>
       </c>
       <c r="K2">
-        <v>1.06</v>
+        <v>2.15</v>
       </c>
       <c r="L2" t="s">
         <v>50</v>
@@ -1217,7 +1226,7 @@
         <v>42</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1226,13 +1235,13 @@
         <v>0.86</v>
       </c>
       <c r="I3">
-        <v>13.7</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="J3">
-        <v>0.86</v>
+        <v>4.99</v>
       </c>
       <c r="K3">
-        <v>1.08</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
@@ -1258,22 +1267,22 @@
         <v>42</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0.86</v>
       </c>
       <c r="I4">
-        <v>10.94</v>
+        <v>23.13</v>
       </c>
       <c r="J4">
-        <v>0.86</v>
+        <v>2.38</v>
       </c>
       <c r="K4">
-        <v>1.06</v>
+        <v>7.03</v>
       </c>
       <c r="L4" t="s">
         <v>50</v>
@@ -1299,22 +1308,22 @@
         <v>42</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>0.86</v>
       </c>
       <c r="I5">
-        <v>15.02</v>
+        <v>-999</v>
       </c>
       <c r="J5">
         <v>0.86</v>
       </c>
       <c r="K5">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
@@ -1504,19 +1513,19 @@
         <v>42</v>
       </c>
       <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
         <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
       </c>
       <c r="H10">
         <v>0.86</v>
       </c>
       <c r="I10">
-        <v>21.28</v>
+        <v>-999</v>
       </c>
       <c r="J10">
-        <v>4.53</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="K10">
         <v>2.15</v>
@@ -1545,22 +1554,22 @@
         <v>42</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>0.86</v>
       </c>
       <c r="I11">
-        <v>17.690000000000001</v>
+        <v>-999</v>
       </c>
       <c r="J11">
-        <v>4.99</v>
+        <v>1.59</v>
       </c>
       <c r="K11">
-        <v>2.4900000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="L11" t="s">
         <v>50</v>
@@ -1586,22 +1595,22 @@
         <v>42</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>0.86</v>
       </c>
       <c r="I12">
-        <v>23.13</v>
+        <v>-999</v>
       </c>
       <c r="J12">
-        <v>2.38</v>
+        <v>0.86</v>
       </c>
       <c r="K12">
-        <v>7.03</v>
+        <v>0.86</v>
       </c>
       <c r="L12" t="s">
         <v>50</v>
@@ -1627,10 +1636,10 @@
         <v>42</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0.86</v>
@@ -1639,10 +1648,10 @@
         <v>-999</v>
       </c>
       <c r="J13">
+        <v>4.08</v>
+      </c>
+      <c r="K13">
         <v>0.86</v>
-      </c>
-      <c r="K13">
-        <v>1.25</v>
       </c>
       <c r="L13" t="s">
         <v>50</v>
@@ -1668,7 +1677,7 @@
         <v>42</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1677,13 +1686,13 @@
         <v>0.86</v>
       </c>
       <c r="I14">
-        <v>-999</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="J14">
-        <v>2.4900000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.06</v>
       </c>
       <c r="L14" t="s">
         <v>50</v>
@@ -1709,22 +1718,22 @@
         <v>42</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>0.86</v>
       </c>
       <c r="I15">
-        <v>-999</v>
+        <v>13.7</v>
       </c>
       <c r="J15">
-        <v>1.59</v>
+        <v>0.86</v>
       </c>
       <c r="K15">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
       <c r="L15" t="s">
         <v>50</v>
@@ -1750,7 +1759,7 @@
         <v>42</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1759,13 +1768,13 @@
         <v>0.86</v>
       </c>
       <c r="I16">
-        <v>-999</v>
+        <v>10.94</v>
       </c>
       <c r="J16">
         <v>0.86</v>
       </c>
       <c r="K16">
-        <v>0.86</v>
+        <v>1.06</v>
       </c>
       <c r="L16" t="s">
         <v>50</v>
@@ -1791,22 +1800,22 @@
         <v>42</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0.86</v>
       </c>
       <c r="I17">
-        <v>-999</v>
+        <v>15.02</v>
       </c>
       <c r="J17">
-        <v>4.08</v>
+        <v>0.86</v>
       </c>
       <c r="K17">
-        <v>0.86</v>
+        <v>1.86</v>
       </c>
       <c r="L17" t="s">
         <v>50</v>
@@ -1815,11 +1824,1987 @@
         <v>50</v>
       </c>
     </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0.8</v>
+      </c>
+      <c r="I18">
+        <v>-999</v>
+      </c>
+      <c r="J18">
+        <v>2.9</v>
+      </c>
+      <c r="K18">
+        <v>2.8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>0.8</v>
+      </c>
+      <c r="I19">
+        <v>-999</v>
+      </c>
+      <c r="J19">
+        <v>2.7</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>-999</v>
+      </c>
+      <c r="J20">
+        <v>0.8</v>
+      </c>
+      <c r="K20">
+        <v>0.9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.8</v>
+      </c>
+      <c r="I21">
+        <v>-999</v>
+      </c>
+      <c r="J21">
+        <v>0.8</v>
+      </c>
+      <c r="K21">
+        <v>1.4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.8</v>
+      </c>
+      <c r="I22">
+        <v>-999</v>
+      </c>
+      <c r="J22">
+        <v>2.8</v>
+      </c>
+      <c r="K22">
+        <v>5.2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0.8</v>
+      </c>
+      <c r="I23">
+        <v>-999</v>
+      </c>
+      <c r="J23">
+        <v>1.2</v>
+      </c>
+      <c r="K23">
+        <v>5.6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0.8</v>
+      </c>
+      <c r="I24">
+        <v>-999</v>
+      </c>
+      <c r="J24">
+        <v>2.5</v>
+      </c>
+      <c r="K24">
+        <v>4.8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2019</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>0.8</v>
+      </c>
+      <c r="I25">
+        <v>-999</v>
+      </c>
+      <c r="J25">
+        <v>2.4</v>
+      </c>
+      <c r="K25">
+        <v>4.5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+      <c r="I26">
+        <v>-999</v>
+      </c>
+      <c r="J26">
+        <v>0.8</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>0.8</v>
+      </c>
+      <c r="I27">
+        <v>-999</v>
+      </c>
+      <c r="J27">
+        <v>0.8</v>
+      </c>
+      <c r="K27">
+        <v>1.7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2019</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0.8</v>
+      </c>
+      <c r="I28">
+        <v>-999</v>
+      </c>
+      <c r="J28">
+        <v>0.8</v>
+      </c>
+      <c r="K28">
+        <v>0.8</v>
+      </c>
+      <c r="L28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2019</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0.8</v>
+      </c>
+      <c r="I29">
+        <v>-999</v>
+      </c>
+      <c r="J29">
+        <v>0.8</v>
+      </c>
+      <c r="K29">
+        <v>1.7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2019</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0.8</v>
+      </c>
+      <c r="I30">
+        <v>-999</v>
+      </c>
+      <c r="J30">
+        <v>0.8</v>
+      </c>
+      <c r="K30">
+        <v>2.4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2019</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0.8</v>
+      </c>
+      <c r="I31">
+        <v>-999</v>
+      </c>
+      <c r="J31">
+        <v>0.8</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2019</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>0.8</v>
+      </c>
+      <c r="I32">
+        <v>-999</v>
+      </c>
+      <c r="J32">
+        <v>0.8</v>
+      </c>
+      <c r="K32">
+        <v>0.9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2019</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>0.8</v>
+      </c>
+      <c r="I33">
+        <v>-999</v>
+      </c>
+      <c r="J33">
+        <v>0.8</v>
+      </c>
+      <c r="K33">
+        <v>0.9</v>
+      </c>
+      <c r="L33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>0.8</v>
+      </c>
+      <c r="I34">
+        <v>-999</v>
+      </c>
+      <c r="J34">
+        <v>1.7</v>
+      </c>
+      <c r="K34">
+        <v>1.4</v>
+      </c>
+      <c r="L34" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2019</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>0.8</v>
+      </c>
+      <c r="I35">
+        <v>-999</v>
+      </c>
+      <c r="J35">
+        <v>9.4</v>
+      </c>
+      <c r="K35">
+        <v>2.4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2019</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0.8</v>
+      </c>
+      <c r="I36">
+        <v>-999</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2019</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>0.8</v>
+      </c>
+      <c r="I37">
+        <v>-999</v>
+      </c>
+      <c r="J37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K37">
+        <v>1.4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2019</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0.8</v>
+      </c>
+      <c r="I38">
+        <v>-999</v>
+      </c>
+      <c r="J38">
+        <v>1.3</v>
+      </c>
+      <c r="K38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L38" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2019</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>0.8</v>
+      </c>
+      <c r="I39">
+        <v>-999</v>
+      </c>
+      <c r="J39">
+        <v>0.8</v>
+      </c>
+      <c r="K39">
+        <v>1.9</v>
+      </c>
+      <c r="L39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2019</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>0.8</v>
+      </c>
+      <c r="I40">
+        <v>-999</v>
+      </c>
+      <c r="J40">
+        <v>2.7</v>
+      </c>
+      <c r="K40">
+        <v>3.4</v>
+      </c>
+      <c r="L40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0.8</v>
+      </c>
+      <c r="I41">
+        <v>-999</v>
+      </c>
+      <c r="J41">
+        <v>2.4</v>
+      </c>
+      <c r="K41">
+        <v>5.2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>76</v>
+      </c>
+      <c r="M41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2019</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0.8</v>
+      </c>
+      <c r="I42">
+        <v>-999</v>
+      </c>
+      <c r="J42">
+        <v>6.1</v>
+      </c>
+      <c r="K42">
+        <v>3.5</v>
+      </c>
+      <c r="L42" t="s">
+        <v>76</v>
+      </c>
+      <c r="M42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2019</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>0.8</v>
+      </c>
+      <c r="I43">
+        <v>-999</v>
+      </c>
+      <c r="J43">
+        <v>0.8</v>
+      </c>
+      <c r="K43">
+        <v>0.9</v>
+      </c>
+      <c r="L43" t="s">
+        <v>76</v>
+      </c>
+      <c r="M43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2019</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>0.8</v>
+      </c>
+      <c r="I44">
+        <v>-999</v>
+      </c>
+      <c r="J44">
+        <v>1.3</v>
+      </c>
+      <c r="K44">
+        <v>0.9</v>
+      </c>
+      <c r="L44" t="s">
+        <v>76</v>
+      </c>
+      <c r="M44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2019</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>0.8</v>
+      </c>
+      <c r="I45">
+        <v>-999</v>
+      </c>
+      <c r="J45">
+        <v>1.9</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>76</v>
+      </c>
+      <c r="M45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2019</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>0.8</v>
+      </c>
+      <c r="I46">
+        <v>-999</v>
+      </c>
+      <c r="J46">
+        <v>0.8</v>
+      </c>
+      <c r="K46">
+        <v>0.8</v>
+      </c>
+      <c r="L46" t="s">
+        <v>76</v>
+      </c>
+      <c r="M46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2019</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0.8</v>
+      </c>
+      <c r="I47">
+        <v>-999</v>
+      </c>
+      <c r="J47">
+        <v>0.8</v>
+      </c>
+      <c r="K47">
+        <v>0.9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>76</v>
+      </c>
+      <c r="M47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2019</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>0.8</v>
+      </c>
+      <c r="I48">
+        <v>-999</v>
+      </c>
+      <c r="J48">
+        <v>0.8</v>
+      </c>
+      <c r="K48">
+        <v>0.9</v>
+      </c>
+      <c r="L48" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2019</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>0.8</v>
+      </c>
+      <c r="I49">
+        <v>-999</v>
+      </c>
+      <c r="J49">
+        <v>0.8</v>
+      </c>
+      <c r="K49">
+        <v>0.8</v>
+      </c>
+      <c r="L49" t="s">
+        <v>76</v>
+      </c>
+      <c r="M49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>0.8</v>
+      </c>
+      <c r="I50">
+        <v>-999</v>
+      </c>
+      <c r="J50">
+        <v>5.3</v>
+      </c>
+      <c r="K50">
+        <v>3.3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>76</v>
+      </c>
+      <c r="M50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>0.8</v>
+      </c>
+      <c r="I51">
+        <v>-999</v>
+      </c>
+      <c r="J51">
+        <v>1.9</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>76</v>
+      </c>
+      <c r="M51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2019</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>0.8</v>
+      </c>
+      <c r="I52">
+        <v>-999</v>
+      </c>
+      <c r="J52">
+        <v>0.8</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>76</v>
+      </c>
+      <c r="M52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2019</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0.8</v>
+      </c>
+      <c r="I53">
+        <v>-999</v>
+      </c>
+      <c r="J53">
+        <v>0.8</v>
+      </c>
+      <c r="K53">
+        <v>3.3</v>
+      </c>
+      <c r="L53" t="s">
+        <v>76</v>
+      </c>
+      <c r="M53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2019</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>0.8</v>
+      </c>
+      <c r="I54">
+        <v>-999</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>77</v>
+      </c>
+      <c r="M54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2019</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>0.8</v>
+      </c>
+      <c r="I55">
+        <v>-999</v>
+      </c>
+      <c r="J55">
+        <v>2.9</v>
+      </c>
+      <c r="K55">
+        <v>3.5</v>
+      </c>
+      <c r="L55" t="s">
+        <v>77</v>
+      </c>
+      <c r="M55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2019</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0.8</v>
+      </c>
+      <c r="I56">
+        <v>-999</v>
+      </c>
+      <c r="J56">
+        <v>4.5</v>
+      </c>
+      <c r="K56">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L56" t="s">
+        <v>77</v>
+      </c>
+      <c r="M56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2019</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>0.8</v>
+      </c>
+      <c r="I57">
+        <v>-999</v>
+      </c>
+      <c r="J57">
+        <v>5.5</v>
+      </c>
+      <c r="K57">
+        <v>3.4</v>
+      </c>
+      <c r="L57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2019</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0.8</v>
+      </c>
+      <c r="I58">
+        <v>-999</v>
+      </c>
+      <c r="J58">
+        <v>0.8</v>
+      </c>
+      <c r="K58">
+        <v>1.6</v>
+      </c>
+      <c r="L58" t="s">
+        <v>77</v>
+      </c>
+      <c r="M58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2019</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>0.8</v>
+      </c>
+      <c r="I59">
+        <v>-999</v>
+      </c>
+      <c r="J59">
+        <v>0.8</v>
+      </c>
+      <c r="K59">
+        <v>1.4</v>
+      </c>
+      <c r="L59" t="s">
+        <v>77</v>
+      </c>
+      <c r="M59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2019</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>0.8</v>
+      </c>
+      <c r="I60">
+        <v>-999</v>
+      </c>
+      <c r="J60">
+        <v>0.8</v>
+      </c>
+      <c r="K60">
+        <v>1.4</v>
+      </c>
+      <c r="L60" t="s">
+        <v>77</v>
+      </c>
+      <c r="M60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>0.8</v>
+      </c>
+      <c r="I61">
+        <v>-999</v>
+      </c>
+      <c r="J61">
+        <v>1.6</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>77</v>
+      </c>
+      <c r="M61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2019</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0.8</v>
+      </c>
+      <c r="I62">
+        <v>-999</v>
+      </c>
+      <c r="J62">
+        <v>2.1</v>
+      </c>
+      <c r="K62">
+        <v>0.8</v>
+      </c>
+      <c r="L62" t="s">
+        <v>77</v>
+      </c>
+      <c r="M62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2019</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>0.8</v>
+      </c>
+      <c r="I63">
+        <v>-999</v>
+      </c>
+      <c r="J63">
+        <v>0.8</v>
+      </c>
+      <c r="K63">
+        <v>1.4</v>
+      </c>
+      <c r="L63" t="s">
+        <v>77</v>
+      </c>
+      <c r="M63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2019</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>0.8</v>
+      </c>
+      <c r="I64">
+        <v>-999</v>
+      </c>
+      <c r="J64">
+        <v>0.8</v>
+      </c>
+      <c r="K64">
+        <v>1.4</v>
+      </c>
+      <c r="L64" t="s">
+        <v>77</v>
+      </c>
+      <c r="M64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2019</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>0.8</v>
+      </c>
+      <c r="I65">
+        <v>-999</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>2.9</v>
+      </c>
+      <c r="L65" t="s">
+        <v>77</v>
+      </c>
+      <c r="M65" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:M65">
+    <sortCondition ref="A2:A65"/>
+    <sortCondition ref="B2:B65"/>
+    <sortCondition ref="C2:C65"/>
+    <sortCondition ref="D2:D65"/>
+    <sortCondition ref="E2:E65"/>
+    <sortCondition ref="F2:F65"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>pick!$A$2</xm:f>
@@ -1866,13 +3851,19 @@
           <x14:formula1>
             <xm:f>pick!$L$2:$L$12</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L1048576</xm:sqref>
+          <xm:sqref>L1:L17 L66:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>pick!$M$2:$M$16</xm:f>
           </x14:formula1>
           <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>pick!$L$2:$L$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>L18:L65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1882,10 +3873,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,22 +3942,22 @@
         <v>42</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>0.86</v>
       </c>
       <c r="I2">
-        <v>16.920000000000002</v>
+        <v>21.28</v>
       </c>
       <c r="J2">
-        <v>0.86</v>
+        <v>4.53</v>
       </c>
       <c r="K2">
-        <v>1.06</v>
+        <v>2.15</v>
       </c>
       <c r="L2" t="s">
         <v>50</v>
@@ -1992,7 +3983,7 @@
         <v>42</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2001,13 +3992,13 @@
         <v>0.86</v>
       </c>
       <c r="I3">
-        <v>13.7</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="J3">
-        <v>0.86</v>
+        <v>4.99</v>
       </c>
       <c r="K3">
-        <v>1.08</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
@@ -2033,22 +4024,22 @@
         <v>42</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0.86</v>
       </c>
       <c r="I4">
-        <v>10.94</v>
+        <v>23.13</v>
       </c>
       <c r="J4">
-        <v>0.86</v>
+        <v>2.38</v>
       </c>
       <c r="K4">
-        <v>1.06</v>
+        <v>7.03</v>
       </c>
       <c r="L4" t="s">
         <v>50</v>
@@ -2074,22 +4065,22 @@
         <v>42</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>0.86</v>
       </c>
       <c r="I5">
-        <v>15.02</v>
+        <v>-999</v>
       </c>
       <c r="J5">
         <v>0.86</v>
       </c>
       <c r="K5">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
@@ -2279,19 +4270,19 @@
         <v>42</v>
       </c>
       <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
         <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
       </c>
       <c r="H10">
         <v>0.86</v>
       </c>
       <c r="I10">
-        <v>21.28</v>
+        <v>-999</v>
       </c>
       <c r="J10">
-        <v>4.53</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="K10">
         <v>2.15</v>
@@ -2320,22 +4311,22 @@
         <v>42</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>0.86</v>
       </c>
       <c r="I11">
-        <v>17.690000000000001</v>
+        <v>-999</v>
       </c>
       <c r="J11">
-        <v>4.99</v>
+        <v>1.59</v>
       </c>
       <c r="K11">
-        <v>2.4900000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="L11" t="s">
         <v>50</v>
@@ -2361,22 +4352,22 @@
         <v>42</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>0.86</v>
       </c>
       <c r="I12">
-        <v>23.13</v>
+        <v>-999</v>
       </c>
       <c r="J12">
-        <v>2.38</v>
+        <v>0.86</v>
       </c>
       <c r="K12">
-        <v>7.03</v>
+        <v>0.86</v>
       </c>
       <c r="L12" t="s">
         <v>50</v>
@@ -2402,10 +4393,10 @@
         <v>42</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0.86</v>
@@ -2414,10 +4405,10 @@
         <v>-999</v>
       </c>
       <c r="J13">
+        <v>4.08</v>
+      </c>
+      <c r="K13">
         <v>0.86</v>
-      </c>
-      <c r="K13">
-        <v>1.25</v>
       </c>
       <c r="L13" t="s">
         <v>50</v>
@@ -2443,7 +4434,7 @@
         <v>42</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2452,13 +4443,13 @@
         <v>0.86</v>
       </c>
       <c r="I14">
-        <v>-999</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="J14">
-        <v>2.4900000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.06</v>
       </c>
       <c r="L14" t="s">
         <v>50</v>
@@ -2484,22 +4475,22 @@
         <v>42</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>0.86</v>
       </c>
       <c r="I15">
-        <v>-999</v>
+        <v>13.7</v>
       </c>
       <c r="J15">
-        <v>1.59</v>
+        <v>0.86</v>
       </c>
       <c r="K15">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
       <c r="L15" t="s">
         <v>50</v>
@@ -2525,7 +4516,7 @@
         <v>42</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2534,13 +4525,13 @@
         <v>0.86</v>
       </c>
       <c r="I16">
-        <v>-999</v>
+        <v>10.94</v>
       </c>
       <c r="J16">
         <v>0.86</v>
       </c>
       <c r="K16">
-        <v>0.86</v>
+        <v>1.06</v>
       </c>
       <c r="L16" t="s">
         <v>50</v>
@@ -2566,22 +4557,22 @@
         <v>42</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0.86</v>
       </c>
       <c r="I17">
-        <v>-999</v>
+        <v>15.02</v>
       </c>
       <c r="J17">
-        <v>4.08</v>
+        <v>0.86</v>
       </c>
       <c r="K17">
-        <v>0.86</v>
+        <v>1.86</v>
       </c>
       <c r="L17" t="s">
         <v>50</v>
@@ -2590,7 +4581,1983 @@
         <v>50</v>
       </c>
     </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0.8</v>
+      </c>
+      <c r="I18">
+        <v>-999</v>
+      </c>
+      <c r="J18">
+        <v>2.9</v>
+      </c>
+      <c r="K18">
+        <v>2.8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>0.8</v>
+      </c>
+      <c r="I19">
+        <v>-999</v>
+      </c>
+      <c r="J19">
+        <v>2.7</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>-999</v>
+      </c>
+      <c r="J20">
+        <v>0.8</v>
+      </c>
+      <c r="K20">
+        <v>0.9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.8</v>
+      </c>
+      <c r="I21">
+        <v>-999</v>
+      </c>
+      <c r="J21">
+        <v>0.8</v>
+      </c>
+      <c r="K21">
+        <v>1.4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.8</v>
+      </c>
+      <c r="I22">
+        <v>-999</v>
+      </c>
+      <c r="J22">
+        <v>2.8</v>
+      </c>
+      <c r="K22">
+        <v>5.2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0.8</v>
+      </c>
+      <c r="I23">
+        <v>-999</v>
+      </c>
+      <c r="J23">
+        <v>1.2</v>
+      </c>
+      <c r="K23">
+        <v>5.6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0.8</v>
+      </c>
+      <c r="I24">
+        <v>-999</v>
+      </c>
+      <c r="J24">
+        <v>2.5</v>
+      </c>
+      <c r="K24">
+        <v>4.8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2019</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>0.8</v>
+      </c>
+      <c r="I25">
+        <v>-999</v>
+      </c>
+      <c r="J25">
+        <v>2.4</v>
+      </c>
+      <c r="K25">
+        <v>4.5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+      <c r="I26">
+        <v>-999</v>
+      </c>
+      <c r="J26">
+        <v>0.8</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>0.8</v>
+      </c>
+      <c r="I27">
+        <v>-999</v>
+      </c>
+      <c r="J27">
+        <v>0.8</v>
+      </c>
+      <c r="K27">
+        <v>1.7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2019</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0.8</v>
+      </c>
+      <c r="I28">
+        <v>-999</v>
+      </c>
+      <c r="J28">
+        <v>0.8</v>
+      </c>
+      <c r="K28">
+        <v>0.8</v>
+      </c>
+      <c r="L28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2019</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0.8</v>
+      </c>
+      <c r="I29">
+        <v>-999</v>
+      </c>
+      <c r="J29">
+        <v>0.8</v>
+      </c>
+      <c r="K29">
+        <v>1.7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2019</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0.8</v>
+      </c>
+      <c r="I30">
+        <v>-999</v>
+      </c>
+      <c r="J30">
+        <v>0.8</v>
+      </c>
+      <c r="K30">
+        <v>2.4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2019</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0.8</v>
+      </c>
+      <c r="I31">
+        <v>-999</v>
+      </c>
+      <c r="J31">
+        <v>0.8</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2019</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>0.8</v>
+      </c>
+      <c r="I32">
+        <v>-999</v>
+      </c>
+      <c r="J32">
+        <v>0.8</v>
+      </c>
+      <c r="K32">
+        <v>0.9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2019</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>0.8</v>
+      </c>
+      <c r="I33">
+        <v>-999</v>
+      </c>
+      <c r="J33">
+        <v>0.8</v>
+      </c>
+      <c r="K33">
+        <v>0.9</v>
+      </c>
+      <c r="L33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>0.8</v>
+      </c>
+      <c r="I34">
+        <v>-999</v>
+      </c>
+      <c r="J34">
+        <v>1.7</v>
+      </c>
+      <c r="K34">
+        <v>1.4</v>
+      </c>
+      <c r="L34" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2019</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>0.8</v>
+      </c>
+      <c r="I35">
+        <v>-999</v>
+      </c>
+      <c r="J35">
+        <v>9.4</v>
+      </c>
+      <c r="K35">
+        <v>2.4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2019</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0.8</v>
+      </c>
+      <c r="I36">
+        <v>-999</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2019</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>0.8</v>
+      </c>
+      <c r="I37">
+        <v>-999</v>
+      </c>
+      <c r="J37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K37">
+        <v>1.4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2019</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0.8</v>
+      </c>
+      <c r="I38">
+        <v>-999</v>
+      </c>
+      <c r="J38">
+        <v>1.3</v>
+      </c>
+      <c r="K38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L38" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2019</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>0.8</v>
+      </c>
+      <c r="I39">
+        <v>-999</v>
+      </c>
+      <c r="J39">
+        <v>0.8</v>
+      </c>
+      <c r="K39">
+        <v>1.9</v>
+      </c>
+      <c r="L39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2019</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>0.8</v>
+      </c>
+      <c r="I40">
+        <v>-999</v>
+      </c>
+      <c r="J40">
+        <v>2.7</v>
+      </c>
+      <c r="K40">
+        <v>3.4</v>
+      </c>
+      <c r="L40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0.8</v>
+      </c>
+      <c r="I41">
+        <v>-999</v>
+      </c>
+      <c r="J41">
+        <v>2.4</v>
+      </c>
+      <c r="K41">
+        <v>5.2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>76</v>
+      </c>
+      <c r="M41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2019</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0.8</v>
+      </c>
+      <c r="I42">
+        <v>-999</v>
+      </c>
+      <c r="J42">
+        <v>6.1</v>
+      </c>
+      <c r="K42">
+        <v>3.5</v>
+      </c>
+      <c r="L42" t="s">
+        <v>76</v>
+      </c>
+      <c r="M42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2019</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>0.8</v>
+      </c>
+      <c r="I43">
+        <v>-999</v>
+      </c>
+      <c r="J43">
+        <v>0.8</v>
+      </c>
+      <c r="K43">
+        <v>0.9</v>
+      </c>
+      <c r="L43" t="s">
+        <v>76</v>
+      </c>
+      <c r="M43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2019</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>0.8</v>
+      </c>
+      <c r="I44">
+        <v>-999</v>
+      </c>
+      <c r="J44">
+        <v>1.3</v>
+      </c>
+      <c r="K44">
+        <v>0.9</v>
+      </c>
+      <c r="L44" t="s">
+        <v>76</v>
+      </c>
+      <c r="M44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2019</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>0.8</v>
+      </c>
+      <c r="I45">
+        <v>-999</v>
+      </c>
+      <c r="J45">
+        <v>1.9</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>76</v>
+      </c>
+      <c r="M45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2019</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>0.8</v>
+      </c>
+      <c r="I46">
+        <v>-999</v>
+      </c>
+      <c r="J46">
+        <v>0.8</v>
+      </c>
+      <c r="K46">
+        <v>0.8</v>
+      </c>
+      <c r="L46" t="s">
+        <v>76</v>
+      </c>
+      <c r="M46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2019</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0.8</v>
+      </c>
+      <c r="I47">
+        <v>-999</v>
+      </c>
+      <c r="J47">
+        <v>0.8</v>
+      </c>
+      <c r="K47">
+        <v>0.9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>76</v>
+      </c>
+      <c r="M47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2019</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>0.8</v>
+      </c>
+      <c r="I48">
+        <v>-999</v>
+      </c>
+      <c r="J48">
+        <v>0.8</v>
+      </c>
+      <c r="K48">
+        <v>0.9</v>
+      </c>
+      <c r="L48" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2019</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>0.8</v>
+      </c>
+      <c r="I49">
+        <v>-999</v>
+      </c>
+      <c r="J49">
+        <v>0.8</v>
+      </c>
+      <c r="K49">
+        <v>0.8</v>
+      </c>
+      <c r="L49" t="s">
+        <v>76</v>
+      </c>
+      <c r="M49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>0.8</v>
+      </c>
+      <c r="I50">
+        <v>-999</v>
+      </c>
+      <c r="J50">
+        <v>5.3</v>
+      </c>
+      <c r="K50">
+        <v>3.3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>76</v>
+      </c>
+      <c r="M50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>0.8</v>
+      </c>
+      <c r="I51">
+        <v>-999</v>
+      </c>
+      <c r="J51">
+        <v>1.9</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>76</v>
+      </c>
+      <c r="M51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2019</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>0.8</v>
+      </c>
+      <c r="I52">
+        <v>-999</v>
+      </c>
+      <c r="J52">
+        <v>0.8</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>76</v>
+      </c>
+      <c r="M52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2019</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0.8</v>
+      </c>
+      <c r="I53">
+        <v>-999</v>
+      </c>
+      <c r="J53">
+        <v>0.8</v>
+      </c>
+      <c r="K53">
+        <v>3.3</v>
+      </c>
+      <c r="L53" t="s">
+        <v>76</v>
+      </c>
+      <c r="M53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2019</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>0.8</v>
+      </c>
+      <c r="I54">
+        <v>-999</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>77</v>
+      </c>
+      <c r="M54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2019</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>0.8</v>
+      </c>
+      <c r="I55">
+        <v>-999</v>
+      </c>
+      <c r="J55">
+        <v>2.9</v>
+      </c>
+      <c r="K55">
+        <v>3.5</v>
+      </c>
+      <c r="L55" t="s">
+        <v>77</v>
+      </c>
+      <c r="M55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2019</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0.8</v>
+      </c>
+      <c r="I56">
+        <v>-999</v>
+      </c>
+      <c r="J56">
+        <v>4.5</v>
+      </c>
+      <c r="K56">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L56" t="s">
+        <v>77</v>
+      </c>
+      <c r="M56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2019</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>0.8</v>
+      </c>
+      <c r="I57">
+        <v>-999</v>
+      </c>
+      <c r="J57">
+        <v>5.5</v>
+      </c>
+      <c r="K57">
+        <v>3.4</v>
+      </c>
+      <c r="L57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2019</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0.8</v>
+      </c>
+      <c r="I58">
+        <v>-999</v>
+      </c>
+      <c r="J58">
+        <v>0.8</v>
+      </c>
+      <c r="K58">
+        <v>1.6</v>
+      </c>
+      <c r="L58" t="s">
+        <v>77</v>
+      </c>
+      <c r="M58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2019</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>0.8</v>
+      </c>
+      <c r="I59">
+        <v>-999</v>
+      </c>
+      <c r="J59">
+        <v>0.8</v>
+      </c>
+      <c r="K59">
+        <v>1.4</v>
+      </c>
+      <c r="L59" t="s">
+        <v>77</v>
+      </c>
+      <c r="M59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2019</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>0.8</v>
+      </c>
+      <c r="I60">
+        <v>-999</v>
+      </c>
+      <c r="J60">
+        <v>0.8</v>
+      </c>
+      <c r="K60">
+        <v>1.4</v>
+      </c>
+      <c r="L60" t="s">
+        <v>77</v>
+      </c>
+      <c r="M60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>0.8</v>
+      </c>
+      <c r="I61">
+        <v>-999</v>
+      </c>
+      <c r="J61">
+        <v>1.6</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>77</v>
+      </c>
+      <c r="M61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2019</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0.8</v>
+      </c>
+      <c r="I62">
+        <v>-999</v>
+      </c>
+      <c r="J62">
+        <v>2.1</v>
+      </c>
+      <c r="K62">
+        <v>0.8</v>
+      </c>
+      <c r="L62" t="s">
+        <v>77</v>
+      </c>
+      <c r="M62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2019</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>0.8</v>
+      </c>
+      <c r="I63">
+        <v>-999</v>
+      </c>
+      <c r="J63">
+        <v>0.8</v>
+      </c>
+      <c r="K63">
+        <v>1.4</v>
+      </c>
+      <c r="L63" t="s">
+        <v>77</v>
+      </c>
+      <c r="M63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2019</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>0.8</v>
+      </c>
+      <c r="I64">
+        <v>-999</v>
+      </c>
+      <c r="J64">
+        <v>0.8</v>
+      </c>
+      <c r="K64">
+        <v>1.4</v>
+      </c>
+      <c r="L64" t="s">
+        <v>77</v>
+      </c>
+      <c r="M64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2019</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>0.8</v>
+      </c>
+      <c r="I65">
+        <v>-999</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>2.9</v>
+      </c>
+      <c r="L65" t="s">
+        <v>77</v>
+      </c>
+      <c r="M65" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:M65">
+    <sortCondition ref="A2:A65"/>
+    <sortCondition ref="B2:B65"/>
+    <sortCondition ref="C2:C65"/>
+    <sortCondition ref="D2:D65"/>
+    <sortCondition ref="E2:E65"/>
+    <sortCondition ref="F2:F65"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2660,7 +6627,7 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8571,13 +12538,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8616,6 +12584,15 @@
       <c r="D2" s="21">
         <v>43733</v>
       </c>
+      <c r="E2" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F2" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G2" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8630,6 +12607,15 @@
       <c r="D3" s="21">
         <v>43733</v>
       </c>
+      <c r="E3" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F3" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G3" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -8644,6 +12630,15 @@
       <c r="D4" s="21">
         <v>43733</v>
       </c>
+      <c r="E4" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F4" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G4" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8658,6 +12653,15 @@
       <c r="D5" s="21">
         <v>43733</v>
       </c>
+      <c r="E5" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F5" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G5" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8672,6 +12676,15 @@
       <c r="D6" s="21">
         <v>43733</v>
       </c>
+      <c r="E6" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F6" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G6" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -8686,6 +12699,15 @@
       <c r="D7" s="21">
         <v>43733</v>
       </c>
+      <c r="E7" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F7" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G7" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -8700,6 +12722,15 @@
       <c r="D8" s="21">
         <v>43733</v>
       </c>
+      <c r="E8" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F8" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G8" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -8714,6 +12745,15 @@
       <c r="D9" s="21">
         <v>43733</v>
       </c>
+      <c r="E9" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F9" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G9" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -8728,6 +12768,15 @@
       <c r="D10" s="21">
         <v>43734</v>
       </c>
+      <c r="E10" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F10" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G10" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -8742,6 +12791,15 @@
       <c r="D11" s="21">
         <v>43734</v>
       </c>
+      <c r="E11" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F11" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G11" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -8756,6 +12814,15 @@
       <c r="D12" s="21">
         <v>43734</v>
       </c>
+      <c r="E12" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F12" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G12" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -8770,6 +12837,15 @@
       <c r="D13" s="21">
         <v>43734</v>
       </c>
+      <c r="E13" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F13" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G13" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -9152,6 +13228,15 @@
       <c r="D30" s="21">
         <v>43732</v>
       </c>
+      <c r="E30" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F30" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G30" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -9166,6 +13251,15 @@
       <c r="D31" s="21">
         <v>43732</v>
       </c>
+      <c r="E31" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F31" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G31" s="21">
+        <v>43749</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -9180,8 +13274,17 @@
       <c r="D32" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F32" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G32" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -9194,8 +13297,17 @@
       <c r="D33" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F33" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G33" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -9208,8 +13320,17 @@
       <c r="D34" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F34" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G34" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -9222,8 +13343,17 @@
       <c r="D35" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F35" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G35" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -9236,8 +13366,17 @@
       <c r="D36" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F36" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G36" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -9250,8 +13389,17 @@
       <c r="D37" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F37" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G37" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -9264,8 +13412,17 @@
       <c r="D38" s="21">
         <v>43733</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F38" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G38" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -9278,8 +13435,17 @@
       <c r="D39" s="21">
         <v>43733</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F39" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G39" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -9292,8 +13458,17 @@
       <c r="D40" s="21">
         <v>43733</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F40" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G40" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -9306,8 +13481,17 @@
       <c r="D41" s="21">
         <v>43733</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F41" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G41" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -9320,8 +13504,17 @@
       <c r="D42" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F42" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G42" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -9334,8 +13527,17 @@
       <c r="D43" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F43" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G43" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -9348,8 +13550,17 @@
       <c r="D44" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F44" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G44" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -9362,8 +13573,17 @@
       <c r="D45" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F45" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G45" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -9376,8 +13596,17 @@
       <c r="D46" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F46" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G46" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -9390,8 +13619,17 @@
       <c r="D47" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F47" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G47" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -9404,8 +13642,17 @@
       <c r="D48" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F48" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G48" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -9418,8 +13665,17 @@
       <c r="D49" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F49" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G49" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -9432,8 +13688,17 @@
       <c r="D50" s="21">
         <v>43734</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F50" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G50" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -9446,8 +13711,17 @@
       <c r="D51" s="21">
         <v>43734</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F51" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G51" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -9460,8 +13734,17 @@
       <c r="D52" s="21">
         <v>43734</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F52" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G52" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -9474,8 +13757,17 @@
       <c r="D53" s="21">
         <v>43734</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F53" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G53" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -9488,8 +13780,17 @@
       <c r="D54" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F54" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G54" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -9502,8 +13803,17 @@
       <c r="D55" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F55" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G55" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -9516,8 +13826,17 @@
       <c r="D56" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F56" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G56" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -9530,8 +13849,17 @@
       <c r="D57" s="21">
         <v>43732</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F57" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G57" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -9544,8 +13872,17 @@
       <c r="D58" s="21">
         <v>43734</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F58" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G58" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -9558,8 +13895,17 @@
       <c r="D59" s="21">
         <v>43734</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F59" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G59" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -9572,8 +13918,17 @@
       <c r="D60" s="21">
         <v>43734</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F60" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G60" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -9586,8 +13941,17 @@
       <c r="D61" s="21">
         <v>43734</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F61" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G61" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -9600,8 +13964,17 @@
       <c r="D62" s="21">
         <v>43733</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F62" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G62" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -9614,8 +13987,17 @@
       <c r="D63" s="21">
         <v>43733</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F63" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G63" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -9628,8 +14010,17 @@
       <c r="D64" s="21">
         <v>43733</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F64" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G64" s="21">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -9641,6 +14032,15 @@
       </c>
       <c r="D65" s="21">
         <v>43733</v>
+      </c>
+      <c r="E65" s="21">
+        <v>43735</v>
+      </c>
+      <c r="F65" s="21">
+        <v>43735</v>
+      </c>
+      <c r="G65" s="21">
+        <v>43749</v>
       </c>
     </row>
   </sheetData>

--- a/Oyster/cultchmass/cultchmass_packet.xlsx
+++ b/Oyster/cultchmass/cultchmass_packet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="datasheet" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="78">
-  <si>
-    <t>REEF MASS FIELD DATASHEET</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="79">
   <si>
     <t>DATE (YYYYMMDD):</t>
   </si>
@@ -63,13 +60,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>MASS MEASUREMENTS (0.01kg)</t>
-  </si>
-  <si>
     <t>Bucket</t>
-  </si>
-  <si>
-    <t>Total Reef</t>
   </si>
   <si>
     <t>Small Reef</t>
@@ -260,6 +251,18 @@
   <si>
     <t>jhkk</t>
   </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>Medium Reef</t>
+  </si>
+  <si>
+    <t>MASS MEASUREMENTS (0.1kg)</t>
+  </si>
+  <si>
+    <t>CULTCH MASS FIELD DATASHEET</t>
+  </si>
 </sst>
 </file>
 
@@ -403,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -447,9 +450,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -466,6 +466,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -768,14 +774,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
       <c r="F1" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -783,14 +789,14 @@
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="19"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -798,20 +804,20 @@
     </row>
     <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="17" t="s">
-        <v>12</v>
+      <c r="F3" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -819,36 +825,36 @@
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15">
-        <v>43469</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="13"/>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
@@ -859,7 +865,7 @@
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="13"/>
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
@@ -870,7 +876,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="13"/>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
@@ -881,7 +887,7 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="13"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
@@ -892,7 +898,7 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="13"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
@@ -903,7 +909,7 @@
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="13"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
@@ -914,7 +920,7 @@
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="13"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
@@ -925,7 +931,7 @@
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="13"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
@@ -936,7 +942,7 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="13"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
@@ -947,7 +953,7 @@
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="16"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="13"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
@@ -958,7 +964,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="13"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
@@ -969,7 +975,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="13"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
@@ -980,7 +986,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="13"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
@@ -991,7 +997,7 @@
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="13"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
@@ -1002,7 +1008,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="16"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
@@ -1013,7 +1019,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="16"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="13"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
@@ -1024,7 +1030,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="16"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="13"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
@@ -1035,7 +1041,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="16"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="13"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
@@ -1046,7 +1052,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="16"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="13"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
@@ -1057,7 +1063,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="16"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="13"/>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
@@ -1068,7 +1074,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="16"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="13"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
@@ -1079,7 +1085,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="13"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
@@ -1090,7 +1096,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="13"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
@@ -1101,7 +1107,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="13"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
@@ -1129,43 +1135,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1179,10 +1185,10 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1203,10 +1209,10 @@
         <v>2.15</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1220,10 +1226,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1244,10 +1250,10 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1261,10 +1267,10 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1285,10 +1291,10 @@
         <v>7.03</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1302,10 +1308,10 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1326,10 +1332,10 @@
         <v>1.25</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1343,10 +1349,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1367,10 +1373,10 @@
         <v>1.22</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1384,10 +1390,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1408,10 +1414,10 @@
         <v>1.6</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1425,10 +1431,10 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1449,10 +1455,10 @@
         <v>0.96</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1466,10 +1472,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1490,10 +1496,10 @@
         <v>0.86</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1507,10 +1513,10 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -1531,10 +1537,10 @@
         <v>2.15</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1548,10 +1554,10 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -1572,10 +1578,10 @@
         <v>0.86</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1589,10 +1595,10 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -1613,10 +1619,10 @@
         <v>0.86</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1630,10 +1636,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1654,10 +1660,10 @@
         <v>0.86</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1671,10 +1677,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
       </c>
       <c r="F14">
         <v>19</v>
@@ -1695,10 +1701,10 @@
         <v>1.06</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1712,10 +1718,10 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
         <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
       </c>
       <c r="F15">
         <v>19</v>
@@ -1736,10 +1742,10 @@
         <v>1.08</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1753,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
       </c>
       <c r="F16">
         <v>19</v>
@@ -1777,10 +1783,10 @@
         <v>1.06</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1794,10 +1800,10 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
         <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
       </c>
       <c r="F17">
         <v>19</v>
@@ -1818,10 +1824,10 @@
         <v>1.86</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1835,10 +1841,10 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
         <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1859,10 +1865,10 @@
         <v>2.8</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1876,10 +1882,10 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -1900,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1917,10 +1923,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
         <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -1941,10 +1947,10 @@
         <v>0.9</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1958,10 +1964,10 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
         <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -1982,10 +1988,10 @@
         <v>1.4</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1999,10 +2005,10 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
         <v>39</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -2023,10 +2029,10 @@
         <v>5.2</v>
       </c>
       <c r="L22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2040,10 +2046,10 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
         <v>39</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -2064,10 +2070,10 @@
         <v>5.6</v>
       </c>
       <c r="L23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2081,10 +2087,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
         <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -2105,10 +2111,10 @@
         <v>4.8</v>
       </c>
       <c r="L24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2122,10 +2128,10 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
         <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -2146,10 +2152,10 @@
         <v>4.5</v>
       </c>
       <c r="L25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2163,10 +2169,10 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -2187,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2204,10 +2210,10 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -2228,10 +2234,10 @@
         <v>1.7</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2245,10 +2251,10 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -2269,10 +2275,10 @@
         <v>0.8</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2286,10 +2292,10 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29">
         <v>7</v>
@@ -2310,10 +2316,10 @@
         <v>1.7</v>
       </c>
       <c r="L29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2327,10 +2333,10 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -2351,10 +2357,10 @@
         <v>2.4</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2368,10 +2374,10 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -2392,10 +2398,10 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2409,10 +2415,10 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -2433,10 +2439,10 @@
         <v>0.9</v>
       </c>
       <c r="L32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2450,10 +2456,10 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -2474,10 +2480,10 @@
         <v>0.9</v>
       </c>
       <c r="L33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2491,10 +2497,10 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -2515,10 +2521,10 @@
         <v>1.4</v>
       </c>
       <c r="L34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2532,10 +2538,10 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -2556,10 +2562,10 @@
         <v>2.4</v>
       </c>
       <c r="L35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2573,10 +2579,10 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -2597,10 +2603,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2614,10 +2620,10 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -2638,10 +2644,10 @@
         <v>1.4</v>
       </c>
       <c r="L37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2655,10 +2661,10 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2679,10 +2685,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2696,10 +2702,10 @@
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2720,10 +2726,10 @@
         <v>1.9</v>
       </c>
       <c r="L39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2737,10 +2743,10 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2761,10 +2767,10 @@
         <v>3.4</v>
       </c>
       <c r="L40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2778,10 +2784,10 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2802,10 +2808,10 @@
         <v>5.2</v>
       </c>
       <c r="L41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2819,10 +2825,10 @@
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -2843,10 +2849,10 @@
         <v>3.5</v>
       </c>
       <c r="L42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2860,10 +2866,10 @@
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -2884,10 +2890,10 @@
         <v>0.9</v>
       </c>
       <c r="L43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2901,10 +2907,10 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -2925,10 +2931,10 @@
         <v>0.9</v>
       </c>
       <c r="L44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2942,10 +2948,10 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -2966,10 +2972,10 @@
         <v>2</v>
       </c>
       <c r="L45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2983,10 +2989,10 @@
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -3007,10 +3013,10 @@
         <v>0.8</v>
       </c>
       <c r="L46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3024,10 +3030,10 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -3048,10 +3054,10 @@
         <v>0.9</v>
       </c>
       <c r="L47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3065,10 +3071,10 @@
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -3089,10 +3095,10 @@
         <v>0.9</v>
       </c>
       <c r="L48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3106,10 +3112,10 @@
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -3130,10 +3136,10 @@
         <v>0.8</v>
       </c>
       <c r="L49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3147,10 +3153,10 @@
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3171,10 +3177,10 @@
         <v>3.3</v>
       </c>
       <c r="L50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3188,10 +3194,10 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3212,10 +3218,10 @@
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3229,10 +3235,10 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3253,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M52" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3270,10 +3276,10 @@
         <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3294,10 +3300,10 @@
         <v>3.3</v>
       </c>
       <c r="L53" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3311,10 +3317,10 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -3335,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3352,10 +3358,10 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -3376,10 +3382,10 @@
         <v>3.5</v>
       </c>
       <c r="L55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3393,10 +3399,10 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -3417,10 +3423,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3434,10 +3440,10 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -3458,10 +3464,10 @@
         <v>3.4</v>
       </c>
       <c r="L57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3475,10 +3481,10 @@
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3499,10 +3505,10 @@
         <v>1.6</v>
       </c>
       <c r="L58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3516,10 +3522,10 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3540,10 +3546,10 @@
         <v>1.4</v>
       </c>
       <c r="L59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3557,10 +3563,10 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -3581,10 +3587,10 @@
         <v>1.4</v>
       </c>
       <c r="L60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3598,10 +3604,10 @@
         <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3622,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3639,10 +3645,10 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -3663,10 +3669,10 @@
         <v>0.8</v>
       </c>
       <c r="L62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M62" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3680,10 +3686,10 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -3704,10 +3710,10 @@
         <v>1.4</v>
       </c>
       <c r="L63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M63" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3721,10 +3727,10 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -3745,10 +3751,10 @@
         <v>1.4</v>
       </c>
       <c r="L64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M64" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3762,10 +3768,10 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -3786,10 +3792,10 @@
         <v>2.9</v>
       </c>
       <c r="L65" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M65" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -3886,43 +3892,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3936,10 +3942,10 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3960,10 +3966,10 @@
         <v>2.15</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3977,10 +3983,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -4001,10 +4007,10 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4018,10 +4024,10 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4042,10 +4048,10 @@
         <v>7.03</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -4059,10 +4065,10 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4083,10 +4089,10 @@
         <v>1.25</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4100,10 +4106,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -4124,10 +4130,10 @@
         <v>1.22</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -4141,10 +4147,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -4165,10 +4171,10 @@
         <v>1.6</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4182,10 +4188,10 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -4206,10 +4212,10 @@
         <v>0.96</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4223,10 +4229,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -4247,10 +4253,10 @@
         <v>0.86</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4264,10 +4270,10 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -4288,10 +4294,10 @@
         <v>2.15</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4305,10 +4311,10 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -4329,10 +4335,10 @@
         <v>0.86</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4346,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -4370,10 +4376,10 @@
         <v>0.86</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4387,10 +4393,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -4411,10 +4417,10 @@
         <v>0.86</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4428,10 +4434,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
       </c>
       <c r="F14">
         <v>19</v>
@@ -4452,10 +4458,10 @@
         <v>1.06</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4469,10 +4475,10 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
         <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
       </c>
       <c r="F15">
         <v>19</v>
@@ -4493,10 +4499,10 @@
         <v>1.08</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4510,10 +4516,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
       </c>
       <c r="F16">
         <v>19</v>
@@ -4534,10 +4540,10 @@
         <v>1.06</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4551,10 +4557,10 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
         <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
       </c>
       <c r="F17">
         <v>19</v>
@@ -4575,10 +4581,10 @@
         <v>1.86</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4592,10 +4598,10 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
         <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -4616,10 +4622,10 @@
         <v>2.8</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4633,10 +4639,10 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -4657,10 +4663,10 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4674,10 +4680,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
         <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -4698,10 +4704,10 @@
         <v>0.9</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4715,10 +4721,10 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
         <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -4739,10 +4745,10 @@
         <v>1.4</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4756,10 +4762,10 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
         <v>39</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -4780,10 +4786,10 @@
         <v>5.2</v>
       </c>
       <c r="L22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4797,10 +4803,10 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
         <v>39</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -4821,10 +4827,10 @@
         <v>5.6</v>
       </c>
       <c r="L23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4838,10 +4844,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
         <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -4862,10 +4868,10 @@
         <v>4.8</v>
       </c>
       <c r="L24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4879,10 +4885,10 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
         <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -4903,10 +4909,10 @@
         <v>4.5</v>
       </c>
       <c r="L25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4920,10 +4926,10 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -4944,10 +4950,10 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4961,10 +4967,10 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -4985,10 +4991,10 @@
         <v>1.7</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -5002,10 +5008,10 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -5026,10 +5032,10 @@
         <v>0.8</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -5043,10 +5049,10 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29">
         <v>7</v>
@@ -5067,10 +5073,10 @@
         <v>1.7</v>
       </c>
       <c r="L29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -5084,10 +5090,10 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -5108,10 +5114,10 @@
         <v>2.4</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -5125,10 +5131,10 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -5149,10 +5155,10 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -5166,10 +5172,10 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -5190,10 +5196,10 @@
         <v>0.9</v>
       </c>
       <c r="L32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -5207,10 +5213,10 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -5231,10 +5237,10 @@
         <v>0.9</v>
       </c>
       <c r="L33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -5248,10 +5254,10 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -5272,10 +5278,10 @@
         <v>1.4</v>
       </c>
       <c r="L34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -5289,10 +5295,10 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -5313,10 +5319,10 @@
         <v>2.4</v>
       </c>
       <c r="L35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -5330,10 +5336,10 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -5354,10 +5360,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -5371,10 +5377,10 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -5395,10 +5401,10 @@
         <v>1.4</v>
       </c>
       <c r="L37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -5412,10 +5418,10 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5436,10 +5442,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5453,10 +5459,10 @@
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -5477,10 +5483,10 @@
         <v>1.9</v>
       </c>
       <c r="L39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5494,10 +5500,10 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5518,10 +5524,10 @@
         <v>3.4</v>
       </c>
       <c r="L40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5535,10 +5541,10 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5559,10 +5565,10 @@
         <v>5.2</v>
       </c>
       <c r="L41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5576,10 +5582,10 @@
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -5600,10 +5606,10 @@
         <v>3.5</v>
       </c>
       <c r="L42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5617,10 +5623,10 @@
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -5641,10 +5647,10 @@
         <v>0.9</v>
       </c>
       <c r="L43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5658,10 +5664,10 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -5682,10 +5688,10 @@
         <v>0.9</v>
       </c>
       <c r="L44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5699,10 +5705,10 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -5723,10 +5729,10 @@
         <v>2</v>
       </c>
       <c r="L45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -5740,10 +5746,10 @@
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -5764,10 +5770,10 @@
         <v>0.8</v>
       </c>
       <c r="L46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5781,10 +5787,10 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -5805,10 +5811,10 @@
         <v>0.9</v>
       </c>
       <c r="L47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5822,10 +5828,10 @@
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -5846,10 +5852,10 @@
         <v>0.9</v>
       </c>
       <c r="L48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5863,10 +5869,10 @@
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -5887,10 +5893,10 @@
         <v>0.8</v>
       </c>
       <c r="L49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5904,10 +5910,10 @@
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -5928,10 +5934,10 @@
         <v>3.3</v>
       </c>
       <c r="L50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5945,10 +5951,10 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5969,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -5986,10 +5992,10 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -6010,10 +6016,10 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M52" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -6027,10 +6033,10 @@
         <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -6051,10 +6057,10 @@
         <v>3.3</v>
       </c>
       <c r="L53" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -6068,10 +6074,10 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -6092,10 +6098,10 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -6109,10 +6115,10 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -6133,10 +6139,10 @@
         <v>3.5</v>
       </c>
       <c r="L55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -6150,10 +6156,10 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -6174,10 +6180,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -6191,10 +6197,10 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -6215,10 +6221,10 @@
         <v>3.4</v>
       </c>
       <c r="L57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -6232,10 +6238,10 @@
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -6256,10 +6262,10 @@
         <v>1.6</v>
       </c>
       <c r="L58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -6273,10 +6279,10 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -6297,10 +6303,10 @@
         <v>1.4</v>
       </c>
       <c r="L59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -6314,10 +6320,10 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -6338,10 +6344,10 @@
         <v>1.4</v>
       </c>
       <c r="L60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -6355,10 +6361,10 @@
         <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -6379,10 +6385,10 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -6396,10 +6402,10 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -6420,10 +6426,10 @@
         <v>0.8</v>
       </c>
       <c r="L62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M62" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -6437,10 +6443,10 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -6461,10 +6467,10 @@
         <v>1.4</v>
       </c>
       <c r="L63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M63" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6478,10 +6484,10 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -6502,10 +6508,10 @@
         <v>1.4</v>
       </c>
       <c r="L64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M64" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -6519,10 +6525,10 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -6543,10 +6549,10 @@
         <v>2.9</v>
       </c>
       <c r="L65" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M65" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6634,43 +6640,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -12084,43 +12090,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -12134,10 +12140,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -12146,10 +12152,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -12160,10 +12166,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -12172,10 +12178,10 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -12183,7 +12189,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -12192,10 +12198,10 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -12203,7 +12209,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -12212,10 +12218,10 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -12226,10 +12232,10 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -12427,106 +12433,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -12550,1496 +12556,1496 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>43732</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>43733</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>43735</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>43735</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>43732</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>43733</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>43735</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>43735</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>43732</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>43733</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>43735</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>43735</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>43732</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>43733</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>43735</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>43735</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>43732</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>43733</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>43735</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>43735</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>43732</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>43733</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>43735</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>43735</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>43732</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>43733</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>43735</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>43735</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>43732</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>43733</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>43735</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>43735</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>43733</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>43734</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>43735</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>43735</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>43733</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>43734</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>43735</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>43735</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>43733</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>43734</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>43735</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>43735</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>43733</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>43734</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>43735</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>43735</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>43703</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>43704</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>43720</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>43721</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>43703</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>43704</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>43720</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>43721</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>43703</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>43704</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>43720</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>43721</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>43703</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>43704</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>43720</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>43721</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>43703</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>43704</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>43720</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>43721</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>43703</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>43704</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>43720</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>43721</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>43703</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>43704</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>43720</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>43721</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>43703</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>43704</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>43720</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>43721</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>43703</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>43704</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>43720</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>43721</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>43703</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>43704</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>43720</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>43721</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>43703</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>43704</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>43720</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <v>43721</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>43703</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>43704</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>43720</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>43721</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>43703</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>43704</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>43720</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>43721</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>43703</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <v>43704</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>43720</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>43721</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>43703</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="20">
         <v>43704</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>43720</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>43721</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>43703</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>43704</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>43720</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>43721</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="20">
         <v>43721</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>43731</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>43732</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>43735</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>43735</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>43731</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>43732</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>43735</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>43735</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>43731</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="20">
         <v>43732</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>43735</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>43735</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>43731</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>43732</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>43735</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>43735</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>43731</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="20">
         <v>43732</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <v>43735</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <v>43735</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>43731</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="20">
         <v>43732</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>43735</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <v>43735</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>43731</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="20">
         <v>43732</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>43735</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>43735</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>43731</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="20">
         <v>43732</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>43735</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <v>43735</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>43732</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="20">
         <v>43733</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <v>43735</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <v>43735</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>43732</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="20">
         <v>43733</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <v>43735</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="20">
         <v>43735</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>43732</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="20">
         <v>43733</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>43735</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="20">
         <v>43735</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>43732</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="20">
         <v>43733</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <v>43735</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <v>43735</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>43731</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="20">
         <v>43732</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <v>43735</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <v>43735</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>43731</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="20">
         <v>43732</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="20">
         <v>43735</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <v>43735</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>43731</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="20">
         <v>43732</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="20">
         <v>43735</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="20">
         <v>43735</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>43731</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="20">
         <v>43732</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <v>43735</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <v>43735</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>43731</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="20">
         <v>43732</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <v>43735</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="20">
         <v>43735</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>43731</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="20">
         <v>43732</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <v>43735</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="20">
         <v>43735</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>43731</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="20">
         <v>43732</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="20">
         <v>43735</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="20">
         <v>43735</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>43731</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="20">
         <v>43732</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="20">
         <v>43735</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="20">
         <v>43735</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>43733</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="20">
         <v>43734</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="20">
         <v>43735</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="20">
         <v>43735</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>43733</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="20">
         <v>43734</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="20">
         <v>43735</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="20">
         <v>43735</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>43733</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="20">
         <v>43734</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>43735</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="20">
         <v>43735</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>43733</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="20">
         <v>43734</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="20">
         <v>43735</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="20">
         <v>43735</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>43731</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="20">
         <v>43732</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>43735</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="20">
         <v>43735</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G54" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>43731</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="20">
         <v>43732</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="20">
         <v>43735</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="20">
         <v>43735</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>43731</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="20">
         <v>43732</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="20">
         <v>43735</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="20">
         <v>43735</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>43731</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="20">
         <v>43732</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="20">
         <v>43735</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="20">
         <v>43735</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G57" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>43733</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="20">
         <v>43734</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="20">
         <v>43735</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="20">
         <v>43735</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G58" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>43733</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="20">
         <v>43734</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="20">
         <v>43735</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="20">
         <v>43735</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G59" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>43733</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="20">
         <v>43734</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="20">
         <v>43735</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="20">
         <v>43735</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G60" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>43733</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="20">
         <v>43734</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="20">
         <v>43735</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="20">
         <v>43735</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>43732</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="20">
         <v>43733</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>43735</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="20">
         <v>43735</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G62" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>43732</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="20">
         <v>43733</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="20">
         <v>43735</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="20">
         <v>43735</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>43732</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="20">
         <v>43733</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="20">
         <v>43735</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="20">
         <v>43735</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G64" s="20">
         <v>43749</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <v>43732</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="20">
         <v>43733</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="20">
         <v>43735</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="20">
         <v>43735</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="20">
         <v>43749</v>
       </c>
     </row>

--- a/Oyster/cultchmass/cultchmass_packet.xlsx
+++ b/Oyster/cultchmass/cultchmass_packet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datasheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="83">
   <si>
     <t>DATE (YYYYMMDD):</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>CULTCH MASS FIELD DATASHEET</t>
+  </si>
+  <si>
+    <t>sbjhrh</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>md_rf_kg</t>
   </si>
 </sst>
 </file>
@@ -754,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -1122,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:M65"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1145,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1165,16 +1177,19 @@
         <v>33</v>
       </c>
       <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1206,16 +1221,19 @@
         <v>4.53</v>
       </c>
       <c r="K2">
+        <v>-999</v>
+      </c>
+      <c r="L2">
         <v>2.15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
       </c>
       <c r="M2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -1247,16 +1265,19 @@
         <v>4.99</v>
       </c>
       <c r="K3">
+        <v>-999</v>
+      </c>
+      <c r="L3">
         <v>2.4900000000000002</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
       </c>
       <c r="M3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -1288,16 +1309,19 @@
         <v>2.38</v>
       </c>
       <c r="K4">
+        <v>-999</v>
+      </c>
+      <c r="L4">
         <v>7.03</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
       </c>
       <c r="M4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -1329,16 +1353,19 @@
         <v>0.86</v>
       </c>
       <c r="K5">
+        <v>-999</v>
+      </c>
+      <c r="L5">
         <v>1.25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>47</v>
       </c>
       <c r="M5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1370,16 +1397,19 @@
         <v>1.84</v>
       </c>
       <c r="K6">
+        <v>-999</v>
+      </c>
+      <c r="L6">
         <v>1.22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
       </c>
       <c r="M6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -1411,16 +1441,19 @@
         <v>2.86</v>
       </c>
       <c r="K7">
+        <v>-999</v>
+      </c>
+      <c r="L7">
         <v>1.6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
       </c>
       <c r="M7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -1452,16 +1485,19 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="K8">
+        <v>-999</v>
+      </c>
+      <c r="L8">
         <v>0.96</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
       </c>
       <c r="M8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -1493,16 +1529,19 @@
         <v>1.36</v>
       </c>
       <c r="K9">
+        <v>-999</v>
+      </c>
+      <c r="L9">
         <v>0.86</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
       </c>
       <c r="M9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -1534,16 +1573,19 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="K10">
+        <v>-999</v>
+      </c>
+      <c r="L10">
         <v>2.15</v>
-      </c>
-      <c r="L10" t="s">
-        <v>47</v>
       </c>
       <c r="M10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -1575,16 +1617,19 @@
         <v>1.59</v>
       </c>
       <c r="K11">
+        <v>-999</v>
+      </c>
+      <c r="L11">
         <v>0.86</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
       </c>
       <c r="M11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -1616,16 +1661,19 @@
         <v>0.86</v>
       </c>
       <c r="K12">
+        <v>-999</v>
+      </c>
+      <c r="L12">
         <v>0.86</v>
-      </c>
-      <c r="L12" t="s">
-        <v>47</v>
       </c>
       <c r="M12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -1657,16 +1705,19 @@
         <v>4.08</v>
       </c>
       <c r="K13">
+        <v>-999</v>
+      </c>
+      <c r="L13">
         <v>0.86</v>
-      </c>
-      <c r="L13" t="s">
-        <v>47</v>
       </c>
       <c r="M13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -1698,16 +1749,19 @@
         <v>0.86</v>
       </c>
       <c r="K14">
+        <v>-999</v>
+      </c>
+      <c r="L14">
         <v>1.06</v>
-      </c>
-      <c r="L14" t="s">
-        <v>47</v>
       </c>
       <c r="M14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -1739,16 +1793,19 @@
         <v>0.86</v>
       </c>
       <c r="K15">
+        <v>-999</v>
+      </c>
+      <c r="L15">
         <v>1.08</v>
-      </c>
-      <c r="L15" t="s">
-        <v>47</v>
       </c>
       <c r="M15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -1780,16 +1837,19 @@
         <v>0.86</v>
       </c>
       <c r="K16">
+        <v>-999</v>
+      </c>
+      <c r="L16">
         <v>1.06</v>
-      </c>
-      <c r="L16" t="s">
-        <v>47</v>
       </c>
       <c r="M16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -1821,16 +1881,19 @@
         <v>0.86</v>
       </c>
       <c r="K17">
+        <v>-999</v>
+      </c>
+      <c r="L17">
         <v>1.86</v>
-      </c>
-      <c r="L17" t="s">
-        <v>47</v>
       </c>
       <c r="M17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -1862,16 +1925,19 @@
         <v>2.9</v>
       </c>
       <c r="K18">
+        <v>-999</v>
+      </c>
+      <c r="L18">
         <v>2.8</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>72</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -1903,16 +1969,19 @@
         <v>2.7</v>
       </c>
       <c r="K19">
+        <v>-999</v>
+      </c>
+      <c r="L19">
         <v>3</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>72</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -1944,16 +2013,19 @@
         <v>0.8</v>
       </c>
       <c r="K20">
+        <v>-999</v>
+      </c>
+      <c r="L20">
         <v>0.9</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>72</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -1985,16 +2057,19 @@
         <v>0.8</v>
       </c>
       <c r="K21">
+        <v>-999</v>
+      </c>
+      <c r="L21">
         <v>1.4</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>72</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2019</v>
       </c>
@@ -2026,16 +2101,19 @@
         <v>2.8</v>
       </c>
       <c r="K22">
+        <v>-999</v>
+      </c>
+      <c r="L22">
         <v>5.2</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>72</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2019</v>
       </c>
@@ -2067,16 +2145,19 @@
         <v>1.2</v>
       </c>
       <c r="K23">
+        <v>-999</v>
+      </c>
+      <c r="L23">
         <v>5.6</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>72</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -2108,16 +2189,19 @@
         <v>2.5</v>
       </c>
       <c r="K24">
+        <v>-999</v>
+      </c>
+      <c r="L24">
         <v>4.8</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>72</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2019</v>
       </c>
@@ -2149,16 +2233,19 @@
         <v>2.4</v>
       </c>
       <c r="K25">
+        <v>-999</v>
+      </c>
+      <c r="L25">
         <v>4.5</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>72</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -2190,16 +2277,19 @@
         <v>0.8</v>
       </c>
       <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
         <v>72</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -2231,16 +2321,19 @@
         <v>0.8</v>
       </c>
       <c r="K27">
+        <v>-999</v>
+      </c>
+      <c r="L27">
         <v>1.7</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>72</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -2272,16 +2365,19 @@
         <v>0.8</v>
       </c>
       <c r="K28">
-        <v>0.8</v>
-      </c>
-      <c r="L28" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L28">
+        <v>0.8</v>
+      </c>
+      <c r="M28" t="s">
         <v>72</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -2313,16 +2409,19 @@
         <v>0.8</v>
       </c>
       <c r="K29">
+        <v>-999</v>
+      </c>
+      <c r="L29">
         <v>1.7</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>72</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -2354,16 +2453,19 @@
         <v>0.8</v>
       </c>
       <c r="K30">
+        <v>-999</v>
+      </c>
+      <c r="L30">
         <v>2.4</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>72</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -2395,16 +2497,19 @@
         <v>0.8</v>
       </c>
       <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
         <v>72</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -2436,16 +2541,19 @@
         <v>0.8</v>
       </c>
       <c r="K32">
+        <v>-999</v>
+      </c>
+      <c r="L32">
         <v>0.9</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>72</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -2477,16 +2585,19 @@
         <v>0.8</v>
       </c>
       <c r="K33">
+        <v>-999</v>
+      </c>
+      <c r="L33">
         <v>0.9</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>72</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -2518,16 +2629,19 @@
         <v>1.7</v>
       </c>
       <c r="K34">
+        <v>-999</v>
+      </c>
+      <c r="L34">
         <v>1.4</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>72</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -2559,16 +2673,19 @@
         <v>9.4</v>
       </c>
       <c r="K35">
+        <v>-999</v>
+      </c>
+      <c r="L35">
         <v>2.4</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>72</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -2600,16 +2717,19 @@
         <v>9</v>
       </c>
       <c r="K36">
+        <v>-999</v>
+      </c>
+      <c r="L36">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>72</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -2641,16 +2761,19 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K37">
+        <v>-999</v>
+      </c>
+      <c r="L37">
         <v>1.4</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>72</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2019</v>
       </c>
@@ -2682,16 +2805,19 @@
         <v>1.3</v>
       </c>
       <c r="K38">
+        <v>-999</v>
+      </c>
+      <c r="L38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>73</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2019</v>
       </c>
@@ -2723,16 +2849,19 @@
         <v>0.8</v>
       </c>
       <c r="K39">
+        <v>-999</v>
+      </c>
+      <c r="L39">
         <v>1.9</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>73</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2019</v>
       </c>
@@ -2764,16 +2893,19 @@
         <v>2.7</v>
       </c>
       <c r="K40">
+        <v>-999</v>
+      </c>
+      <c r="L40">
         <v>3.4</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>73</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2019</v>
       </c>
@@ -2805,16 +2937,19 @@
         <v>2.4</v>
       </c>
       <c r="K41">
+        <v>-999</v>
+      </c>
+      <c r="L41">
         <v>5.2</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>73</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -2846,16 +2981,19 @@
         <v>6.1</v>
       </c>
       <c r="K42">
+        <v>-999</v>
+      </c>
+      <c r="L42">
         <v>3.5</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>73</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2019</v>
       </c>
@@ -2887,16 +3025,19 @@
         <v>0.8</v>
       </c>
       <c r="K43">
+        <v>-999</v>
+      </c>
+      <c r="L43">
         <v>0.9</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>73</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -2928,16 +3069,19 @@
         <v>1.3</v>
       </c>
       <c r="K44">
+        <v>-999</v>
+      </c>
+      <c r="L44">
         <v>0.9</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>73</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2019</v>
       </c>
@@ -2969,16 +3113,19 @@
         <v>1.9</v>
       </c>
       <c r="K45">
+        <v>-999</v>
+      </c>
+      <c r="L45">
         <v>2</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>73</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2019</v>
       </c>
@@ -3010,16 +3157,19 @@
         <v>0.8</v>
       </c>
       <c r="K46">
-        <v>0.8</v>
-      </c>
-      <c r="L46" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L46">
+        <v>0.8</v>
+      </c>
+      <c r="M46" t="s">
         <v>73</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2019</v>
       </c>
@@ -3051,16 +3201,19 @@
         <v>0.8</v>
       </c>
       <c r="K47">
+        <v>-999</v>
+      </c>
+      <c r="L47">
         <v>0.9</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>73</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2019</v>
       </c>
@@ -3092,16 +3245,19 @@
         <v>0.8</v>
       </c>
       <c r="K48">
+        <v>-999</v>
+      </c>
+      <c r="L48">
         <v>0.9</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>73</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2019</v>
       </c>
@@ -3133,16 +3289,19 @@
         <v>0.8</v>
       </c>
       <c r="K49">
-        <v>0.8</v>
-      </c>
-      <c r="L49" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L49">
+        <v>0.8</v>
+      </c>
+      <c r="M49" t="s">
         <v>73</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2019</v>
       </c>
@@ -3174,16 +3333,19 @@
         <v>5.3</v>
       </c>
       <c r="K50">
+        <v>-999</v>
+      </c>
+      <c r="L50">
         <v>3.3</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>73</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2019</v>
       </c>
@@ -3215,16 +3377,19 @@
         <v>1.9</v>
       </c>
       <c r="K51">
+        <v>-999</v>
+      </c>
+      <c r="L51">
         <v>3</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>73</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -3256,16 +3421,19 @@
         <v>0.8</v>
       </c>
       <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
         <v>73</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2019</v>
       </c>
@@ -3297,16 +3465,19 @@
         <v>0.8</v>
       </c>
       <c r="K53">
+        <v>-999</v>
+      </c>
+      <c r="L53">
         <v>3.3</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>73</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2019</v>
       </c>
@@ -3338,16 +3509,19 @@
         <v>2</v>
       </c>
       <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
         <v>74</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2019</v>
       </c>
@@ -3379,16 +3553,19 @@
         <v>2.9</v>
       </c>
       <c r="K55">
+        <v>-999</v>
+      </c>
+      <c r="L55">
         <v>3.5</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>74</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2019</v>
       </c>
@@ -3420,16 +3597,19 @@
         <v>4.5</v>
       </c>
       <c r="K56">
+        <v>-999</v>
+      </c>
+      <c r="L56">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>74</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2019</v>
       </c>
@@ -3461,16 +3641,19 @@
         <v>5.5</v>
       </c>
       <c r="K57">
+        <v>-999</v>
+      </c>
+      <c r="L57">
         <v>3.4</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>74</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -3502,16 +3685,19 @@
         <v>0.8</v>
       </c>
       <c r="K58">
+        <v>-999</v>
+      </c>
+      <c r="L58">
         <v>1.6</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>74</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2019</v>
       </c>
@@ -3543,16 +3729,19 @@
         <v>0.8</v>
       </c>
       <c r="K59">
+        <v>-999</v>
+      </c>
+      <c r="L59">
         <v>1.4</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>74</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -3584,16 +3773,19 @@
         <v>0.8</v>
       </c>
       <c r="K60">
+        <v>-999</v>
+      </c>
+      <c r="L60">
         <v>1.4</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>74</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -3625,16 +3817,19 @@
         <v>1.6</v>
       </c>
       <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
         <v>74</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2019</v>
       </c>
@@ -3666,16 +3861,19 @@
         <v>2.1</v>
       </c>
       <c r="K62">
-        <v>0.8</v>
-      </c>
-      <c r="L62" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L62">
+        <v>0.8</v>
+      </c>
+      <c r="M62" t="s">
         <v>74</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -3707,16 +3905,19 @@
         <v>0.8</v>
       </c>
       <c r="K63">
+        <v>-999</v>
+      </c>
+      <c r="L63">
         <v>1.4</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>74</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2019</v>
       </c>
@@ -3748,16 +3949,19 @@
         <v>0.8</v>
       </c>
       <c r="K64">
+        <v>-999</v>
+      </c>
+      <c r="L64">
         <v>1.4</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>74</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2019</v>
       </c>
@@ -3789,13 +3993,1468 @@
         <v>5</v>
       </c>
       <c r="K65">
+        <v>-999</v>
+      </c>
+      <c r="L65">
         <v>2.9</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>74</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2020</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66">
+        <v>27</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0.8</v>
+      </c>
+      <c r="I66">
+        <v>-999</v>
+      </c>
+      <c r="J66">
+        <v>1.8</v>
+      </c>
+      <c r="K66">
+        <v>0.8</v>
+      </c>
+      <c r="L66">
+        <v>1.4</v>
+      </c>
+      <c r="M66" t="s">
+        <v>79</v>
+      </c>
+      <c r="N66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2020</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67">
+        <v>27</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>0.8</v>
+      </c>
+      <c r="I67">
+        <v>-999</v>
+      </c>
+      <c r="J67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K67">
+        <v>0.8</v>
+      </c>
+      <c r="L67">
+        <v>2.1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>79</v>
+      </c>
+      <c r="N67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2020</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68">
+        <v>27</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>0.8</v>
+      </c>
+      <c r="I68">
+        <v>-999</v>
+      </c>
+      <c r="J68">
+        <v>0.8</v>
+      </c>
+      <c r="K68">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L68">
+        <v>2.7</v>
+      </c>
+      <c r="M68" t="s">
+        <v>79</v>
+      </c>
+      <c r="N68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2020</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69">
+        <v>22</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>0.8</v>
+      </c>
+      <c r="I69">
+        <v>-999</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>3.3</v>
+      </c>
+      <c r="L69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2020</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70">
+        <v>22</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0.8</v>
+      </c>
+      <c r="I70">
+        <v>-999</v>
+      </c>
+      <c r="J70">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K70">
+        <v>4.8</v>
+      </c>
+      <c r="L70">
+        <v>2.9</v>
+      </c>
+      <c r="M70" t="s">
+        <v>79</v>
+      </c>
+      <c r="N70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2020</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71">
+        <v>22</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>0.8</v>
+      </c>
+      <c r="I71">
+        <v>-999</v>
+      </c>
+      <c r="J71">
+        <v>6.5</v>
+      </c>
+      <c r="K71">
+        <v>4.2</v>
+      </c>
+      <c r="L71">
+        <v>3.4</v>
+      </c>
+      <c r="M71" t="s">
+        <v>79</v>
+      </c>
+      <c r="N71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2020</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0.8</v>
+      </c>
+      <c r="I72">
+        <v>-999</v>
+      </c>
+      <c r="J72">
+        <v>0.8</v>
+      </c>
+      <c r="K72">
+        <v>0.8</v>
+      </c>
+      <c r="L72">
+        <v>1.3</v>
+      </c>
+      <c r="M72" t="s">
+        <v>79</v>
+      </c>
+      <c r="N72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2020</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>0.8</v>
+      </c>
+      <c r="I73">
+        <v>-999</v>
+      </c>
+      <c r="J73">
+        <v>0.8</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>3.8</v>
+      </c>
+      <c r="M73" t="s">
+        <v>79</v>
+      </c>
+      <c r="N73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2020</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>0.8</v>
+      </c>
+      <c r="I74">
+        <v>-999</v>
+      </c>
+      <c r="J74">
+        <v>0.8</v>
+      </c>
+      <c r="K74">
+        <v>1.4</v>
+      </c>
+      <c r="L74">
+        <v>3.1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>79</v>
+      </c>
+      <c r="N74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2020</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>0.8</v>
+      </c>
+      <c r="I75">
+        <v>-999</v>
+      </c>
+      <c r="J75">
+        <v>0.8</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2.5</v>
+      </c>
+      <c r="M75" t="s">
+        <v>79</v>
+      </c>
+      <c r="N75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2020</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>0.8</v>
+      </c>
+      <c r="I76">
+        <v>-999</v>
+      </c>
+      <c r="J76">
+        <v>0.8</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>3.2</v>
+      </c>
+      <c r="M76" t="s">
+        <v>79</v>
+      </c>
+      <c r="N76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2020</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0.8</v>
+      </c>
+      <c r="I77">
+        <v>-999</v>
+      </c>
+      <c r="J77">
+        <v>0.8</v>
+      </c>
+      <c r="K77">
+        <v>0.9</v>
+      </c>
+      <c r="L77">
+        <v>3.6</v>
+      </c>
+      <c r="M77" t="s">
+        <v>79</v>
+      </c>
+      <c r="N77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2020</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78">
+        <v>14</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>0.8</v>
+      </c>
+      <c r="I78">
+        <v>-999</v>
+      </c>
+      <c r="J78">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K78">
+        <v>2.7</v>
+      </c>
+      <c r="L78">
+        <v>2.6</v>
+      </c>
+      <c r="M78" t="s">
+        <v>79</v>
+      </c>
+      <c r="N78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2020</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>0.8</v>
+      </c>
+      <c r="I79">
+        <v>-999</v>
+      </c>
+      <c r="J79">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K79">
+        <v>1.2</v>
+      </c>
+      <c r="L79">
+        <v>1.4</v>
+      </c>
+      <c r="M79" t="s">
+        <v>79</v>
+      </c>
+      <c r="N79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2020</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0.9</v>
+      </c>
+      <c r="I80">
+        <v>-999</v>
+      </c>
+      <c r="J80">
+        <v>2.6</v>
+      </c>
+      <c r="K80">
+        <v>3.5</v>
+      </c>
+      <c r="L80">
+        <v>2.7</v>
+      </c>
+      <c r="M80" t="s">
+        <v>79</v>
+      </c>
+      <c r="N80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2020</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0.9</v>
+      </c>
+      <c r="I81">
+        <v>-999</v>
+      </c>
+      <c r="J81">
+        <v>3.9</v>
+      </c>
+      <c r="K81">
+        <v>3.4</v>
+      </c>
+      <c r="L81">
+        <v>3.4</v>
+      </c>
+      <c r="M81" t="s">
+        <v>79</v>
+      </c>
+      <c r="N81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2020</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82">
+        <v>20</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>0.9</v>
+      </c>
+      <c r="I82">
+        <v>-999</v>
+      </c>
+      <c r="J82">
+        <v>3.1</v>
+      </c>
+      <c r="K82">
+        <v>2.6</v>
+      </c>
+      <c r="L82">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M82" t="s">
+        <v>79</v>
+      </c>
+      <c r="N82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2020</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>0.9</v>
+      </c>
+      <c r="I83">
+        <v>-999</v>
+      </c>
+      <c r="J83">
+        <v>0.9</v>
+      </c>
+      <c r="K83">
+        <v>2.4</v>
+      </c>
+      <c r="L83">
+        <v>1.9</v>
+      </c>
+      <c r="M83" t="s">
+        <v>79</v>
+      </c>
+      <c r="N83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2020</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>0.8</v>
+      </c>
+      <c r="I84">
+        <v>-999</v>
+      </c>
+      <c r="J84">
+        <v>1.4</v>
+      </c>
+      <c r="K84">
+        <v>0.8</v>
+      </c>
+      <c r="L84">
+        <v>0.9</v>
+      </c>
+      <c r="M84" t="s">
+        <v>80</v>
+      </c>
+      <c r="N84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2020</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0.8</v>
+      </c>
+      <c r="I85">
+        <v>-999</v>
+      </c>
+      <c r="J85">
+        <v>0.8</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1.7</v>
+      </c>
+      <c r="M85" t="s">
+        <v>80</v>
+      </c>
+      <c r="N85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2020</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>0.8</v>
+      </c>
+      <c r="I86">
+        <v>-999</v>
+      </c>
+      <c r="J86">
+        <v>0.8</v>
+      </c>
+      <c r="K86">
+        <v>0.8</v>
+      </c>
+      <c r="L86">
+        <v>1.8</v>
+      </c>
+      <c r="M86" t="s">
+        <v>80</v>
+      </c>
+      <c r="N86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2020</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>0.8</v>
+      </c>
+      <c r="I87">
+        <v>-999</v>
+      </c>
+      <c r="J87">
+        <v>2.7</v>
+      </c>
+      <c r="K87">
+        <v>0.9</v>
+      </c>
+      <c r="L87">
+        <v>0.9</v>
+      </c>
+      <c r="M87" t="s">
+        <v>81</v>
+      </c>
+      <c r="N87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2020</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0.8</v>
+      </c>
+      <c r="I88">
+        <v>-999</v>
+      </c>
+      <c r="J88">
+        <v>11.7</v>
+      </c>
+      <c r="K88">
+        <v>0.8</v>
+      </c>
+      <c r="L88">
+        <v>3.1</v>
+      </c>
+      <c r="M88" t="s">
+        <v>81</v>
+      </c>
+      <c r="N88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2020</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>0.8</v>
+      </c>
+      <c r="I89">
+        <v>-999</v>
+      </c>
+      <c r="J89">
+        <v>5.3</v>
+      </c>
+      <c r="K89">
+        <v>1.4</v>
+      </c>
+      <c r="L89">
+        <v>2.6</v>
+      </c>
+      <c r="M89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2020</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90">
+        <v>21</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>0.8</v>
+      </c>
+      <c r="I90">
+        <v>-999</v>
+      </c>
+      <c r="J90">
+        <v>2.8</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0.8</v>
+      </c>
+      <c r="M90" t="s">
+        <v>80</v>
+      </c>
+      <c r="N90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2020</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91">
+        <v>21</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0.8</v>
+      </c>
+      <c r="I91">
+        <v>-999</v>
+      </c>
+      <c r="J91">
+        <v>3.7</v>
+      </c>
+      <c r="K91">
+        <v>0.9</v>
+      </c>
+      <c r="L91">
+        <v>0.9</v>
+      </c>
+      <c r="M91" t="s">
+        <v>80</v>
+      </c>
+      <c r="N91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2020</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92">
+        <v>21</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>0.8</v>
+      </c>
+      <c r="I92">
+        <v>-999</v>
+      </c>
+      <c r="J92">
+        <v>3.6</v>
+      </c>
+      <c r="K92">
+        <v>0.8</v>
+      </c>
+      <c r="L92">
+        <v>1.3</v>
+      </c>
+      <c r="M92" t="s">
+        <v>80</v>
+      </c>
+      <c r="N92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2020</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93">
+        <v>25</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0.8</v>
+      </c>
+      <c r="I93">
+        <v>-999</v>
+      </c>
+      <c r="J93">
+        <v>0.8</v>
+      </c>
+      <c r="K93">
+        <v>0.9</v>
+      </c>
+      <c r="L93">
+        <v>1.2</v>
+      </c>
+      <c r="M93" t="s">
+        <v>80</v>
+      </c>
+      <c r="N93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2020</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94">
+        <v>25</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>0.8</v>
+      </c>
+      <c r="I94">
+        <v>-999</v>
+      </c>
+      <c r="J94">
+        <v>1.4</v>
+      </c>
+      <c r="K94">
+        <v>0.8</v>
+      </c>
+      <c r="L94">
+        <v>1.2</v>
+      </c>
+      <c r="M94" t="s">
+        <v>80</v>
+      </c>
+      <c r="N94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2020</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95">
+        <v>25</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>0.8</v>
+      </c>
+      <c r="I95">
+        <v>-999</v>
+      </c>
+      <c r="J95">
+        <v>1.3</v>
+      </c>
+      <c r="K95">
+        <v>0.8</v>
+      </c>
+      <c r="L95">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M95" t="s">
+        <v>80</v>
+      </c>
+      <c r="N95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2020</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96">
+        <v>26</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>0.8</v>
+      </c>
+      <c r="I96">
+        <v>-999</v>
+      </c>
+      <c r="J96">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K96">
+        <v>1.9</v>
+      </c>
+      <c r="L96">
+        <v>1.9</v>
+      </c>
+      <c r="M96" t="s">
+        <v>80</v>
+      </c>
+      <c r="N96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2020</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97">
+        <v>26</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0.8</v>
+      </c>
+      <c r="I97">
+        <v>-999</v>
+      </c>
+      <c r="J97">
+        <v>8.5</v>
+      </c>
+      <c r="K97">
+        <v>1.2</v>
+      </c>
+      <c r="L97">
+        <v>1.8</v>
+      </c>
+      <c r="M97" t="s">
+        <v>80</v>
+      </c>
+      <c r="N97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2020</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98">
+        <v>26</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>0.8</v>
+      </c>
+      <c r="I98">
+        <v>-999</v>
+      </c>
+      <c r="J98">
+        <v>0.8</v>
+      </c>
+      <c r="K98">
+        <v>0.8</v>
+      </c>
+      <c r="L98">
+        <v>1.8</v>
+      </c>
+      <c r="M98" t="s">
+        <v>80</v>
+      </c>
+      <c r="N98" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3857,19 +5516,19 @@
           <x14:formula1>
             <xm:f>pick!$L$2:$L$12</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L17 L66:L1048576</xm:sqref>
+          <xm:sqref>M1:M17 M66:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>pick!$M$2:$M$16</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:M1048576</xm:sqref>
+          <xm:sqref>N1:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>pick!$L$2:$L$16</xm:f>
           </x14:formula1>
-          <xm:sqref>L18:L65</xm:sqref>
+          <xm:sqref>M18:M65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3879,10 +5538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3890,7 +5549,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3922,16 +5581,19 @@
         <v>33</v>
       </c>
       <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -3963,16 +5625,19 @@
         <v>4.53</v>
       </c>
       <c r="K2">
+        <v>-999</v>
+      </c>
+      <c r="L2">
         <v>2.15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
       </c>
       <c r="M2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -4004,16 +5669,19 @@
         <v>4.99</v>
       </c>
       <c r="K3">
+        <v>-999</v>
+      </c>
+      <c r="L3">
         <v>2.4900000000000002</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
       </c>
       <c r="M3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -4045,16 +5713,19 @@
         <v>2.38</v>
       </c>
       <c r="K4">
+        <v>-999</v>
+      </c>
+      <c r="L4">
         <v>7.03</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
       </c>
       <c r="M4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -4086,16 +5757,19 @@
         <v>0.86</v>
       </c>
       <c r="K5">
+        <v>-999</v>
+      </c>
+      <c r="L5">
         <v>1.25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>47</v>
       </c>
       <c r="M5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4127,16 +5801,19 @@
         <v>1.84</v>
       </c>
       <c r="K6">
+        <v>-999</v>
+      </c>
+      <c r="L6">
         <v>1.22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
       </c>
       <c r="M6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -4168,16 +5845,19 @@
         <v>2.86</v>
       </c>
       <c r="K7">
+        <v>-999</v>
+      </c>
+      <c r="L7">
         <v>1.6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
       </c>
       <c r="M7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -4209,16 +5889,19 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="K8">
+        <v>-999</v>
+      </c>
+      <c r="L8">
         <v>0.96</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
       </c>
       <c r="M8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -4250,16 +5933,19 @@
         <v>1.36</v>
       </c>
       <c r="K9">
+        <v>-999</v>
+      </c>
+      <c r="L9">
         <v>0.86</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
       </c>
       <c r="M9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -4291,16 +5977,19 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="K10">
+        <v>-999</v>
+      </c>
+      <c r="L10">
         <v>2.15</v>
-      </c>
-      <c r="L10" t="s">
-        <v>47</v>
       </c>
       <c r="M10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -4332,16 +6021,19 @@
         <v>1.59</v>
       </c>
       <c r="K11">
+        <v>-999</v>
+      </c>
+      <c r="L11">
         <v>0.86</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
       </c>
       <c r="M11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -4373,16 +6065,19 @@
         <v>0.86</v>
       </c>
       <c r="K12">
+        <v>-999</v>
+      </c>
+      <c r="L12">
         <v>0.86</v>
-      </c>
-      <c r="L12" t="s">
-        <v>47</v>
       </c>
       <c r="M12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -4414,16 +6109,19 @@
         <v>4.08</v>
       </c>
       <c r="K13">
+        <v>-999</v>
+      </c>
+      <c r="L13">
         <v>0.86</v>
-      </c>
-      <c r="L13" t="s">
-        <v>47</v>
       </c>
       <c r="M13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -4455,16 +6153,19 @@
         <v>0.86</v>
       </c>
       <c r="K14">
+        <v>-999</v>
+      </c>
+      <c r="L14">
         <v>1.06</v>
-      </c>
-      <c r="L14" t="s">
-        <v>47</v>
       </c>
       <c r="M14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -4496,16 +6197,19 @@
         <v>0.86</v>
       </c>
       <c r="K15">
+        <v>-999</v>
+      </c>
+      <c r="L15">
         <v>1.08</v>
-      </c>
-      <c r="L15" t="s">
-        <v>47</v>
       </c>
       <c r="M15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -4537,16 +6241,19 @@
         <v>0.86</v>
       </c>
       <c r="K16">
+        <v>-999</v>
+      </c>
+      <c r="L16">
         <v>1.06</v>
-      </c>
-      <c r="L16" t="s">
-        <v>47</v>
       </c>
       <c r="M16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -4578,16 +6285,19 @@
         <v>0.86</v>
       </c>
       <c r="K17">
+        <v>-999</v>
+      </c>
+      <c r="L17">
         <v>1.86</v>
-      </c>
-      <c r="L17" t="s">
-        <v>47</v>
       </c>
       <c r="M17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -4619,16 +6329,19 @@
         <v>2.9</v>
       </c>
       <c r="K18">
+        <v>-999</v>
+      </c>
+      <c r="L18">
         <v>2.8</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>72</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -4660,16 +6373,19 @@
         <v>2.7</v>
       </c>
       <c r="K19">
+        <v>-999</v>
+      </c>
+      <c r="L19">
         <v>3</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>72</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -4701,16 +6417,19 @@
         <v>0.8</v>
       </c>
       <c r="K20">
+        <v>-999</v>
+      </c>
+      <c r="L20">
         <v>0.9</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>72</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -4742,16 +6461,19 @@
         <v>0.8</v>
       </c>
       <c r="K21">
+        <v>-999</v>
+      </c>
+      <c r="L21">
         <v>1.4</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>72</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2019</v>
       </c>
@@ -4783,16 +6505,19 @@
         <v>2.8</v>
       </c>
       <c r="K22">
+        <v>-999</v>
+      </c>
+      <c r="L22">
         <v>5.2</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>72</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2019</v>
       </c>
@@ -4824,16 +6549,19 @@
         <v>1.2</v>
       </c>
       <c r="K23">
+        <v>-999</v>
+      </c>
+      <c r="L23">
         <v>5.6</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>72</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -4865,16 +6593,19 @@
         <v>2.5</v>
       </c>
       <c r="K24">
+        <v>-999</v>
+      </c>
+      <c r="L24">
         <v>4.8</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>72</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2019</v>
       </c>
@@ -4906,16 +6637,19 @@
         <v>2.4</v>
       </c>
       <c r="K25">
+        <v>-999</v>
+      </c>
+      <c r="L25">
         <v>4.5</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>72</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -4947,16 +6681,19 @@
         <v>0.8</v>
       </c>
       <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
         <v>72</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -4988,16 +6725,19 @@
         <v>0.8</v>
       </c>
       <c r="K27">
+        <v>-999</v>
+      </c>
+      <c r="L27">
         <v>1.7</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>72</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -5029,16 +6769,19 @@
         <v>0.8</v>
       </c>
       <c r="K28">
-        <v>0.8</v>
-      </c>
-      <c r="L28" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L28">
+        <v>0.8</v>
+      </c>
+      <c r="M28" t="s">
         <v>72</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -5070,16 +6813,19 @@
         <v>0.8</v>
       </c>
       <c r="K29">
+        <v>-999</v>
+      </c>
+      <c r="L29">
         <v>1.7</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>72</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -5111,16 +6857,19 @@
         <v>0.8</v>
       </c>
       <c r="K30">
+        <v>-999</v>
+      </c>
+      <c r="L30">
         <v>2.4</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>72</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -5152,16 +6901,19 @@
         <v>0.8</v>
       </c>
       <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
         <v>72</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -5193,16 +6945,19 @@
         <v>0.8</v>
       </c>
       <c r="K32">
+        <v>-999</v>
+      </c>
+      <c r="L32">
         <v>0.9</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>72</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -5234,16 +6989,19 @@
         <v>0.8</v>
       </c>
       <c r="K33">
+        <v>-999</v>
+      </c>
+      <c r="L33">
         <v>0.9</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>72</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -5275,16 +7033,19 @@
         <v>1.7</v>
       </c>
       <c r="K34">
+        <v>-999</v>
+      </c>
+      <c r="L34">
         <v>1.4</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>72</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -5316,16 +7077,19 @@
         <v>9.4</v>
       </c>
       <c r="K35">
+        <v>-999</v>
+      </c>
+      <c r="L35">
         <v>2.4</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>72</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -5357,16 +7121,19 @@
         <v>9</v>
       </c>
       <c r="K36">
+        <v>-999</v>
+      </c>
+      <c r="L36">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>72</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -5398,16 +7165,19 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K37">
+        <v>-999</v>
+      </c>
+      <c r="L37">
         <v>1.4</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>72</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2019</v>
       </c>
@@ -5439,16 +7209,19 @@
         <v>1.3</v>
       </c>
       <c r="K38">
+        <v>-999</v>
+      </c>
+      <c r="L38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>73</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2019</v>
       </c>
@@ -5480,16 +7253,19 @@
         <v>0.8</v>
       </c>
       <c r="K39">
+        <v>-999</v>
+      </c>
+      <c r="L39">
         <v>1.9</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>73</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2019</v>
       </c>
@@ -5521,16 +7297,19 @@
         <v>2.7</v>
       </c>
       <c r="K40">
+        <v>-999</v>
+      </c>
+      <c r="L40">
         <v>3.4</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>73</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2019</v>
       </c>
@@ -5562,16 +7341,19 @@
         <v>2.4</v>
       </c>
       <c r="K41">
+        <v>-999</v>
+      </c>
+      <c r="L41">
         <v>5.2</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>73</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -5603,16 +7385,19 @@
         <v>6.1</v>
       </c>
       <c r="K42">
+        <v>-999</v>
+      </c>
+      <c r="L42">
         <v>3.5</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>73</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2019</v>
       </c>
@@ -5644,16 +7429,19 @@
         <v>0.8</v>
       </c>
       <c r="K43">
+        <v>-999</v>
+      </c>
+      <c r="L43">
         <v>0.9</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>73</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -5685,16 +7473,19 @@
         <v>1.3</v>
       </c>
       <c r="K44">
+        <v>-999</v>
+      </c>
+      <c r="L44">
         <v>0.9</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>73</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2019</v>
       </c>
@@ -5726,16 +7517,19 @@
         <v>1.9</v>
       </c>
       <c r="K45">
+        <v>-999</v>
+      </c>
+      <c r="L45">
         <v>2</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>73</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2019</v>
       </c>
@@ -5767,16 +7561,19 @@
         <v>0.8</v>
       </c>
       <c r="K46">
-        <v>0.8</v>
-      </c>
-      <c r="L46" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L46">
+        <v>0.8</v>
+      </c>
+      <c r="M46" t="s">
         <v>73</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2019</v>
       </c>
@@ -5808,16 +7605,19 @@
         <v>0.8</v>
       </c>
       <c r="K47">
+        <v>-999</v>
+      </c>
+      <c r="L47">
         <v>0.9</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>73</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2019</v>
       </c>
@@ -5849,16 +7649,19 @@
         <v>0.8</v>
       </c>
       <c r="K48">
+        <v>-999</v>
+      </c>
+      <c r="L48">
         <v>0.9</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>73</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2019</v>
       </c>
@@ -5890,16 +7693,19 @@
         <v>0.8</v>
       </c>
       <c r="K49">
-        <v>0.8</v>
-      </c>
-      <c r="L49" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L49">
+        <v>0.8</v>
+      </c>
+      <c r="M49" t="s">
         <v>73</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2019</v>
       </c>
@@ -5931,16 +7737,19 @@
         <v>5.3</v>
       </c>
       <c r="K50">
+        <v>-999</v>
+      </c>
+      <c r="L50">
         <v>3.3</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>73</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2019</v>
       </c>
@@ -5972,16 +7781,19 @@
         <v>1.9</v>
       </c>
       <c r="K51">
+        <v>-999</v>
+      </c>
+      <c r="L51">
         <v>3</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>73</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -6013,16 +7825,19 @@
         <v>0.8</v>
       </c>
       <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
         <v>73</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2019</v>
       </c>
@@ -6054,16 +7869,19 @@
         <v>0.8</v>
       </c>
       <c r="K53">
+        <v>-999</v>
+      </c>
+      <c r="L53">
         <v>3.3</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>73</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2019</v>
       </c>
@@ -6095,16 +7913,19 @@
         <v>2</v>
       </c>
       <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
         <v>74</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2019</v>
       </c>
@@ -6136,16 +7957,19 @@
         <v>2.9</v>
       </c>
       <c r="K55">
+        <v>-999</v>
+      </c>
+      <c r="L55">
         <v>3.5</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>74</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2019</v>
       </c>
@@ -6177,16 +8001,19 @@
         <v>4.5</v>
       </c>
       <c r="K56">
+        <v>-999</v>
+      </c>
+      <c r="L56">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>74</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2019</v>
       </c>
@@ -6218,16 +8045,19 @@
         <v>5.5</v>
       </c>
       <c r="K57">
+        <v>-999</v>
+      </c>
+      <c r="L57">
         <v>3.4</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>74</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -6259,16 +8089,19 @@
         <v>0.8</v>
       </c>
       <c r="K58">
+        <v>-999</v>
+      </c>
+      <c r="L58">
         <v>1.6</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>74</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2019</v>
       </c>
@@ -6300,16 +8133,19 @@
         <v>0.8</v>
       </c>
       <c r="K59">
+        <v>-999</v>
+      </c>
+      <c r="L59">
         <v>1.4</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>74</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -6341,16 +8177,19 @@
         <v>0.8</v>
       </c>
       <c r="K60">
+        <v>-999</v>
+      </c>
+      <c r="L60">
         <v>1.4</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>74</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -6382,16 +8221,19 @@
         <v>1.6</v>
       </c>
       <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
         <v>74</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2019</v>
       </c>
@@ -6423,16 +8265,19 @@
         <v>2.1</v>
       </c>
       <c r="K62">
-        <v>0.8</v>
-      </c>
-      <c r="L62" t="s">
+        <v>-999</v>
+      </c>
+      <c r="L62">
+        <v>0.8</v>
+      </c>
+      <c r="M62" t="s">
         <v>74</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -6464,16 +8309,19 @@
         <v>0.8</v>
       </c>
       <c r="K63">
+        <v>-999</v>
+      </c>
+      <c r="L63">
         <v>1.4</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>74</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2019</v>
       </c>
@@ -6505,16 +8353,19 @@
         <v>0.8</v>
       </c>
       <c r="K64">
+        <v>-999</v>
+      </c>
+      <c r="L64">
         <v>1.4</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>74</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2019</v>
       </c>
@@ -6546,13 +8397,1468 @@
         <v>5</v>
       </c>
       <c r="K65">
+        <v>-999</v>
+      </c>
+      <c r="L65">
         <v>2.9</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>74</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2020</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66">
+        <v>27</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0.8</v>
+      </c>
+      <c r="I66">
+        <v>-999</v>
+      </c>
+      <c r="J66">
+        <v>1.8</v>
+      </c>
+      <c r="K66">
+        <v>0.8</v>
+      </c>
+      <c r="L66">
+        <v>1.4</v>
+      </c>
+      <c r="M66" t="s">
+        <v>79</v>
+      </c>
+      <c r="N66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2020</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67">
+        <v>27</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>0.8</v>
+      </c>
+      <c r="I67">
+        <v>-999</v>
+      </c>
+      <c r="J67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K67">
+        <v>0.8</v>
+      </c>
+      <c r="L67">
+        <v>2.1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>79</v>
+      </c>
+      <c r="N67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2020</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68">
+        <v>27</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>0.8</v>
+      </c>
+      <c r="I68">
+        <v>-999</v>
+      </c>
+      <c r="J68">
+        <v>0.8</v>
+      </c>
+      <c r="K68">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L68">
+        <v>2.7</v>
+      </c>
+      <c r="M68" t="s">
+        <v>79</v>
+      </c>
+      <c r="N68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2020</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69">
+        <v>22</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>0.8</v>
+      </c>
+      <c r="I69">
+        <v>-999</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>3.3</v>
+      </c>
+      <c r="L69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2020</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70">
+        <v>22</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0.8</v>
+      </c>
+      <c r="I70">
+        <v>-999</v>
+      </c>
+      <c r="J70">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K70">
+        <v>4.8</v>
+      </c>
+      <c r="L70">
+        <v>2.9</v>
+      </c>
+      <c r="M70" t="s">
+        <v>79</v>
+      </c>
+      <c r="N70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2020</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71">
+        <v>22</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>0.8</v>
+      </c>
+      <c r="I71">
+        <v>-999</v>
+      </c>
+      <c r="J71">
+        <v>6.5</v>
+      </c>
+      <c r="K71">
+        <v>4.2</v>
+      </c>
+      <c r="L71">
+        <v>3.4</v>
+      </c>
+      <c r="M71" t="s">
+        <v>79</v>
+      </c>
+      <c r="N71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2020</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0.8</v>
+      </c>
+      <c r="I72">
+        <v>-999</v>
+      </c>
+      <c r="J72">
+        <v>0.8</v>
+      </c>
+      <c r="K72">
+        <v>0.8</v>
+      </c>
+      <c r="L72">
+        <v>1.3</v>
+      </c>
+      <c r="M72" t="s">
+        <v>79</v>
+      </c>
+      <c r="N72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2020</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>0.8</v>
+      </c>
+      <c r="I73">
+        <v>-999</v>
+      </c>
+      <c r="J73">
+        <v>0.8</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>3.8</v>
+      </c>
+      <c r="M73" t="s">
+        <v>79</v>
+      </c>
+      <c r="N73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2020</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>0.8</v>
+      </c>
+      <c r="I74">
+        <v>-999</v>
+      </c>
+      <c r="J74">
+        <v>0.8</v>
+      </c>
+      <c r="K74">
+        <v>1.4</v>
+      </c>
+      <c r="L74">
+        <v>3.1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>79</v>
+      </c>
+      <c r="N74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2020</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>0.8</v>
+      </c>
+      <c r="I75">
+        <v>-999</v>
+      </c>
+      <c r="J75">
+        <v>0.8</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2.5</v>
+      </c>
+      <c r="M75" t="s">
+        <v>79</v>
+      </c>
+      <c r="N75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2020</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>0.8</v>
+      </c>
+      <c r="I76">
+        <v>-999</v>
+      </c>
+      <c r="J76">
+        <v>0.8</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>3.2</v>
+      </c>
+      <c r="M76" t="s">
+        <v>79</v>
+      </c>
+      <c r="N76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2020</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0.8</v>
+      </c>
+      <c r="I77">
+        <v>-999</v>
+      </c>
+      <c r="J77">
+        <v>0.8</v>
+      </c>
+      <c r="K77">
+        <v>0.9</v>
+      </c>
+      <c r="L77">
+        <v>3.6</v>
+      </c>
+      <c r="M77" t="s">
+        <v>79</v>
+      </c>
+      <c r="N77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2020</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78">
+        <v>14</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>0.8</v>
+      </c>
+      <c r="I78">
+        <v>-999</v>
+      </c>
+      <c r="J78">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K78">
+        <v>2.7</v>
+      </c>
+      <c r="L78">
+        <v>2.6</v>
+      </c>
+      <c r="M78" t="s">
+        <v>79</v>
+      </c>
+      <c r="N78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2020</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>0.8</v>
+      </c>
+      <c r="I79">
+        <v>-999</v>
+      </c>
+      <c r="J79">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K79">
+        <v>1.2</v>
+      </c>
+      <c r="L79">
+        <v>1.4</v>
+      </c>
+      <c r="M79" t="s">
+        <v>79</v>
+      </c>
+      <c r="N79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2020</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0.9</v>
+      </c>
+      <c r="I80">
+        <v>-999</v>
+      </c>
+      <c r="J80">
+        <v>2.6</v>
+      </c>
+      <c r="K80">
+        <v>3.5</v>
+      </c>
+      <c r="L80">
+        <v>2.7</v>
+      </c>
+      <c r="M80" t="s">
+        <v>79</v>
+      </c>
+      <c r="N80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2020</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0.9</v>
+      </c>
+      <c r="I81">
+        <v>-999</v>
+      </c>
+      <c r="J81">
+        <v>3.9</v>
+      </c>
+      <c r="K81">
+        <v>3.4</v>
+      </c>
+      <c r="L81">
+        <v>3.4</v>
+      </c>
+      <c r="M81" t="s">
+        <v>79</v>
+      </c>
+      <c r="N81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2020</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82">
+        <v>20</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>0.9</v>
+      </c>
+      <c r="I82">
+        <v>-999</v>
+      </c>
+      <c r="J82">
+        <v>3.1</v>
+      </c>
+      <c r="K82">
+        <v>2.6</v>
+      </c>
+      <c r="L82">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M82" t="s">
+        <v>79</v>
+      </c>
+      <c r="N82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2020</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>0.9</v>
+      </c>
+      <c r="I83">
+        <v>-999</v>
+      </c>
+      <c r="J83">
+        <v>0.9</v>
+      </c>
+      <c r="K83">
+        <v>2.4</v>
+      </c>
+      <c r="L83">
+        <v>1.9</v>
+      </c>
+      <c r="M83" t="s">
+        <v>79</v>
+      </c>
+      <c r="N83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2020</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>0.8</v>
+      </c>
+      <c r="I84">
+        <v>-999</v>
+      </c>
+      <c r="J84">
+        <v>1.4</v>
+      </c>
+      <c r="K84">
+        <v>0.8</v>
+      </c>
+      <c r="L84">
+        <v>0.9</v>
+      </c>
+      <c r="M84" t="s">
+        <v>80</v>
+      </c>
+      <c r="N84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2020</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0.8</v>
+      </c>
+      <c r="I85">
+        <v>-999</v>
+      </c>
+      <c r="J85">
+        <v>0.8</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1.7</v>
+      </c>
+      <c r="M85" t="s">
+        <v>80</v>
+      </c>
+      <c r="N85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2020</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>0.8</v>
+      </c>
+      <c r="I86">
+        <v>-999</v>
+      </c>
+      <c r="J86">
+        <v>0.8</v>
+      </c>
+      <c r="K86">
+        <v>0.8</v>
+      </c>
+      <c r="L86">
+        <v>1.8</v>
+      </c>
+      <c r="M86" t="s">
+        <v>80</v>
+      </c>
+      <c r="N86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2020</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>0.8</v>
+      </c>
+      <c r="I87">
+        <v>-999</v>
+      </c>
+      <c r="J87">
+        <v>2.7</v>
+      </c>
+      <c r="K87">
+        <v>0.9</v>
+      </c>
+      <c r="L87">
+        <v>0.9</v>
+      </c>
+      <c r="M87" t="s">
+        <v>81</v>
+      </c>
+      <c r="N87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2020</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0.8</v>
+      </c>
+      <c r="I88">
+        <v>-999</v>
+      </c>
+      <c r="J88">
+        <v>11.7</v>
+      </c>
+      <c r="K88">
+        <v>0.8</v>
+      </c>
+      <c r="L88">
+        <v>3.1</v>
+      </c>
+      <c r="M88" t="s">
+        <v>81</v>
+      </c>
+      <c r="N88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2020</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>0.8</v>
+      </c>
+      <c r="I89">
+        <v>-999</v>
+      </c>
+      <c r="J89">
+        <v>5.3</v>
+      </c>
+      <c r="K89">
+        <v>1.4</v>
+      </c>
+      <c r="L89">
+        <v>2.6</v>
+      </c>
+      <c r="M89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2020</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90">
+        <v>21</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>0.8</v>
+      </c>
+      <c r="I90">
+        <v>-999</v>
+      </c>
+      <c r="J90">
+        <v>2.8</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0.8</v>
+      </c>
+      <c r="M90" t="s">
+        <v>80</v>
+      </c>
+      <c r="N90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2020</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91">
+        <v>21</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0.8</v>
+      </c>
+      <c r="I91">
+        <v>-999</v>
+      </c>
+      <c r="J91">
+        <v>3.7</v>
+      </c>
+      <c r="K91">
+        <v>0.9</v>
+      </c>
+      <c r="L91">
+        <v>0.9</v>
+      </c>
+      <c r="M91" t="s">
+        <v>80</v>
+      </c>
+      <c r="N91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2020</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92">
+        <v>21</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>0.8</v>
+      </c>
+      <c r="I92">
+        <v>-999</v>
+      </c>
+      <c r="J92">
+        <v>3.6</v>
+      </c>
+      <c r="K92">
+        <v>0.8</v>
+      </c>
+      <c r="L92">
+        <v>1.3</v>
+      </c>
+      <c r="M92" t="s">
+        <v>80</v>
+      </c>
+      <c r="N92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2020</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93">
+        <v>25</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0.8</v>
+      </c>
+      <c r="I93">
+        <v>-999</v>
+      </c>
+      <c r="J93">
+        <v>0.8</v>
+      </c>
+      <c r="K93">
+        <v>0.9</v>
+      </c>
+      <c r="L93">
+        <v>1.2</v>
+      </c>
+      <c r="M93" t="s">
+        <v>80</v>
+      </c>
+      <c r="N93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2020</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94">
+        <v>25</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>0.8</v>
+      </c>
+      <c r="I94">
+        <v>-999</v>
+      </c>
+      <c r="J94">
+        <v>1.4</v>
+      </c>
+      <c r="K94">
+        <v>0.8</v>
+      </c>
+      <c r="L94">
+        <v>1.2</v>
+      </c>
+      <c r="M94" t="s">
+        <v>80</v>
+      </c>
+      <c r="N94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2020</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95">
+        <v>25</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>0.8</v>
+      </c>
+      <c r="I95">
+        <v>-999</v>
+      </c>
+      <c r="J95">
+        <v>1.3</v>
+      </c>
+      <c r="K95">
+        <v>0.8</v>
+      </c>
+      <c r="L95">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M95" t="s">
+        <v>80</v>
+      </c>
+      <c r="N95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2020</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96">
+        <v>26</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>0.8</v>
+      </c>
+      <c r="I96">
+        <v>-999</v>
+      </c>
+      <c r="J96">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K96">
+        <v>1.9</v>
+      </c>
+      <c r="L96">
+        <v>1.9</v>
+      </c>
+      <c r="M96" t="s">
+        <v>80</v>
+      </c>
+      <c r="N96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2020</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97">
+        <v>26</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0.8</v>
+      </c>
+      <c r="I97">
+        <v>-999</v>
+      </c>
+      <c r="J97">
+        <v>8.5</v>
+      </c>
+      <c r="K97">
+        <v>1.2</v>
+      </c>
+      <c r="L97">
+        <v>1.8</v>
+      </c>
+      <c r="M97" t="s">
+        <v>80</v>
+      </c>
+      <c r="N97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2020</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98">
+        <v>26</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>0.8</v>
+      </c>
+      <c r="I98">
+        <v>-999</v>
+      </c>
+      <c r="J98">
+        <v>0.8</v>
+      </c>
+      <c r="K98">
+        <v>0.8</v>
+      </c>
+      <c r="L98">
+        <v>1.8</v>
+      </c>
+      <c r="M98" t="s">
+        <v>80</v>
+      </c>
+      <c r="N98" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6614,13 +9920,13 @@
           <x14:formula1>
             <xm:f>pick!$L$2:$L$16</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L1048576</xm:sqref>
+          <xm:sqref>L66:L1048576 M1:M65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>pick!$M$2:$M$16</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:M1048576</xm:sqref>
+          <xm:sqref>M66:M1048576 N1:N65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6630,10 +9936,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6721,15 +10027,15 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <f>IF(raw_data_1!K2=raw_data_2!K2,"","check")</f>
+        <f>IF(raw_data_1!L2=raw_data_2!L2,"","check")</f>
         <v/>
       </c>
       <c r="L2" t="str">
-        <f>IF(raw_data_1!L2=raw_data_2!L2,"","check")</f>
+        <f>IF(raw_data_1!M2=raw_data_2!M2,"","check")</f>
         <v/>
       </c>
       <c r="M2" t="str">
-        <f>IF(raw_data_1!M2=raw_data_2!M2,"","check")</f>
+        <f>IF(raw_data_1!N2=raw_data_2!N2,"","check")</f>
         <v/>
       </c>
     </row>
@@ -6775,15 +10081,15 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <f>IF(raw_data_1!K3=raw_data_2!K3,"","check")</f>
+        <f>IF(raw_data_1!L3=raw_data_2!L3,"","check")</f>
         <v/>
       </c>
       <c r="L3" t="str">
-        <f>IF(raw_data_1!L3=raw_data_2!L3,"","check")</f>
+        <f>IF(raw_data_1!M3=raw_data_2!M3,"","check")</f>
         <v/>
       </c>
       <c r="M3" t="str">
-        <f>IF(raw_data_1!M3=raw_data_2!M3,"","check")</f>
+        <f>IF(raw_data_1!N3=raw_data_2!N3,"","check")</f>
         <v/>
       </c>
     </row>
@@ -6829,15 +10135,15 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <f>IF(raw_data_1!K4=raw_data_2!K4,"","check")</f>
+        <f>IF(raw_data_1!L4=raw_data_2!L4,"","check")</f>
         <v/>
       </c>
       <c r="L4" t="str">
-        <f>IF(raw_data_1!L4=raw_data_2!L4,"","check")</f>
+        <f>IF(raw_data_1!M4=raw_data_2!M4,"","check")</f>
         <v/>
       </c>
       <c r="M4" t="str">
-        <f>IF(raw_data_1!M4=raw_data_2!M4,"","check")</f>
+        <f>IF(raw_data_1!N4=raw_data_2!N4,"","check")</f>
         <v/>
       </c>
     </row>
@@ -6883,15 +10189,15 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <f>IF(raw_data_1!K5=raw_data_2!K5,"","check")</f>
+        <f>IF(raw_data_1!L5=raw_data_2!L5,"","check")</f>
         <v/>
       </c>
       <c r="L5" t="str">
-        <f>IF(raw_data_1!L5=raw_data_2!L5,"","check")</f>
+        <f>IF(raw_data_1!M5=raw_data_2!M5,"","check")</f>
         <v/>
       </c>
       <c r="M5" t="str">
-        <f>IF(raw_data_1!M5=raw_data_2!M5,"","check")</f>
+        <f>IF(raw_data_1!N5=raw_data_2!N5,"","check")</f>
         <v/>
       </c>
     </row>
@@ -6937,15 +10243,15 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <f>IF(raw_data_1!K6=raw_data_2!K6,"","check")</f>
+        <f>IF(raw_data_1!L6=raw_data_2!L6,"","check")</f>
         <v/>
       </c>
       <c r="L6" t="str">
-        <f>IF(raw_data_1!L6=raw_data_2!L6,"","check")</f>
+        <f>IF(raw_data_1!M6=raw_data_2!M6,"","check")</f>
         <v/>
       </c>
       <c r="M6" t="str">
-        <f>IF(raw_data_1!M6=raw_data_2!M6,"","check")</f>
+        <f>IF(raw_data_1!N6=raw_data_2!N6,"","check")</f>
         <v/>
       </c>
     </row>
@@ -6991,15 +10297,15 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <f>IF(raw_data_1!K7=raw_data_2!K7,"","check")</f>
+        <f>IF(raw_data_1!L7=raw_data_2!L7,"","check")</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f>IF(raw_data_1!L7=raw_data_2!L7,"","check")</f>
+        <f>IF(raw_data_1!M7=raw_data_2!M7,"","check")</f>
         <v/>
       </c>
       <c r="M7" t="str">
-        <f>IF(raw_data_1!M7=raw_data_2!M7,"","check")</f>
+        <f>IF(raw_data_1!N7=raw_data_2!N7,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7045,15 +10351,15 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <f>IF(raw_data_1!K8=raw_data_2!K8,"","check")</f>
+        <f>IF(raw_data_1!L8=raw_data_2!L8,"","check")</f>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f>IF(raw_data_1!L8=raw_data_2!L8,"","check")</f>
+        <f>IF(raw_data_1!M8=raw_data_2!M8,"","check")</f>
         <v/>
       </c>
       <c r="M8" t="str">
-        <f>IF(raw_data_1!M8=raw_data_2!M8,"","check")</f>
+        <f>IF(raw_data_1!N8=raw_data_2!N8,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7099,15 +10405,15 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <f>IF(raw_data_1!K9=raw_data_2!K9,"","check")</f>
+        <f>IF(raw_data_1!L9=raw_data_2!L9,"","check")</f>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f>IF(raw_data_1!L9=raw_data_2!L9,"","check")</f>
+        <f>IF(raw_data_1!M9=raw_data_2!M9,"","check")</f>
         <v/>
       </c>
       <c r="M9" t="str">
-        <f>IF(raw_data_1!M9=raw_data_2!M9,"","check")</f>
+        <f>IF(raw_data_1!N9=raw_data_2!N9,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7153,15 +10459,15 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <f>IF(raw_data_1!K10=raw_data_2!K10,"","check")</f>
+        <f>IF(raw_data_1!L10=raw_data_2!L10,"","check")</f>
         <v/>
       </c>
       <c r="L10" t="str">
-        <f>IF(raw_data_1!L10=raw_data_2!L10,"","check")</f>
+        <f>IF(raw_data_1!M10=raw_data_2!M10,"","check")</f>
         <v/>
       </c>
       <c r="M10" t="str">
-        <f>IF(raw_data_1!M10=raw_data_2!M10,"","check")</f>
+        <f>IF(raw_data_1!N10=raw_data_2!N10,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7207,15 +10513,15 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <f>IF(raw_data_1!K11=raw_data_2!K11,"","check")</f>
+        <f>IF(raw_data_1!L11=raw_data_2!L11,"","check")</f>
         <v/>
       </c>
       <c r="L11" t="str">
-        <f>IF(raw_data_1!L11=raw_data_2!L11,"","check")</f>
+        <f>IF(raw_data_1!M11=raw_data_2!M11,"","check")</f>
         <v/>
       </c>
       <c r="M11" t="str">
-        <f>IF(raw_data_1!M11=raw_data_2!M11,"","check")</f>
+        <f>IF(raw_data_1!N11=raw_data_2!N11,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7261,15 +10567,15 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <f>IF(raw_data_1!K12=raw_data_2!K12,"","check")</f>
+        <f>IF(raw_data_1!L12=raw_data_2!L12,"","check")</f>
         <v/>
       </c>
       <c r="L12" t="str">
-        <f>IF(raw_data_1!L12=raw_data_2!L12,"","check")</f>
+        <f>IF(raw_data_1!M12=raw_data_2!M12,"","check")</f>
         <v/>
       </c>
       <c r="M12" t="str">
-        <f>IF(raw_data_1!M12=raw_data_2!M12,"","check")</f>
+        <f>IF(raw_data_1!N12=raw_data_2!N12,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7315,15 +10621,15 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <f>IF(raw_data_1!K13=raw_data_2!K13,"","check")</f>
+        <f>IF(raw_data_1!L13=raw_data_2!L13,"","check")</f>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f>IF(raw_data_1!L13=raw_data_2!L13,"","check")</f>
+        <f>IF(raw_data_1!M13=raw_data_2!M13,"","check")</f>
         <v/>
       </c>
       <c r="M13" t="str">
-        <f>IF(raw_data_1!M13=raw_data_2!M13,"","check")</f>
+        <f>IF(raw_data_1!N13=raw_data_2!N13,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7369,15 +10675,15 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <f>IF(raw_data_1!K14=raw_data_2!K14,"","check")</f>
+        <f>IF(raw_data_1!L14=raw_data_2!L14,"","check")</f>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f>IF(raw_data_1!L14=raw_data_2!L14,"","check")</f>
+        <f>IF(raw_data_1!M14=raw_data_2!M14,"","check")</f>
         <v/>
       </c>
       <c r="M14" t="str">
-        <f>IF(raw_data_1!M14=raw_data_2!M14,"","check")</f>
+        <f>IF(raw_data_1!N14=raw_data_2!N14,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7423,15 +10729,15 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <f>IF(raw_data_1!K15=raw_data_2!K15,"","check")</f>
+        <f>IF(raw_data_1!L15=raw_data_2!L15,"","check")</f>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f>IF(raw_data_1!L15=raw_data_2!L15,"","check")</f>
+        <f>IF(raw_data_1!M15=raw_data_2!M15,"","check")</f>
         <v/>
       </c>
       <c r="M15" t="str">
-        <f>IF(raw_data_1!M15=raw_data_2!M15,"","check")</f>
+        <f>IF(raw_data_1!N15=raw_data_2!N15,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7477,15 +10783,15 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <f>IF(raw_data_1!K16=raw_data_2!K16,"","check")</f>
+        <f>IF(raw_data_1!L16=raw_data_2!L16,"","check")</f>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f>IF(raw_data_1!L16=raw_data_2!L16,"","check")</f>
+        <f>IF(raw_data_1!M16=raw_data_2!M16,"","check")</f>
         <v/>
       </c>
       <c r="M16" t="str">
-        <f>IF(raw_data_1!M16=raw_data_2!M16,"","check")</f>
+        <f>IF(raw_data_1!N16=raw_data_2!N16,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7531,15 +10837,15 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <f>IF(raw_data_1!K17=raw_data_2!K17,"","check")</f>
+        <f>IF(raw_data_1!L17=raw_data_2!L17,"","check")</f>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f>IF(raw_data_1!L17=raw_data_2!L17,"","check")</f>
+        <f>IF(raw_data_1!M17=raw_data_2!M17,"","check")</f>
         <v/>
       </c>
       <c r="M17" t="str">
-        <f>IF(raw_data_1!M17=raw_data_2!M17,"","check")</f>
+        <f>IF(raw_data_1!N17=raw_data_2!N17,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7585,15 +10891,15 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <f>IF(raw_data_1!K18=raw_data_2!K18,"","check")</f>
+        <f>IF(raw_data_1!L18=raw_data_2!L18,"","check")</f>
         <v/>
       </c>
       <c r="L18" t="str">
-        <f>IF(raw_data_1!L18=raw_data_2!L18,"","check")</f>
+        <f>IF(raw_data_1!M18=raw_data_2!M18,"","check")</f>
         <v/>
       </c>
       <c r="M18" t="str">
-        <f>IF(raw_data_1!M18=raw_data_2!M18,"","check")</f>
+        <f>IF(raw_data_1!N18=raw_data_2!N18,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7639,15 +10945,15 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <f>IF(raw_data_1!K19=raw_data_2!K19,"","check")</f>
+        <f>IF(raw_data_1!L19=raw_data_2!L19,"","check")</f>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f>IF(raw_data_1!L19=raw_data_2!L19,"","check")</f>
+        <f>IF(raw_data_1!M19=raw_data_2!M19,"","check")</f>
         <v/>
       </c>
       <c r="M19" t="str">
-        <f>IF(raw_data_1!M19=raw_data_2!M19,"","check")</f>
+        <f>IF(raw_data_1!N19=raw_data_2!N19,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7693,15 +10999,15 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <f>IF(raw_data_1!K20=raw_data_2!K20,"","check")</f>
+        <f>IF(raw_data_1!L20=raw_data_2!L20,"","check")</f>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f>IF(raw_data_1!L20=raw_data_2!L20,"","check")</f>
+        <f>IF(raw_data_1!M20=raw_data_2!M20,"","check")</f>
         <v/>
       </c>
       <c r="M20" t="str">
-        <f>IF(raw_data_1!M20=raw_data_2!M20,"","check")</f>
+        <f>IF(raw_data_1!N20=raw_data_2!N20,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7747,15 +11053,15 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <f>IF(raw_data_1!K21=raw_data_2!K21,"","check")</f>
+        <f>IF(raw_data_1!L21=raw_data_2!L21,"","check")</f>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f>IF(raw_data_1!L21=raw_data_2!L21,"","check")</f>
+        <f>IF(raw_data_1!M21=raw_data_2!M21,"","check")</f>
         <v/>
       </c>
       <c r="M21" t="str">
-        <f>IF(raw_data_1!M21=raw_data_2!M21,"","check")</f>
+        <f>IF(raw_data_1!N21=raw_data_2!N21,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7801,15 +11107,15 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <f>IF(raw_data_1!K22=raw_data_2!K22,"","check")</f>
+        <f>IF(raw_data_1!L22=raw_data_2!L22,"","check")</f>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f>IF(raw_data_1!L22=raw_data_2!L22,"","check")</f>
+        <f>IF(raw_data_1!M22=raw_data_2!M22,"","check")</f>
         <v/>
       </c>
       <c r="M22" t="str">
-        <f>IF(raw_data_1!M22=raw_data_2!M22,"","check")</f>
+        <f>IF(raw_data_1!N22=raw_data_2!N22,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7855,15 +11161,15 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <f>IF(raw_data_1!K23=raw_data_2!K23,"","check")</f>
+        <f>IF(raw_data_1!L23=raw_data_2!L23,"","check")</f>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f>IF(raw_data_1!L23=raw_data_2!L23,"","check")</f>
+        <f>IF(raw_data_1!M23=raw_data_2!M23,"","check")</f>
         <v/>
       </c>
       <c r="M23" t="str">
-        <f>IF(raw_data_1!M23=raw_data_2!M23,"","check")</f>
+        <f>IF(raw_data_1!N23=raw_data_2!N23,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7909,15 +11215,15 @@
         <v/>
       </c>
       <c r="K24" t="str">
-        <f>IF(raw_data_1!K24=raw_data_2!K24,"","check")</f>
+        <f>IF(raw_data_1!L24=raw_data_2!L24,"","check")</f>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f>IF(raw_data_1!L24=raw_data_2!L24,"","check")</f>
+        <f>IF(raw_data_1!M24=raw_data_2!M24,"","check")</f>
         <v/>
       </c>
       <c r="M24" t="str">
-        <f>IF(raw_data_1!M24=raw_data_2!M24,"","check")</f>
+        <f>IF(raw_data_1!N24=raw_data_2!N24,"","check")</f>
         <v/>
       </c>
     </row>
@@ -7963,15 +11269,15 @@
         <v/>
       </c>
       <c r="K25" t="str">
-        <f>IF(raw_data_1!K25=raw_data_2!K25,"","check")</f>
+        <f>IF(raw_data_1!L25=raw_data_2!L25,"","check")</f>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f>IF(raw_data_1!L25=raw_data_2!L25,"","check")</f>
+        <f>IF(raw_data_1!M25=raw_data_2!M25,"","check")</f>
         <v/>
       </c>
       <c r="M25" t="str">
-        <f>IF(raw_data_1!M25=raw_data_2!M25,"","check")</f>
+        <f>IF(raw_data_1!N25=raw_data_2!N25,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8017,15 +11323,15 @@
         <v/>
       </c>
       <c r="K26" t="str">
-        <f>IF(raw_data_1!K26=raw_data_2!K26,"","check")</f>
+        <f>IF(raw_data_1!L26=raw_data_2!L26,"","check")</f>
         <v/>
       </c>
       <c r="L26" t="str">
-        <f>IF(raw_data_1!L26=raw_data_2!L26,"","check")</f>
+        <f>IF(raw_data_1!M26=raw_data_2!M26,"","check")</f>
         <v/>
       </c>
       <c r="M26" t="str">
-        <f>IF(raw_data_1!M26=raw_data_2!M26,"","check")</f>
+        <f>IF(raw_data_1!N26=raw_data_2!N26,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8071,15 +11377,15 @@
         <v/>
       </c>
       <c r="K27" t="str">
-        <f>IF(raw_data_1!K27=raw_data_2!K27,"","check")</f>
+        <f>IF(raw_data_1!L27=raw_data_2!L27,"","check")</f>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f>IF(raw_data_1!L27=raw_data_2!L27,"","check")</f>
+        <f>IF(raw_data_1!M27=raw_data_2!M27,"","check")</f>
         <v/>
       </c>
       <c r="M27" t="str">
-        <f>IF(raw_data_1!M27=raw_data_2!M27,"","check")</f>
+        <f>IF(raw_data_1!N27=raw_data_2!N27,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8125,15 +11431,15 @@
         <v/>
       </c>
       <c r="K28" t="str">
-        <f>IF(raw_data_1!K28=raw_data_2!K28,"","check")</f>
+        <f>IF(raw_data_1!L28=raw_data_2!L28,"","check")</f>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f>IF(raw_data_1!L28=raw_data_2!L28,"","check")</f>
+        <f>IF(raw_data_1!M28=raw_data_2!M28,"","check")</f>
         <v/>
       </c>
       <c r="M28" t="str">
-        <f>IF(raw_data_1!M28=raw_data_2!M28,"","check")</f>
+        <f>IF(raw_data_1!N28=raw_data_2!N28,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8179,15 +11485,15 @@
         <v/>
       </c>
       <c r="K29" t="str">
-        <f>IF(raw_data_1!K29=raw_data_2!K29,"","check")</f>
+        <f>IF(raw_data_1!L29=raw_data_2!L29,"","check")</f>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f>IF(raw_data_1!L29=raw_data_2!L29,"","check")</f>
+        <f>IF(raw_data_1!M29=raw_data_2!M29,"","check")</f>
         <v/>
       </c>
       <c r="M29" t="str">
-        <f>IF(raw_data_1!M29=raw_data_2!M29,"","check")</f>
+        <f>IF(raw_data_1!N29=raw_data_2!N29,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8233,15 +11539,15 @@
         <v/>
       </c>
       <c r="K30" t="str">
-        <f>IF(raw_data_1!K30=raw_data_2!K30,"","check")</f>
+        <f>IF(raw_data_1!L30=raw_data_2!L30,"","check")</f>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f>IF(raw_data_1!L30=raw_data_2!L30,"","check")</f>
+        <f>IF(raw_data_1!M30=raw_data_2!M30,"","check")</f>
         <v/>
       </c>
       <c r="M30" t="str">
-        <f>IF(raw_data_1!M30=raw_data_2!M30,"","check")</f>
+        <f>IF(raw_data_1!N30=raw_data_2!N30,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8287,15 +11593,15 @@
         <v/>
       </c>
       <c r="K31" t="str">
-        <f>IF(raw_data_1!K31=raw_data_2!K31,"","check")</f>
+        <f>IF(raw_data_1!L31=raw_data_2!L31,"","check")</f>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f>IF(raw_data_1!L31=raw_data_2!L31,"","check")</f>
+        <f>IF(raw_data_1!M31=raw_data_2!M31,"","check")</f>
         <v/>
       </c>
       <c r="M31" t="str">
-        <f>IF(raw_data_1!M31=raw_data_2!M31,"","check")</f>
+        <f>IF(raw_data_1!N31=raw_data_2!N31,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8341,15 +11647,15 @@
         <v/>
       </c>
       <c r="K32" t="str">
-        <f>IF(raw_data_1!K32=raw_data_2!K32,"","check")</f>
+        <f>IF(raw_data_1!L32=raw_data_2!L32,"","check")</f>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f>IF(raw_data_1!L32=raw_data_2!L32,"","check")</f>
+        <f>IF(raw_data_1!M32=raw_data_2!M32,"","check")</f>
         <v/>
       </c>
       <c r="M32" t="str">
-        <f>IF(raw_data_1!M32=raw_data_2!M32,"","check")</f>
+        <f>IF(raw_data_1!N32=raw_data_2!N32,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8395,15 +11701,15 @@
         <v/>
       </c>
       <c r="K33" t="str">
-        <f>IF(raw_data_1!K33=raw_data_2!K33,"","check")</f>
+        <f>IF(raw_data_1!L33=raw_data_2!L33,"","check")</f>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f>IF(raw_data_1!L33=raw_data_2!L33,"","check")</f>
+        <f>IF(raw_data_1!M33=raw_data_2!M33,"","check")</f>
         <v/>
       </c>
       <c r="M33" t="str">
-        <f>IF(raw_data_1!M33=raw_data_2!M33,"","check")</f>
+        <f>IF(raw_data_1!N33=raw_data_2!N33,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8449,15 +11755,15 @@
         <v/>
       </c>
       <c r="K34" t="str">
-        <f>IF(raw_data_1!K34=raw_data_2!K34,"","check")</f>
+        <f>IF(raw_data_1!L34=raw_data_2!L34,"","check")</f>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f>IF(raw_data_1!L34=raw_data_2!L34,"","check")</f>
+        <f>IF(raw_data_1!M34=raw_data_2!M34,"","check")</f>
         <v/>
       </c>
       <c r="M34" t="str">
-        <f>IF(raw_data_1!M34=raw_data_2!M34,"","check")</f>
+        <f>IF(raw_data_1!N34=raw_data_2!N34,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8503,15 +11809,15 @@
         <v/>
       </c>
       <c r="K35" t="str">
-        <f>IF(raw_data_1!K35=raw_data_2!K35,"","check")</f>
+        <f>IF(raw_data_1!L35=raw_data_2!L35,"","check")</f>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f>IF(raw_data_1!L35=raw_data_2!L35,"","check")</f>
+        <f>IF(raw_data_1!M35=raw_data_2!M35,"","check")</f>
         <v/>
       </c>
       <c r="M35" t="str">
-        <f>IF(raw_data_1!M35=raw_data_2!M35,"","check")</f>
+        <f>IF(raw_data_1!N35=raw_data_2!N35,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8557,15 +11863,15 @@
         <v/>
       </c>
       <c r="K36" t="str">
-        <f>IF(raw_data_1!K36=raw_data_2!K36,"","check")</f>
+        <f>IF(raw_data_1!L36=raw_data_2!L36,"","check")</f>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f>IF(raw_data_1!L36=raw_data_2!L36,"","check")</f>
+        <f>IF(raw_data_1!M36=raw_data_2!M36,"","check")</f>
         <v/>
       </c>
       <c r="M36" t="str">
-        <f>IF(raw_data_1!M36=raw_data_2!M36,"","check")</f>
+        <f>IF(raw_data_1!N36=raw_data_2!N36,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8611,15 +11917,15 @@
         <v/>
       </c>
       <c r="K37" t="str">
-        <f>IF(raw_data_1!K37=raw_data_2!K37,"","check")</f>
+        <f>IF(raw_data_1!L37=raw_data_2!L37,"","check")</f>
         <v/>
       </c>
       <c r="L37" t="str">
-        <f>IF(raw_data_1!L37=raw_data_2!L37,"","check")</f>
+        <f>IF(raw_data_1!M37=raw_data_2!M37,"","check")</f>
         <v/>
       </c>
       <c r="M37" t="str">
-        <f>IF(raw_data_1!M37=raw_data_2!M37,"","check")</f>
+        <f>IF(raw_data_1!N37=raw_data_2!N37,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8665,15 +11971,15 @@
         <v/>
       </c>
       <c r="K38" t="str">
-        <f>IF(raw_data_1!K38=raw_data_2!K38,"","check")</f>
+        <f>IF(raw_data_1!L38=raw_data_2!L38,"","check")</f>
         <v/>
       </c>
       <c r="L38" t="str">
-        <f>IF(raw_data_1!L38=raw_data_2!L38,"","check")</f>
+        <f>IF(raw_data_1!M38=raw_data_2!M38,"","check")</f>
         <v/>
       </c>
       <c r="M38" t="str">
-        <f>IF(raw_data_1!M38=raw_data_2!M38,"","check")</f>
+        <f>IF(raw_data_1!N38=raw_data_2!N38,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8719,15 +12025,15 @@
         <v/>
       </c>
       <c r="K39" t="str">
-        <f>IF(raw_data_1!K39=raw_data_2!K39,"","check")</f>
+        <f>IF(raw_data_1!L39=raw_data_2!L39,"","check")</f>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f>IF(raw_data_1!L39=raw_data_2!L39,"","check")</f>
+        <f>IF(raw_data_1!M39=raw_data_2!M39,"","check")</f>
         <v/>
       </c>
       <c r="M39" t="str">
-        <f>IF(raw_data_1!M39=raw_data_2!M39,"","check")</f>
+        <f>IF(raw_data_1!N39=raw_data_2!N39,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8773,15 +12079,15 @@
         <v/>
       </c>
       <c r="K40" t="str">
-        <f>IF(raw_data_1!K40=raw_data_2!K40,"","check")</f>
+        <f>IF(raw_data_1!L40=raw_data_2!L40,"","check")</f>
         <v/>
       </c>
       <c r="L40" t="str">
-        <f>IF(raw_data_1!L40=raw_data_2!L40,"","check")</f>
+        <f>IF(raw_data_1!M40=raw_data_2!M40,"","check")</f>
         <v/>
       </c>
       <c r="M40" t="str">
-        <f>IF(raw_data_1!M40=raw_data_2!M40,"","check")</f>
+        <f>IF(raw_data_1!N40=raw_data_2!N40,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8827,15 +12133,15 @@
         <v/>
       </c>
       <c r="K41" t="str">
-        <f>IF(raw_data_1!K41=raw_data_2!K41,"","check")</f>
+        <f>IF(raw_data_1!L41=raw_data_2!L41,"","check")</f>
         <v/>
       </c>
       <c r="L41" t="str">
-        <f>IF(raw_data_1!L41=raw_data_2!L41,"","check")</f>
+        <f>IF(raw_data_1!M41=raw_data_2!M41,"","check")</f>
         <v/>
       </c>
       <c r="M41" t="str">
-        <f>IF(raw_data_1!M41=raw_data_2!M41,"","check")</f>
+        <f>IF(raw_data_1!N41=raw_data_2!N41,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8881,15 +12187,15 @@
         <v/>
       </c>
       <c r="K42" t="str">
-        <f>IF(raw_data_1!K42=raw_data_2!K42,"","check")</f>
+        <f>IF(raw_data_1!L42=raw_data_2!L42,"","check")</f>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f>IF(raw_data_1!L42=raw_data_2!L42,"","check")</f>
+        <f>IF(raw_data_1!M42=raw_data_2!M42,"","check")</f>
         <v/>
       </c>
       <c r="M42" t="str">
-        <f>IF(raw_data_1!M42=raw_data_2!M42,"","check")</f>
+        <f>IF(raw_data_1!N42=raw_data_2!N42,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8935,15 +12241,15 @@
         <v/>
       </c>
       <c r="K43" t="str">
-        <f>IF(raw_data_1!K43=raw_data_2!K43,"","check")</f>
+        <f>IF(raw_data_1!L43=raw_data_2!L43,"","check")</f>
         <v/>
       </c>
       <c r="L43" t="str">
-        <f>IF(raw_data_1!L43=raw_data_2!L43,"","check")</f>
+        <f>IF(raw_data_1!M43=raw_data_2!M43,"","check")</f>
         <v/>
       </c>
       <c r="M43" t="str">
-        <f>IF(raw_data_1!M43=raw_data_2!M43,"","check")</f>
+        <f>IF(raw_data_1!N43=raw_data_2!N43,"","check")</f>
         <v/>
       </c>
     </row>
@@ -8989,15 +12295,15 @@
         <v/>
       </c>
       <c r="K44" t="str">
-        <f>IF(raw_data_1!K44=raw_data_2!K44,"","check")</f>
+        <f>IF(raw_data_1!L44=raw_data_2!L44,"","check")</f>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f>IF(raw_data_1!L44=raw_data_2!L44,"","check")</f>
+        <f>IF(raw_data_1!M44=raw_data_2!M44,"","check")</f>
         <v/>
       </c>
       <c r="M44" t="str">
-        <f>IF(raw_data_1!M44=raw_data_2!M44,"","check")</f>
+        <f>IF(raw_data_1!N44=raw_data_2!N44,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9043,15 +12349,15 @@
         <v/>
       </c>
       <c r="K45" t="str">
-        <f>IF(raw_data_1!K45=raw_data_2!K45,"","check")</f>
+        <f>IF(raw_data_1!L45=raw_data_2!L45,"","check")</f>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f>IF(raw_data_1!L45=raw_data_2!L45,"","check")</f>
+        <f>IF(raw_data_1!M45=raw_data_2!M45,"","check")</f>
         <v/>
       </c>
       <c r="M45" t="str">
-        <f>IF(raw_data_1!M45=raw_data_2!M45,"","check")</f>
+        <f>IF(raw_data_1!N45=raw_data_2!N45,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9097,15 +12403,15 @@
         <v/>
       </c>
       <c r="K46" t="str">
-        <f>IF(raw_data_1!K46=raw_data_2!K46,"","check")</f>
+        <f>IF(raw_data_1!L46=raw_data_2!L46,"","check")</f>
         <v/>
       </c>
       <c r="L46" t="str">
-        <f>IF(raw_data_1!L46=raw_data_2!L46,"","check")</f>
+        <f>IF(raw_data_1!M46=raw_data_2!M46,"","check")</f>
         <v/>
       </c>
       <c r="M46" t="str">
-        <f>IF(raw_data_1!M46=raw_data_2!M46,"","check")</f>
+        <f>IF(raw_data_1!N46=raw_data_2!N46,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9151,15 +12457,15 @@
         <v/>
       </c>
       <c r="K47" t="str">
-        <f>IF(raw_data_1!K47=raw_data_2!K47,"","check")</f>
+        <f>IF(raw_data_1!L47=raw_data_2!L47,"","check")</f>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f>IF(raw_data_1!L47=raw_data_2!L47,"","check")</f>
+        <f>IF(raw_data_1!M47=raw_data_2!M47,"","check")</f>
         <v/>
       </c>
       <c r="M47" t="str">
-        <f>IF(raw_data_1!M47=raw_data_2!M47,"","check")</f>
+        <f>IF(raw_data_1!N47=raw_data_2!N47,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9205,15 +12511,15 @@
         <v/>
       </c>
       <c r="K48" t="str">
-        <f>IF(raw_data_1!K48=raw_data_2!K48,"","check")</f>
+        <f>IF(raw_data_1!L48=raw_data_2!L48,"","check")</f>
         <v/>
       </c>
       <c r="L48" t="str">
-        <f>IF(raw_data_1!L48=raw_data_2!L48,"","check")</f>
+        <f>IF(raw_data_1!M48=raw_data_2!M48,"","check")</f>
         <v/>
       </c>
       <c r="M48" t="str">
-        <f>IF(raw_data_1!M48=raw_data_2!M48,"","check")</f>
+        <f>IF(raw_data_1!N48=raw_data_2!N48,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9259,15 +12565,15 @@
         <v/>
       </c>
       <c r="K49" t="str">
-        <f>IF(raw_data_1!K49=raw_data_2!K49,"","check")</f>
+        <f>IF(raw_data_1!L49=raw_data_2!L49,"","check")</f>
         <v/>
       </c>
       <c r="L49" t="str">
-        <f>IF(raw_data_1!L49=raw_data_2!L49,"","check")</f>
+        <f>IF(raw_data_1!M49=raw_data_2!M49,"","check")</f>
         <v/>
       </c>
       <c r="M49" t="str">
-        <f>IF(raw_data_1!M49=raw_data_2!M49,"","check")</f>
+        <f>IF(raw_data_1!N49=raw_data_2!N49,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9313,15 +12619,15 @@
         <v/>
       </c>
       <c r="K50" t="str">
-        <f>IF(raw_data_1!K50=raw_data_2!K50,"","check")</f>
+        <f>IF(raw_data_1!L50=raw_data_2!L50,"","check")</f>
         <v/>
       </c>
       <c r="L50" t="str">
-        <f>IF(raw_data_1!L50=raw_data_2!L50,"","check")</f>
+        <f>IF(raw_data_1!M50=raw_data_2!M50,"","check")</f>
         <v/>
       </c>
       <c r="M50" t="str">
-        <f>IF(raw_data_1!M50=raw_data_2!M50,"","check")</f>
+        <f>IF(raw_data_1!N50=raw_data_2!N50,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9367,15 +12673,15 @@
         <v/>
       </c>
       <c r="K51" t="str">
-        <f>IF(raw_data_1!K51=raw_data_2!K51,"","check")</f>
+        <f>IF(raw_data_1!L51=raw_data_2!L51,"","check")</f>
         <v/>
       </c>
       <c r="L51" t="str">
-        <f>IF(raw_data_1!L51=raw_data_2!L51,"","check")</f>
+        <f>IF(raw_data_1!M51=raw_data_2!M51,"","check")</f>
         <v/>
       </c>
       <c r="M51" t="str">
-        <f>IF(raw_data_1!M51=raw_data_2!M51,"","check")</f>
+        <f>IF(raw_data_1!N51=raw_data_2!N51,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9421,15 +12727,15 @@
         <v/>
       </c>
       <c r="K52" t="str">
-        <f>IF(raw_data_1!K52=raw_data_2!K52,"","check")</f>
+        <f>IF(raw_data_1!L52=raw_data_2!L52,"","check")</f>
         <v/>
       </c>
       <c r="L52" t="str">
-        <f>IF(raw_data_1!L52=raw_data_2!L52,"","check")</f>
+        <f>IF(raw_data_1!M52=raw_data_2!M52,"","check")</f>
         <v/>
       </c>
       <c r="M52" t="str">
-        <f>IF(raw_data_1!M52=raw_data_2!M52,"","check")</f>
+        <f>IF(raw_data_1!N52=raw_data_2!N52,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9475,15 +12781,15 @@
         <v/>
       </c>
       <c r="K53" t="str">
-        <f>IF(raw_data_1!K53=raw_data_2!K53,"","check")</f>
+        <f>IF(raw_data_1!L53=raw_data_2!L53,"","check")</f>
         <v/>
       </c>
       <c r="L53" t="str">
-        <f>IF(raw_data_1!L53=raw_data_2!L53,"","check")</f>
+        <f>IF(raw_data_1!M53=raw_data_2!M53,"","check")</f>
         <v/>
       </c>
       <c r="M53" t="str">
-        <f>IF(raw_data_1!M53=raw_data_2!M53,"","check")</f>
+        <f>IF(raw_data_1!N53=raw_data_2!N53,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9529,15 +12835,15 @@
         <v/>
       </c>
       <c r="K54" t="str">
-        <f>IF(raw_data_1!K54=raw_data_2!K54,"","check")</f>
+        <f>IF(raw_data_1!L54=raw_data_2!L54,"","check")</f>
         <v/>
       </c>
       <c r="L54" t="str">
-        <f>IF(raw_data_1!L54=raw_data_2!L54,"","check")</f>
+        <f>IF(raw_data_1!M54=raw_data_2!M54,"","check")</f>
         <v/>
       </c>
       <c r="M54" t="str">
-        <f>IF(raw_data_1!M54=raw_data_2!M54,"","check")</f>
+        <f>IF(raw_data_1!N54=raw_data_2!N54,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9583,15 +12889,15 @@
         <v/>
       </c>
       <c r="K55" t="str">
-        <f>IF(raw_data_1!K55=raw_data_2!K55,"","check")</f>
+        <f>IF(raw_data_1!L55=raw_data_2!L55,"","check")</f>
         <v/>
       </c>
       <c r="L55" t="str">
-        <f>IF(raw_data_1!L55=raw_data_2!L55,"","check")</f>
+        <f>IF(raw_data_1!M55=raw_data_2!M55,"","check")</f>
         <v/>
       </c>
       <c r="M55" t="str">
-        <f>IF(raw_data_1!M55=raw_data_2!M55,"","check")</f>
+        <f>IF(raw_data_1!N55=raw_data_2!N55,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9637,15 +12943,15 @@
         <v/>
       </c>
       <c r="K56" t="str">
-        <f>IF(raw_data_1!K56=raw_data_2!K56,"","check")</f>
+        <f>IF(raw_data_1!L56=raw_data_2!L56,"","check")</f>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f>IF(raw_data_1!L56=raw_data_2!L56,"","check")</f>
+        <f>IF(raw_data_1!M56=raw_data_2!M56,"","check")</f>
         <v/>
       </c>
       <c r="M56" t="str">
-        <f>IF(raw_data_1!M56=raw_data_2!M56,"","check")</f>
+        <f>IF(raw_data_1!N56=raw_data_2!N56,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9691,15 +12997,15 @@
         <v/>
       </c>
       <c r="K57" t="str">
-        <f>IF(raw_data_1!K57=raw_data_2!K57,"","check")</f>
+        <f>IF(raw_data_1!L57=raw_data_2!L57,"","check")</f>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f>IF(raw_data_1!L57=raw_data_2!L57,"","check")</f>
+        <f>IF(raw_data_1!M57=raw_data_2!M57,"","check")</f>
         <v/>
       </c>
       <c r="M57" t="str">
-        <f>IF(raw_data_1!M57=raw_data_2!M57,"","check")</f>
+        <f>IF(raw_data_1!N57=raw_data_2!N57,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9745,15 +13051,15 @@
         <v/>
       </c>
       <c r="K58" t="str">
-        <f>IF(raw_data_1!K58=raw_data_2!K58,"","check")</f>
+        <f>IF(raw_data_1!L58=raw_data_2!L58,"","check")</f>
         <v/>
       </c>
       <c r="L58" t="str">
-        <f>IF(raw_data_1!L58=raw_data_2!L58,"","check")</f>
+        <f>IF(raw_data_1!M58=raw_data_2!M58,"","check")</f>
         <v/>
       </c>
       <c r="M58" t="str">
-        <f>IF(raw_data_1!M58=raw_data_2!M58,"","check")</f>
+        <f>IF(raw_data_1!N58=raw_data_2!N58,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9799,15 +13105,15 @@
         <v/>
       </c>
       <c r="K59" t="str">
-        <f>IF(raw_data_1!K59=raw_data_2!K59,"","check")</f>
+        <f>IF(raw_data_1!L59=raw_data_2!L59,"","check")</f>
         <v/>
       </c>
       <c r="L59" t="str">
-        <f>IF(raw_data_1!L59=raw_data_2!L59,"","check")</f>
+        <f>IF(raw_data_1!M59=raw_data_2!M59,"","check")</f>
         <v/>
       </c>
       <c r="M59" t="str">
-        <f>IF(raw_data_1!M59=raw_data_2!M59,"","check")</f>
+        <f>IF(raw_data_1!N59=raw_data_2!N59,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9853,15 +13159,15 @@
         <v/>
       </c>
       <c r="K60" t="str">
-        <f>IF(raw_data_1!K60=raw_data_2!K60,"","check")</f>
+        <f>IF(raw_data_1!L60=raw_data_2!L60,"","check")</f>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f>IF(raw_data_1!L60=raw_data_2!L60,"","check")</f>
+        <f>IF(raw_data_1!M60=raw_data_2!M60,"","check")</f>
         <v/>
       </c>
       <c r="M60" t="str">
-        <f>IF(raw_data_1!M60=raw_data_2!M60,"","check")</f>
+        <f>IF(raw_data_1!N60=raw_data_2!N60,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9907,15 +13213,15 @@
         <v/>
       </c>
       <c r="K61" t="str">
-        <f>IF(raw_data_1!K61=raw_data_2!K61,"","check")</f>
+        <f>IF(raw_data_1!L61=raw_data_2!L61,"","check")</f>
         <v/>
       </c>
       <c r="L61" t="str">
-        <f>IF(raw_data_1!L61=raw_data_2!L61,"","check")</f>
+        <f>IF(raw_data_1!M61=raw_data_2!M61,"","check")</f>
         <v/>
       </c>
       <c r="M61" t="str">
-        <f>IF(raw_data_1!M61=raw_data_2!M61,"","check")</f>
+        <f>IF(raw_data_1!N61=raw_data_2!N61,"","check")</f>
         <v/>
       </c>
     </row>
@@ -9961,15 +13267,15 @@
         <v/>
       </c>
       <c r="K62" t="str">
-        <f>IF(raw_data_1!K62=raw_data_2!K62,"","check")</f>
+        <f>IF(raw_data_1!L62=raw_data_2!L62,"","check")</f>
         <v/>
       </c>
       <c r="L62" t="str">
-        <f>IF(raw_data_1!L62=raw_data_2!L62,"","check")</f>
+        <f>IF(raw_data_1!M62=raw_data_2!M62,"","check")</f>
         <v/>
       </c>
       <c r="M62" t="str">
-        <f>IF(raw_data_1!M62=raw_data_2!M62,"","check")</f>
+        <f>IF(raw_data_1!N62=raw_data_2!N62,"","check")</f>
         <v/>
       </c>
     </row>
@@ -10015,15 +13321,15 @@
         <v/>
       </c>
       <c r="K63" t="str">
-        <f>IF(raw_data_1!K63=raw_data_2!K63,"","check")</f>
+        <f>IF(raw_data_1!L63=raw_data_2!L63,"","check")</f>
         <v/>
       </c>
       <c r="L63" t="str">
-        <f>IF(raw_data_1!L63=raw_data_2!L63,"","check")</f>
+        <f>IF(raw_data_1!M63=raw_data_2!M63,"","check")</f>
         <v/>
       </c>
       <c r="M63" t="str">
-        <f>IF(raw_data_1!M63=raw_data_2!M63,"","check")</f>
+        <f>IF(raw_data_1!N63=raw_data_2!N63,"","check")</f>
         <v/>
       </c>
     </row>
@@ -10069,19 +13375,19 @@
         <v/>
       </c>
       <c r="K64" t="str">
-        <f>IF(raw_data_1!K64=raw_data_2!K64,"","check")</f>
+        <f>IF(raw_data_1!L64=raw_data_2!L64,"","check")</f>
         <v/>
       </c>
       <c r="L64" t="str">
-        <f>IF(raw_data_1!L64=raw_data_2!L64,"","check")</f>
+        <f>IF(raw_data_1!M64=raw_data_2!M64,"","check")</f>
         <v/>
       </c>
       <c r="M64" t="str">
-        <f>IF(raw_data_1!M64=raw_data_2!M64,"","check")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <f>IF(raw_data_1!N64=raw_data_2!N64,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>IF(raw_data_1!A65=raw_data_2!A65,"","check")</f>
         <v/>
@@ -10123,19 +13429,19 @@
         <v/>
       </c>
       <c r="K65" t="str">
-        <f>IF(raw_data_1!K65=raw_data_2!K65,"","check")</f>
+        <f>IF(raw_data_1!L65=raw_data_2!L65,"","check")</f>
         <v/>
       </c>
       <c r="L65" t="str">
-        <f>IF(raw_data_1!L65=raw_data_2!L65,"","check")</f>
+        <f>IF(raw_data_1!M65=raw_data_2!M65,"","check")</f>
         <v/>
       </c>
       <c r="M65" t="str">
-        <f>IF(raw_data_1!M65=raw_data_2!M65,"","check")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <f>IF(raw_data_1!N65=raw_data_2!N65,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>IF(raw_data_1!A66=raw_data_2!A66,"","check")</f>
         <v/>
@@ -10177,19 +13483,19 @@
         <v/>
       </c>
       <c r="K66" t="str">
-        <f>IF(raw_data_1!K66=raw_data_2!K66,"","check")</f>
+        <f>IF(raw_data_1!L66=raw_data_2!L66,"","check")</f>
         <v/>
       </c>
       <c r="L66" t="str">
-        <f>IF(raw_data_1!L66=raw_data_2!L66,"","check")</f>
+        <f>IF(raw_data_1!M66=raw_data_2!M66,"","check")</f>
         <v/>
       </c>
       <c r="M66" t="str">
-        <f>IF(raw_data_1!M66=raw_data_2!M66,"","check")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <f>IF(raw_data_1!N66=raw_data_2!N66,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>IF(raw_data_1!A67=raw_data_2!A67,"","check")</f>
         <v/>
@@ -10242,8 +13548,12 @@
         <f>IF(raw_data_1!M67=raw_data_2!M67,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="str">
+        <f>IF(raw_data_1!N67=raw_data_2!N67,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>IF(raw_data_1!A68=raw_data_2!A68,"","check")</f>
         <v/>
@@ -10296,8 +13606,12 @@
         <f>IF(raw_data_1!M68=raw_data_2!M68,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" t="str">
+        <f>IF(raw_data_1!N68=raw_data_2!N68,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>IF(raw_data_1!A69=raw_data_2!A69,"","check")</f>
         <v/>
@@ -10350,8 +13664,12 @@
         <f>IF(raw_data_1!M69=raw_data_2!M69,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" t="str">
+        <f>IF(raw_data_1!N69=raw_data_2!N69,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>IF(raw_data_1!A70=raw_data_2!A70,"","check")</f>
         <v/>
@@ -10404,8 +13722,12 @@
         <f>IF(raw_data_1!M70=raw_data_2!M70,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="str">
+        <f>IF(raw_data_1!N70=raw_data_2!N70,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>IF(raw_data_1!A71=raw_data_2!A71,"","check")</f>
         <v/>
@@ -10458,8 +13780,12 @@
         <f>IF(raw_data_1!M71=raw_data_2!M71,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" t="str">
+        <f>IF(raw_data_1!N71=raw_data_2!N71,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>IF(raw_data_1!A72=raw_data_2!A72,"","check")</f>
         <v/>
@@ -10512,8 +13838,12 @@
         <f>IF(raw_data_1!M72=raw_data_2!M72,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" t="str">
+        <f>IF(raw_data_1!N72=raw_data_2!N72,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>IF(raw_data_1!A73=raw_data_2!A73,"","check")</f>
         <v/>
@@ -10566,8 +13896,12 @@
         <f>IF(raw_data_1!M73=raw_data_2!M73,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="str">
+        <f>IF(raw_data_1!N73=raw_data_2!N73,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>IF(raw_data_1!A74=raw_data_2!A74,"","check")</f>
         <v/>
@@ -10620,8 +13954,12 @@
         <f>IF(raw_data_1!M74=raw_data_2!M74,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="str">
+        <f>IF(raw_data_1!N74=raw_data_2!N74,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>IF(raw_data_1!A75=raw_data_2!A75,"","check")</f>
         <v/>
@@ -10674,8 +14012,12 @@
         <f>IF(raw_data_1!M75=raw_data_2!M75,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="str">
+        <f>IF(raw_data_1!N75=raw_data_2!N75,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>IF(raw_data_1!A76=raw_data_2!A76,"","check")</f>
         <v/>
@@ -10728,8 +14070,12 @@
         <f>IF(raw_data_1!M76=raw_data_2!M76,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" t="str">
+        <f>IF(raw_data_1!N76=raw_data_2!N76,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>IF(raw_data_1!A77=raw_data_2!A77,"","check")</f>
         <v/>
@@ -10782,8 +14128,12 @@
         <f>IF(raw_data_1!M77=raw_data_2!M77,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" t="str">
+        <f>IF(raw_data_1!N77=raw_data_2!N77,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>IF(raw_data_1!A78=raw_data_2!A78,"","check")</f>
         <v/>
@@ -10836,8 +14186,12 @@
         <f>IF(raw_data_1!M78=raw_data_2!M78,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="str">
+        <f>IF(raw_data_1!N78=raw_data_2!N78,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>IF(raw_data_1!A79=raw_data_2!A79,"","check")</f>
         <v/>
@@ -10890,8 +14244,12 @@
         <f>IF(raw_data_1!M79=raw_data_2!M79,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" t="str">
+        <f>IF(raw_data_1!N79=raw_data_2!N79,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>IF(raw_data_1!A80=raw_data_2!A80,"","check")</f>
         <v/>
@@ -10944,8 +14302,12 @@
         <f>IF(raw_data_1!M80=raw_data_2!M80,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" t="str">
+        <f>IF(raw_data_1!N80=raw_data_2!N80,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>IF(raw_data_1!A81=raw_data_2!A81,"","check")</f>
         <v/>
@@ -10998,8 +14360,12 @@
         <f>IF(raw_data_1!M81=raw_data_2!M81,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" t="str">
+        <f>IF(raw_data_1!N81=raw_data_2!N81,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>IF(raw_data_1!A82=raw_data_2!A82,"","check")</f>
         <v/>
@@ -11052,8 +14418,12 @@
         <f>IF(raw_data_1!M82=raw_data_2!M82,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="str">
+        <f>IF(raw_data_1!N82=raw_data_2!N82,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>IF(raw_data_1!A83=raw_data_2!A83,"","check")</f>
         <v/>
@@ -11106,8 +14476,12 @@
         <f>IF(raw_data_1!M83=raw_data_2!M83,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" t="str">
+        <f>IF(raw_data_1!N83=raw_data_2!N83,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>IF(raw_data_1!A84=raw_data_2!A84,"","check")</f>
         <v/>
@@ -11160,8 +14534,12 @@
         <f>IF(raw_data_1!M84=raw_data_2!M84,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" t="str">
+        <f>IF(raw_data_1!N84=raw_data_2!N84,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>IF(raw_data_1!A85=raw_data_2!A85,"","check")</f>
         <v/>
@@ -11214,8 +14592,12 @@
         <f>IF(raw_data_1!M85=raw_data_2!M85,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" t="str">
+        <f>IF(raw_data_1!N85=raw_data_2!N85,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>IF(raw_data_1!A86=raw_data_2!A86,"","check")</f>
         <v/>
@@ -11268,8 +14650,12 @@
         <f>IF(raw_data_1!M86=raw_data_2!M86,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="str">
+        <f>IF(raw_data_1!N86=raw_data_2!N86,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>IF(raw_data_1!A87=raw_data_2!A87,"","check")</f>
         <v/>
@@ -11322,8 +14708,12 @@
         <f>IF(raw_data_1!M87=raw_data_2!M87,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="str">
+        <f>IF(raw_data_1!N87=raw_data_2!N87,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>IF(raw_data_1!A88=raw_data_2!A88,"","check")</f>
         <v/>
@@ -11376,8 +14766,12 @@
         <f>IF(raw_data_1!M88=raw_data_2!M88,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="str">
+        <f>IF(raw_data_1!N88=raw_data_2!N88,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>IF(raw_data_1!A89=raw_data_2!A89,"","check")</f>
         <v/>
@@ -11430,8 +14824,12 @@
         <f>IF(raw_data_1!M89=raw_data_2!M89,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="str">
+        <f>IF(raw_data_1!N89=raw_data_2!N89,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>IF(raw_data_1!A90=raw_data_2!A90,"","check")</f>
         <v/>
@@ -11484,8 +14882,12 @@
         <f>IF(raw_data_1!M90=raw_data_2!M90,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" t="str">
+        <f>IF(raw_data_1!N90=raw_data_2!N90,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>IF(raw_data_1!A91=raw_data_2!A91,"","check")</f>
         <v/>
@@ -11538,8 +14940,12 @@
         <f>IF(raw_data_1!M91=raw_data_2!M91,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" t="str">
+        <f>IF(raw_data_1!N91=raw_data_2!N91,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>IF(raw_data_1!A92=raw_data_2!A92,"","check")</f>
         <v/>
@@ -11592,8 +14998,12 @@
         <f>IF(raw_data_1!M92=raw_data_2!M92,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" t="str">
+        <f>IF(raw_data_1!N92=raw_data_2!N92,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>IF(raw_data_1!A93=raw_data_2!A93,"","check")</f>
         <v/>
@@ -11646,8 +15056,12 @@
         <f>IF(raw_data_1!M93=raw_data_2!M93,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" t="str">
+        <f>IF(raw_data_1!N93=raw_data_2!N93,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>IF(raw_data_1!A94=raw_data_2!A94,"","check")</f>
         <v/>
@@ -11700,8 +15114,12 @@
         <f>IF(raw_data_1!M94=raw_data_2!M94,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" t="str">
+        <f>IF(raw_data_1!N94=raw_data_2!N94,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>IF(raw_data_1!A95=raw_data_2!A95,"","check")</f>
         <v/>
@@ -11754,8 +15172,12 @@
         <f>IF(raw_data_1!M95=raw_data_2!M95,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" t="str">
+        <f>IF(raw_data_1!N95=raw_data_2!N95,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>IF(raw_data_1!A96=raw_data_2!A96,"","check")</f>
         <v/>
@@ -11808,8 +15230,12 @@
         <f>IF(raw_data_1!M96=raw_data_2!M96,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="str">
+        <f>IF(raw_data_1!N96=raw_data_2!N96,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>IF(raw_data_1!A97=raw_data_2!A97,"","check")</f>
         <v/>
@@ -11862,8 +15288,12 @@
         <f>IF(raw_data_1!M97=raw_data_2!M97,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="str">
+        <f>IF(raw_data_1!N97=raw_data_2!N97,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>IF(raw_data_1!A98=raw_data_2!A98,"","check")</f>
         <v/>
@@ -11916,8 +15346,12 @@
         <f>IF(raw_data_1!M98=raw_data_2!M98,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" t="str">
+        <f>IF(raw_data_1!N98=raw_data_2!N98,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>IF(raw_data_1!A99=raw_data_2!A99,"","check")</f>
         <v/>
@@ -11970,8 +15404,12 @@
         <f>IF(raw_data_1!M99=raw_data_2!M99,"","check")</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" t="str">
+        <f>IF(raw_data_1!N99=raw_data_2!N99,"","check")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>IF(raw_data_1!A100=raw_data_2!A100,"","check")</f>
         <v/>
@@ -12022,6 +15460,10 @@
       </c>
       <c r="M100" t="str">
         <f>IF(raw_data_1!M100=raw_data_2!M100,"","check")</f>
+        <v/>
+      </c>
+      <c r="N100" t="str">
+        <f>IF(raw_data_1!N100=raw_data_2!N100,"","check")</f>
         <v/>
       </c>
     </row>

--- a/Oyster/cultchmass/cultchmass_packet.xlsx
+++ b/Oyster/cultchmass/cultchmass_packet.xlsx
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="P100" sqref="P100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5342,7 +5342,7 @@
         <v>39</v>
       </c>
       <c r="F96">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -5386,7 +5386,7 @@
         <v>39</v>
       </c>
       <c r="F97">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -5430,7 +5430,7 @@
         <v>39</v>
       </c>
       <c r="F98">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -5540,8 +5540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9746,7 +9746,7 @@
         <v>39</v>
       </c>
       <c r="F96">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -9790,7 +9790,7 @@
         <v>39</v>
       </c>
       <c r="F97">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -9834,7 +9834,7 @@
         <v>39</v>
       </c>
       <c r="F98">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G98">
         <v>2</v>

--- a/Oyster/cultchmass/cultchmass_packet.xlsx
+++ b/Oyster/cultchmass/cultchmass_packet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="84">
   <si>
     <t>DATE (YYYYMMDD):</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>md_rf_kg</t>
+  </si>
+  <si>
+    <t>mass of the weighing bucket plus all reef material retained in the 2.5 x 2.5cm seive in kg.  This excludes the material retained in the 5cm and 10cm seives.</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="P100" sqref="P100"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,10 +1224,10 @@
         <v>4.53</v>
       </c>
       <c r="K2">
-        <v>-999</v>
+        <v>2.15</v>
       </c>
       <c r="L2">
-        <v>2.15</v>
+        <v>-999</v>
       </c>
       <c r="M2" t="s">
         <v>47</v>
@@ -1265,10 +1268,10 @@
         <v>4.99</v>
       </c>
       <c r="K3">
-        <v>-999</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L3">
-        <v>2.4900000000000002</v>
+        <v>-999</v>
       </c>
       <c r="M3" t="s">
         <v>47</v>
@@ -1309,10 +1312,10 @@
         <v>2.38</v>
       </c>
       <c r="K4">
-        <v>-999</v>
+        <v>7.03</v>
       </c>
       <c r="L4">
-        <v>7.03</v>
+        <v>-999</v>
       </c>
       <c r="M4" t="s">
         <v>47</v>
@@ -1353,10 +1356,10 @@
         <v>0.86</v>
       </c>
       <c r="K5">
-        <v>-999</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>1.25</v>
+        <v>-999</v>
       </c>
       <c r="M5" t="s">
         <v>47</v>
@@ -1397,10 +1400,10 @@
         <v>1.84</v>
       </c>
       <c r="K6">
-        <v>-999</v>
+        <v>1.22</v>
       </c>
       <c r="L6">
-        <v>1.22</v>
+        <v>-999</v>
       </c>
       <c r="M6" t="s">
         <v>47</v>
@@ -1441,10 +1444,10 @@
         <v>2.86</v>
       </c>
       <c r="K7">
-        <v>-999</v>
+        <v>1.6</v>
       </c>
       <c r="L7">
-        <v>1.6</v>
+        <v>-999</v>
       </c>
       <c r="M7" t="s">
         <v>47</v>
@@ -1485,10 +1488,10 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="K8">
-        <v>-999</v>
+        <v>0.96</v>
       </c>
       <c r="L8">
-        <v>0.96</v>
+        <v>-999</v>
       </c>
       <c r="M8" t="s">
         <v>47</v>
@@ -1529,10 +1532,10 @@
         <v>1.36</v>
       </c>
       <c r="K9">
-        <v>-999</v>
+        <v>0.86</v>
       </c>
       <c r="L9">
-        <v>0.86</v>
+        <v>-999</v>
       </c>
       <c r="M9" t="s">
         <v>47</v>
@@ -1573,10 +1576,10 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="K10">
-        <v>-999</v>
+        <v>2.15</v>
       </c>
       <c r="L10">
-        <v>2.15</v>
+        <v>-999</v>
       </c>
       <c r="M10" t="s">
         <v>47</v>
@@ -1617,10 +1620,10 @@
         <v>1.59</v>
       </c>
       <c r="K11">
-        <v>-999</v>
+        <v>0.86</v>
       </c>
       <c r="L11">
-        <v>0.86</v>
+        <v>-999</v>
       </c>
       <c r="M11" t="s">
         <v>47</v>
@@ -1661,10 +1664,10 @@
         <v>0.86</v>
       </c>
       <c r="K12">
-        <v>-999</v>
+        <v>0.86</v>
       </c>
       <c r="L12">
-        <v>0.86</v>
+        <v>-999</v>
       </c>
       <c r="M12" t="s">
         <v>47</v>
@@ -1705,10 +1708,10 @@
         <v>4.08</v>
       </c>
       <c r="K13">
-        <v>-999</v>
+        <v>0.86</v>
       </c>
       <c r="L13">
-        <v>0.86</v>
+        <v>-999</v>
       </c>
       <c r="M13" t="s">
         <v>47</v>
@@ -1749,10 +1752,10 @@
         <v>0.86</v>
       </c>
       <c r="K14">
-        <v>-999</v>
+        <v>1.06</v>
       </c>
       <c r="L14">
-        <v>1.06</v>
+        <v>-999</v>
       </c>
       <c r="M14" t="s">
         <v>47</v>
@@ -1793,10 +1796,10 @@
         <v>0.86</v>
       </c>
       <c r="K15">
-        <v>-999</v>
+        <v>1.08</v>
       </c>
       <c r="L15">
-        <v>1.08</v>
+        <v>-999</v>
       </c>
       <c r="M15" t="s">
         <v>47</v>
@@ -1837,10 +1840,10 @@
         <v>0.86</v>
       </c>
       <c r="K16">
-        <v>-999</v>
+        <v>1.06</v>
       </c>
       <c r="L16">
-        <v>1.06</v>
+        <v>-999</v>
       </c>
       <c r="M16" t="s">
         <v>47</v>
@@ -1881,10 +1884,10 @@
         <v>0.86</v>
       </c>
       <c r="K17">
-        <v>-999</v>
+        <v>1.86</v>
       </c>
       <c r="L17">
-        <v>1.86</v>
+        <v>-999</v>
       </c>
       <c r="M17" t="s">
         <v>47</v>
@@ -1925,10 +1928,10 @@
         <v>2.9</v>
       </c>
       <c r="K18">
-        <v>-999</v>
+        <v>2.8</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>-999</v>
       </c>
       <c r="M18" t="s">
         <v>72</v>
@@ -1969,10 +1972,10 @@
         <v>2.7</v>
       </c>
       <c r="K19">
-        <v>-999</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="M19" t="s">
         <v>72</v>
@@ -2013,10 +2016,10 @@
         <v>0.8</v>
       </c>
       <c r="K20">
-        <v>-999</v>
+        <v>0.9</v>
       </c>
       <c r="L20">
-        <v>0.9</v>
+        <v>-999</v>
       </c>
       <c r="M20" t="s">
         <v>72</v>
@@ -2057,10 +2060,10 @@
         <v>0.8</v>
       </c>
       <c r="K21">
-        <v>-999</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>1.4</v>
+        <v>-999</v>
       </c>
       <c r="M21" t="s">
         <v>72</v>
@@ -2101,10 +2104,10 @@
         <v>2.8</v>
       </c>
       <c r="K22">
-        <v>-999</v>
+        <v>5.2</v>
       </c>
       <c r="L22">
-        <v>5.2</v>
+        <v>-999</v>
       </c>
       <c r="M22" t="s">
         <v>72</v>
@@ -2145,10 +2148,10 @@
         <v>1.2</v>
       </c>
       <c r="K23">
-        <v>-999</v>
+        <v>5.6</v>
       </c>
       <c r="L23">
-        <v>5.6</v>
+        <v>-999</v>
       </c>
       <c r="M23" t="s">
         <v>72</v>
@@ -2189,10 +2192,10 @@
         <v>2.5</v>
       </c>
       <c r="K24">
-        <v>-999</v>
+        <v>4.8</v>
       </c>
       <c r="L24">
-        <v>4.8</v>
+        <v>-999</v>
       </c>
       <c r="M24" t="s">
         <v>72</v>
@@ -2233,10 +2236,10 @@
         <v>2.4</v>
       </c>
       <c r="K25">
-        <v>-999</v>
+        <v>4.5</v>
       </c>
       <c r="L25">
-        <v>4.5</v>
+        <v>-999</v>
       </c>
       <c r="M25" t="s">
         <v>72</v>
@@ -2277,10 +2280,10 @@
         <v>0.8</v>
       </c>
       <c r="K26">
-        <v>-999</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="M26" t="s">
         <v>72</v>
@@ -2321,10 +2324,10 @@
         <v>0.8</v>
       </c>
       <c r="K27">
-        <v>-999</v>
+        <v>1.7</v>
       </c>
       <c r="L27">
-        <v>1.7</v>
+        <v>-999</v>
       </c>
       <c r="M27" t="s">
         <v>72</v>
@@ -2365,10 +2368,10 @@
         <v>0.8</v>
       </c>
       <c r="K28">
-        <v>-999</v>
+        <v>0.8</v>
       </c>
       <c r="L28">
-        <v>0.8</v>
+        <v>-999</v>
       </c>
       <c r="M28" t="s">
         <v>72</v>
@@ -2409,10 +2412,10 @@
         <v>0.8</v>
       </c>
       <c r="K29">
-        <v>-999</v>
+        <v>1.7</v>
       </c>
       <c r="L29">
-        <v>1.7</v>
+        <v>-999</v>
       </c>
       <c r="M29" t="s">
         <v>72</v>
@@ -2453,10 +2456,10 @@
         <v>0.8</v>
       </c>
       <c r="K30">
-        <v>-999</v>
+        <v>2.4</v>
       </c>
       <c r="L30">
-        <v>2.4</v>
+        <v>-999</v>
       </c>
       <c r="M30" t="s">
         <v>72</v>
@@ -2497,10 +2500,10 @@
         <v>0.8</v>
       </c>
       <c r="K31">
-        <v>-999</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="M31" t="s">
         <v>72</v>
@@ -2541,10 +2544,10 @@
         <v>0.8</v>
       </c>
       <c r="K32">
-        <v>-999</v>
+        <v>0.9</v>
       </c>
       <c r="L32">
-        <v>0.9</v>
+        <v>-999</v>
       </c>
       <c r="M32" t="s">
         <v>72</v>
@@ -2585,10 +2588,10 @@
         <v>0.8</v>
       </c>
       <c r="K33">
-        <v>-999</v>
+        <v>0.9</v>
       </c>
       <c r="L33">
-        <v>0.9</v>
+        <v>-999</v>
       </c>
       <c r="M33" t="s">
         <v>72</v>
@@ -2629,10 +2632,10 @@
         <v>1.7</v>
       </c>
       <c r="K34">
-        <v>-999</v>
+        <v>1.4</v>
       </c>
       <c r="L34">
-        <v>1.4</v>
+        <v>-999</v>
       </c>
       <c r="M34" t="s">
         <v>72</v>
@@ -2673,10 +2676,10 @@
         <v>9.4</v>
       </c>
       <c r="K35">
-        <v>-999</v>
+        <v>2.4</v>
       </c>
       <c r="L35">
-        <v>2.4</v>
+        <v>-999</v>
       </c>
       <c r="M35" t="s">
         <v>72</v>
@@ -2717,10 +2720,10 @@
         <v>9</v>
       </c>
       <c r="K36">
-        <v>-999</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L36">
-        <v>2.2999999999999998</v>
+        <v>-999</v>
       </c>
       <c r="M36" t="s">
         <v>72</v>
@@ -2761,10 +2764,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K37">
-        <v>-999</v>
+        <v>1.4</v>
       </c>
       <c r="L37">
-        <v>1.4</v>
+        <v>-999</v>
       </c>
       <c r="M37" t="s">
         <v>72</v>
@@ -2805,10 +2808,10 @@
         <v>1.3</v>
       </c>
       <c r="K38">
-        <v>-999</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L38">
-        <v>4.4000000000000004</v>
+        <v>-999</v>
       </c>
       <c r="M38" t="s">
         <v>73</v>
@@ -2849,10 +2852,10 @@
         <v>0.8</v>
       </c>
       <c r="K39">
-        <v>-999</v>
+        <v>1.9</v>
       </c>
       <c r="L39">
-        <v>1.9</v>
+        <v>-999</v>
       </c>
       <c r="M39" t="s">
         <v>73</v>
@@ -2893,10 +2896,10 @@
         <v>2.7</v>
       </c>
       <c r="K40">
-        <v>-999</v>
+        <v>3.4</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>-999</v>
       </c>
       <c r="M40" t="s">
         <v>73</v>
@@ -2937,10 +2940,10 @@
         <v>2.4</v>
       </c>
       <c r="K41">
-        <v>-999</v>
+        <v>5.2</v>
       </c>
       <c r="L41">
-        <v>5.2</v>
+        <v>-999</v>
       </c>
       <c r="M41" t="s">
         <v>73</v>
@@ -2981,10 +2984,10 @@
         <v>6.1</v>
       </c>
       <c r="K42">
-        <v>-999</v>
+        <v>3.5</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>-999</v>
       </c>
       <c r="M42" t="s">
         <v>73</v>
@@ -3025,10 +3028,10 @@
         <v>0.8</v>
       </c>
       <c r="K43">
-        <v>-999</v>
+        <v>0.9</v>
       </c>
       <c r="L43">
-        <v>0.9</v>
+        <v>-999</v>
       </c>
       <c r="M43" t="s">
         <v>73</v>
@@ -3069,10 +3072,10 @@
         <v>1.3</v>
       </c>
       <c r="K44">
-        <v>-999</v>
+        <v>0.9</v>
       </c>
       <c r="L44">
-        <v>0.9</v>
+        <v>-999</v>
       </c>
       <c r="M44" t="s">
         <v>73</v>
@@ -3113,10 +3116,10 @@
         <v>1.9</v>
       </c>
       <c r="K45">
-        <v>-999</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>-999</v>
       </c>
       <c r="M45" t="s">
         <v>73</v>
@@ -3157,10 +3160,10 @@
         <v>0.8</v>
       </c>
       <c r="K46">
-        <v>-999</v>
+        <v>0.8</v>
       </c>
       <c r="L46">
-        <v>0.8</v>
+        <v>-999</v>
       </c>
       <c r="M46" t="s">
         <v>73</v>
@@ -3201,10 +3204,10 @@
         <v>0.8</v>
       </c>
       <c r="K47">
-        <v>-999</v>
+        <v>0.9</v>
       </c>
       <c r="L47">
-        <v>0.9</v>
+        <v>-999</v>
       </c>
       <c r="M47" t="s">
         <v>73</v>
@@ -3245,10 +3248,10 @@
         <v>0.8</v>
       </c>
       <c r="K48">
-        <v>-999</v>
+        <v>0.9</v>
       </c>
       <c r="L48">
-        <v>0.9</v>
+        <v>-999</v>
       </c>
       <c r="M48" t="s">
         <v>73</v>
@@ -3289,10 +3292,10 @@
         <v>0.8</v>
       </c>
       <c r="K49">
-        <v>-999</v>
+        <v>0.8</v>
       </c>
       <c r="L49">
-        <v>0.8</v>
+        <v>-999</v>
       </c>
       <c r="M49" t="s">
         <v>73</v>
@@ -3333,10 +3336,10 @@
         <v>5.3</v>
       </c>
       <c r="K50">
-        <v>-999</v>
+        <v>3.3</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>-999</v>
       </c>
       <c r="M50" t="s">
         <v>73</v>
@@ -3377,10 +3380,10 @@
         <v>1.9</v>
       </c>
       <c r="K51">
-        <v>-999</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="M51" t="s">
         <v>73</v>
@@ -3421,10 +3424,10 @@
         <v>0.8</v>
       </c>
       <c r="K52">
-        <v>-999</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="M52" t="s">
         <v>73</v>
@@ -3465,10 +3468,10 @@
         <v>0.8</v>
       </c>
       <c r="K53">
-        <v>-999</v>
+        <v>3.3</v>
       </c>
       <c r="L53">
-        <v>3.3</v>
+        <v>-999</v>
       </c>
       <c r="M53" t="s">
         <v>73</v>
@@ -3509,10 +3512,10 @@
         <v>2</v>
       </c>
       <c r="K54">
-        <v>-999</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="M54" t="s">
         <v>74</v>
@@ -3553,10 +3556,10 @@
         <v>2.9</v>
       </c>
       <c r="K55">
-        <v>-999</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>-999</v>
       </c>
       <c r="M55" t="s">
         <v>74</v>
@@ -3597,10 +3600,10 @@
         <v>4.5</v>
       </c>
       <c r="K56">
-        <v>-999</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L56">
-        <v>4.4000000000000004</v>
+        <v>-999</v>
       </c>
       <c r="M56" t="s">
         <v>74</v>
@@ -3641,10 +3644,10 @@
         <v>5.5</v>
       </c>
       <c r="K57">
-        <v>-999</v>
+        <v>3.4</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>-999</v>
       </c>
       <c r="M57" t="s">
         <v>74</v>
@@ -3685,10 +3688,10 @@
         <v>0.8</v>
       </c>
       <c r="K58">
-        <v>-999</v>
+        <v>1.6</v>
       </c>
       <c r="L58">
-        <v>1.6</v>
+        <v>-999</v>
       </c>
       <c r="M58" t="s">
         <v>74</v>
@@ -3729,10 +3732,10 @@
         <v>0.8</v>
       </c>
       <c r="K59">
-        <v>-999</v>
+        <v>1.4</v>
       </c>
       <c r="L59">
-        <v>1.4</v>
+        <v>-999</v>
       </c>
       <c r="M59" t="s">
         <v>74</v>
@@ -3773,10 +3776,10 @@
         <v>0.8</v>
       </c>
       <c r="K60">
-        <v>-999</v>
+        <v>1.4</v>
       </c>
       <c r="L60">
-        <v>1.4</v>
+        <v>-999</v>
       </c>
       <c r="M60" t="s">
         <v>74</v>
@@ -3817,10 +3820,10 @@
         <v>1.6</v>
       </c>
       <c r="K61">
-        <v>-999</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="M61" t="s">
         <v>74</v>
@@ -3861,10 +3864,10 @@
         <v>2.1</v>
       </c>
       <c r="K62">
-        <v>-999</v>
+        <v>0.8</v>
       </c>
       <c r="L62">
-        <v>0.8</v>
+        <v>-999</v>
       </c>
       <c r="M62" t="s">
         <v>74</v>
@@ -3905,10 +3908,10 @@
         <v>0.8</v>
       </c>
       <c r="K63">
-        <v>-999</v>
+        <v>1.4</v>
       </c>
       <c r="L63">
-        <v>1.4</v>
+        <v>-999</v>
       </c>
       <c r="M63" t="s">
         <v>74</v>
@@ -3949,10 +3952,10 @@
         <v>0.8</v>
       </c>
       <c r="K64">
-        <v>-999</v>
+        <v>1.4</v>
       </c>
       <c r="L64">
-        <v>1.4</v>
+        <v>-999</v>
       </c>
       <c r="M64" t="s">
         <v>74</v>
@@ -3993,10 +3996,10 @@
         <v>5</v>
       </c>
       <c r="K65">
-        <v>-999</v>
+        <v>2.9</v>
       </c>
       <c r="L65">
-        <v>2.9</v>
+        <v>-999</v>
       </c>
       <c r="M65" t="s">
         <v>74</v>
@@ -5516,19 +5519,19 @@
           <x14:formula1>
             <xm:f>pick!$L$2:$L$12</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:M17 M66:M1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>pick!$M$2:$M$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>N1:N1048576</xm:sqref>
+          <xm:sqref>M66:M1048576 M2:M17 M1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>pick!$L$2:$L$16</xm:f>
           </x14:formula1>
           <xm:sqref>M18:M65</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>pick!$M$2:$M$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>N66:N1048576 N1 N2:N65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10027,7 +10030,7 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <f>IF(raw_data_1!L2=raw_data_2!L2,"","check")</f>
+        <f>IF(raw_data_1!K2=raw_data_2!L2,"","check")</f>
         <v/>
       </c>
       <c r="L2" t="str">
@@ -10081,7 +10084,7 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <f>IF(raw_data_1!L3=raw_data_2!L3,"","check")</f>
+        <f>IF(raw_data_1!K3=raw_data_2!L3,"","check")</f>
         <v/>
       </c>
       <c r="L3" t="str">
@@ -10135,7 +10138,7 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <f>IF(raw_data_1!L4=raw_data_2!L4,"","check")</f>
+        <f>IF(raw_data_1!K4=raw_data_2!L4,"","check")</f>
         <v/>
       </c>
       <c r="L4" t="str">
@@ -10189,7 +10192,7 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <f>IF(raw_data_1!L5=raw_data_2!L5,"","check")</f>
+        <f>IF(raw_data_1!K5=raw_data_2!L5,"","check")</f>
         <v/>
       </c>
       <c r="L5" t="str">
@@ -10243,7 +10246,7 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <f>IF(raw_data_1!L6=raw_data_2!L6,"","check")</f>
+        <f>IF(raw_data_1!K6=raw_data_2!L6,"","check")</f>
         <v/>
       </c>
       <c r="L6" t="str">
@@ -10297,7 +10300,7 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <f>IF(raw_data_1!L7=raw_data_2!L7,"","check")</f>
+        <f>IF(raw_data_1!K7=raw_data_2!L7,"","check")</f>
         <v/>
       </c>
       <c r="L7" t="str">
@@ -10351,7 +10354,7 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <f>IF(raw_data_1!L8=raw_data_2!L8,"","check")</f>
+        <f>IF(raw_data_1!K8=raw_data_2!L8,"","check")</f>
         <v/>
       </c>
       <c r="L8" t="str">
@@ -10405,7 +10408,7 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <f>IF(raw_data_1!L9=raw_data_2!L9,"","check")</f>
+        <f>IF(raw_data_1!K9=raw_data_2!L9,"","check")</f>
         <v/>
       </c>
       <c r="L9" t="str">
@@ -10459,7 +10462,7 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <f>IF(raw_data_1!L10=raw_data_2!L10,"","check")</f>
+        <f>IF(raw_data_1!K10=raw_data_2!L10,"","check")</f>
         <v/>
       </c>
       <c r="L10" t="str">
@@ -10513,7 +10516,7 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <f>IF(raw_data_1!L11=raw_data_2!L11,"","check")</f>
+        <f>IF(raw_data_1!K11=raw_data_2!L11,"","check")</f>
         <v/>
       </c>
       <c r="L11" t="str">
@@ -10567,7 +10570,7 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <f>IF(raw_data_1!L12=raw_data_2!L12,"","check")</f>
+        <f>IF(raw_data_1!K12=raw_data_2!L12,"","check")</f>
         <v/>
       </c>
       <c r="L12" t="str">
@@ -10621,7 +10624,7 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <f>IF(raw_data_1!L13=raw_data_2!L13,"","check")</f>
+        <f>IF(raw_data_1!K13=raw_data_2!L13,"","check")</f>
         <v/>
       </c>
       <c r="L13" t="str">
@@ -10675,7 +10678,7 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <f>IF(raw_data_1!L14=raw_data_2!L14,"","check")</f>
+        <f>IF(raw_data_1!K14=raw_data_2!L14,"","check")</f>
         <v/>
       </c>
       <c r="L14" t="str">
@@ -10729,7 +10732,7 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <f>IF(raw_data_1!L15=raw_data_2!L15,"","check")</f>
+        <f>IF(raw_data_1!K15=raw_data_2!L15,"","check")</f>
         <v/>
       </c>
       <c r="L15" t="str">
@@ -10783,7 +10786,7 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <f>IF(raw_data_1!L16=raw_data_2!L16,"","check")</f>
+        <f>IF(raw_data_1!K16=raw_data_2!L16,"","check")</f>
         <v/>
       </c>
       <c r="L16" t="str">
@@ -10837,7 +10840,7 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <f>IF(raw_data_1!L17=raw_data_2!L17,"","check")</f>
+        <f>IF(raw_data_1!K17=raw_data_2!L17,"","check")</f>
         <v/>
       </c>
       <c r="L17" t="str">
@@ -10891,7 +10894,7 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <f>IF(raw_data_1!L18=raw_data_2!L18,"","check")</f>
+        <f>IF(raw_data_1!K18=raw_data_2!L18,"","check")</f>
         <v/>
       </c>
       <c r="L18" t="str">
@@ -10945,7 +10948,7 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <f>IF(raw_data_1!L19=raw_data_2!L19,"","check")</f>
+        <f>IF(raw_data_1!K19=raw_data_2!L19,"","check")</f>
         <v/>
       </c>
       <c r="L19" t="str">
@@ -10999,7 +11002,7 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <f>IF(raw_data_1!L20=raw_data_2!L20,"","check")</f>
+        <f>IF(raw_data_1!K20=raw_data_2!L20,"","check")</f>
         <v/>
       </c>
       <c r="L20" t="str">
@@ -11053,7 +11056,7 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <f>IF(raw_data_1!L21=raw_data_2!L21,"","check")</f>
+        <f>IF(raw_data_1!K21=raw_data_2!L21,"","check")</f>
         <v/>
       </c>
       <c r="L21" t="str">
@@ -11107,7 +11110,7 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <f>IF(raw_data_1!L22=raw_data_2!L22,"","check")</f>
+        <f>IF(raw_data_1!K22=raw_data_2!L22,"","check")</f>
         <v/>
       </c>
       <c r="L22" t="str">
@@ -11161,7 +11164,7 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <f>IF(raw_data_1!L23=raw_data_2!L23,"","check")</f>
+        <f>IF(raw_data_1!K23=raw_data_2!L23,"","check")</f>
         <v/>
       </c>
       <c r="L23" t="str">
@@ -11215,7 +11218,7 @@
         <v/>
       </c>
       <c r="K24" t="str">
-        <f>IF(raw_data_1!L24=raw_data_2!L24,"","check")</f>
+        <f>IF(raw_data_1!K24=raw_data_2!L24,"","check")</f>
         <v/>
       </c>
       <c r="L24" t="str">
@@ -11269,7 +11272,7 @@
         <v/>
       </c>
       <c r="K25" t="str">
-        <f>IF(raw_data_1!L25=raw_data_2!L25,"","check")</f>
+        <f>IF(raw_data_1!K25=raw_data_2!L25,"","check")</f>
         <v/>
       </c>
       <c r="L25" t="str">
@@ -11323,7 +11326,7 @@
         <v/>
       </c>
       <c r="K26" t="str">
-        <f>IF(raw_data_1!L26=raw_data_2!L26,"","check")</f>
+        <f>IF(raw_data_1!K26=raw_data_2!L26,"","check")</f>
         <v/>
       </c>
       <c r="L26" t="str">
@@ -11377,7 +11380,7 @@
         <v/>
       </c>
       <c r="K27" t="str">
-        <f>IF(raw_data_1!L27=raw_data_2!L27,"","check")</f>
+        <f>IF(raw_data_1!K27=raw_data_2!L27,"","check")</f>
         <v/>
       </c>
       <c r="L27" t="str">
@@ -11431,7 +11434,7 @@
         <v/>
       </c>
       <c r="K28" t="str">
-        <f>IF(raw_data_1!L28=raw_data_2!L28,"","check")</f>
+        <f>IF(raw_data_1!K28=raw_data_2!L28,"","check")</f>
         <v/>
       </c>
       <c r="L28" t="str">
@@ -11485,7 +11488,7 @@
         <v/>
       </c>
       <c r="K29" t="str">
-        <f>IF(raw_data_1!L29=raw_data_2!L29,"","check")</f>
+        <f>IF(raw_data_1!K29=raw_data_2!L29,"","check")</f>
         <v/>
       </c>
       <c r="L29" t="str">
@@ -11539,7 +11542,7 @@
         <v/>
       </c>
       <c r="K30" t="str">
-        <f>IF(raw_data_1!L30=raw_data_2!L30,"","check")</f>
+        <f>IF(raw_data_1!K30=raw_data_2!L30,"","check")</f>
         <v/>
       </c>
       <c r="L30" t="str">
@@ -11593,7 +11596,7 @@
         <v/>
       </c>
       <c r="K31" t="str">
-        <f>IF(raw_data_1!L31=raw_data_2!L31,"","check")</f>
+        <f>IF(raw_data_1!K31=raw_data_2!L31,"","check")</f>
         <v/>
       </c>
       <c r="L31" t="str">
@@ -11647,7 +11650,7 @@
         <v/>
       </c>
       <c r="K32" t="str">
-        <f>IF(raw_data_1!L32=raw_data_2!L32,"","check")</f>
+        <f>IF(raw_data_1!K32=raw_data_2!L32,"","check")</f>
         <v/>
       </c>
       <c r="L32" t="str">
@@ -11701,7 +11704,7 @@
         <v/>
       </c>
       <c r="K33" t="str">
-        <f>IF(raw_data_1!L33=raw_data_2!L33,"","check")</f>
+        <f>IF(raw_data_1!K33=raw_data_2!L33,"","check")</f>
         <v/>
       </c>
       <c r="L33" t="str">
@@ -11755,7 +11758,7 @@
         <v/>
       </c>
       <c r="K34" t="str">
-        <f>IF(raw_data_1!L34=raw_data_2!L34,"","check")</f>
+        <f>IF(raw_data_1!K34=raw_data_2!L34,"","check")</f>
         <v/>
       </c>
       <c r="L34" t="str">
@@ -11809,7 +11812,7 @@
         <v/>
       </c>
       <c r="K35" t="str">
-        <f>IF(raw_data_1!L35=raw_data_2!L35,"","check")</f>
+        <f>IF(raw_data_1!K35=raw_data_2!L35,"","check")</f>
         <v/>
       </c>
       <c r="L35" t="str">
@@ -11863,7 +11866,7 @@
         <v/>
       </c>
       <c r="K36" t="str">
-        <f>IF(raw_data_1!L36=raw_data_2!L36,"","check")</f>
+        <f>IF(raw_data_1!K36=raw_data_2!L36,"","check")</f>
         <v/>
       </c>
       <c r="L36" t="str">
@@ -11917,7 +11920,7 @@
         <v/>
       </c>
       <c r="K37" t="str">
-        <f>IF(raw_data_1!L37=raw_data_2!L37,"","check")</f>
+        <f>IF(raw_data_1!K37=raw_data_2!L37,"","check")</f>
         <v/>
       </c>
       <c r="L37" t="str">
@@ -11971,7 +11974,7 @@
         <v/>
       </c>
       <c r="K38" t="str">
-        <f>IF(raw_data_1!L38=raw_data_2!L38,"","check")</f>
+        <f>IF(raw_data_1!K38=raw_data_2!L38,"","check")</f>
         <v/>
       </c>
       <c r="L38" t="str">
@@ -12025,7 +12028,7 @@
         <v/>
       </c>
       <c r="K39" t="str">
-        <f>IF(raw_data_1!L39=raw_data_2!L39,"","check")</f>
+        <f>IF(raw_data_1!K39=raw_data_2!L39,"","check")</f>
         <v/>
       </c>
       <c r="L39" t="str">
@@ -12079,7 +12082,7 @@
         <v/>
       </c>
       <c r="K40" t="str">
-        <f>IF(raw_data_1!L40=raw_data_2!L40,"","check")</f>
+        <f>IF(raw_data_1!K40=raw_data_2!L40,"","check")</f>
         <v/>
       </c>
       <c r="L40" t="str">
@@ -12133,7 +12136,7 @@
         <v/>
       </c>
       <c r="K41" t="str">
-        <f>IF(raw_data_1!L41=raw_data_2!L41,"","check")</f>
+        <f>IF(raw_data_1!K41=raw_data_2!L41,"","check")</f>
         <v/>
       </c>
       <c r="L41" t="str">
@@ -12187,7 +12190,7 @@
         <v/>
       </c>
       <c r="K42" t="str">
-        <f>IF(raw_data_1!L42=raw_data_2!L42,"","check")</f>
+        <f>IF(raw_data_1!K42=raw_data_2!L42,"","check")</f>
         <v/>
       </c>
       <c r="L42" t="str">
@@ -12241,7 +12244,7 @@
         <v/>
       </c>
       <c r="K43" t="str">
-        <f>IF(raw_data_1!L43=raw_data_2!L43,"","check")</f>
+        <f>IF(raw_data_1!K43=raw_data_2!L43,"","check")</f>
         <v/>
       </c>
       <c r="L43" t="str">
@@ -12295,7 +12298,7 @@
         <v/>
       </c>
       <c r="K44" t="str">
-        <f>IF(raw_data_1!L44=raw_data_2!L44,"","check")</f>
+        <f>IF(raw_data_1!K44=raw_data_2!L44,"","check")</f>
         <v/>
       </c>
       <c r="L44" t="str">
@@ -12349,7 +12352,7 @@
         <v/>
       </c>
       <c r="K45" t="str">
-        <f>IF(raw_data_1!L45=raw_data_2!L45,"","check")</f>
+        <f>IF(raw_data_1!K45=raw_data_2!L45,"","check")</f>
         <v/>
       </c>
       <c r="L45" t="str">
@@ -12403,7 +12406,7 @@
         <v/>
       </c>
       <c r="K46" t="str">
-        <f>IF(raw_data_1!L46=raw_data_2!L46,"","check")</f>
+        <f>IF(raw_data_1!K46=raw_data_2!L46,"","check")</f>
         <v/>
       </c>
       <c r="L46" t="str">
@@ -12457,7 +12460,7 @@
         <v/>
       </c>
       <c r="K47" t="str">
-        <f>IF(raw_data_1!L47=raw_data_2!L47,"","check")</f>
+        <f>IF(raw_data_1!K47=raw_data_2!L47,"","check")</f>
         <v/>
       </c>
       <c r="L47" t="str">
@@ -12511,7 +12514,7 @@
         <v/>
       </c>
       <c r="K48" t="str">
-        <f>IF(raw_data_1!L48=raw_data_2!L48,"","check")</f>
+        <f>IF(raw_data_1!K48=raw_data_2!L48,"","check")</f>
         <v/>
       </c>
       <c r="L48" t="str">
@@ -12565,7 +12568,7 @@
         <v/>
       </c>
       <c r="K49" t="str">
-        <f>IF(raw_data_1!L49=raw_data_2!L49,"","check")</f>
+        <f>IF(raw_data_1!K49=raw_data_2!L49,"","check")</f>
         <v/>
       </c>
       <c r="L49" t="str">
@@ -12619,7 +12622,7 @@
         <v/>
       </c>
       <c r="K50" t="str">
-        <f>IF(raw_data_1!L50=raw_data_2!L50,"","check")</f>
+        <f>IF(raw_data_1!K50=raw_data_2!L50,"","check")</f>
         <v/>
       </c>
       <c r="L50" t="str">
@@ -12673,7 +12676,7 @@
         <v/>
       </c>
       <c r="K51" t="str">
-        <f>IF(raw_data_1!L51=raw_data_2!L51,"","check")</f>
+        <f>IF(raw_data_1!K51=raw_data_2!L51,"","check")</f>
         <v/>
       </c>
       <c r="L51" t="str">
@@ -12727,7 +12730,7 @@
         <v/>
       </c>
       <c r="K52" t="str">
-        <f>IF(raw_data_1!L52=raw_data_2!L52,"","check")</f>
+        <f>IF(raw_data_1!K52=raw_data_2!L52,"","check")</f>
         <v/>
       </c>
       <c r="L52" t="str">
@@ -12781,7 +12784,7 @@
         <v/>
       </c>
       <c r="K53" t="str">
-        <f>IF(raw_data_1!L53=raw_data_2!L53,"","check")</f>
+        <f>IF(raw_data_1!K53=raw_data_2!L53,"","check")</f>
         <v/>
       </c>
       <c r="L53" t="str">
@@ -12835,7 +12838,7 @@
         <v/>
       </c>
       <c r="K54" t="str">
-        <f>IF(raw_data_1!L54=raw_data_2!L54,"","check")</f>
+        <f>IF(raw_data_1!K54=raw_data_2!L54,"","check")</f>
         <v/>
       </c>
       <c r="L54" t="str">
@@ -12889,7 +12892,7 @@
         <v/>
       </c>
       <c r="K55" t="str">
-        <f>IF(raw_data_1!L55=raw_data_2!L55,"","check")</f>
+        <f>IF(raw_data_1!K55=raw_data_2!L55,"","check")</f>
         <v/>
       </c>
       <c r="L55" t="str">
@@ -12943,7 +12946,7 @@
         <v/>
       </c>
       <c r="K56" t="str">
-        <f>IF(raw_data_1!L56=raw_data_2!L56,"","check")</f>
+        <f>IF(raw_data_1!K56=raw_data_2!L56,"","check")</f>
         <v/>
       </c>
       <c r="L56" t="str">
@@ -12997,7 +13000,7 @@
         <v/>
       </c>
       <c r="K57" t="str">
-        <f>IF(raw_data_1!L57=raw_data_2!L57,"","check")</f>
+        <f>IF(raw_data_1!K57=raw_data_2!L57,"","check")</f>
         <v/>
       </c>
       <c r="L57" t="str">
@@ -13051,7 +13054,7 @@
         <v/>
       </c>
       <c r="K58" t="str">
-        <f>IF(raw_data_1!L58=raw_data_2!L58,"","check")</f>
+        <f>IF(raw_data_1!K58=raw_data_2!L58,"","check")</f>
         <v/>
       </c>
       <c r="L58" t="str">
@@ -13105,7 +13108,7 @@
         <v/>
       </c>
       <c r="K59" t="str">
-        <f>IF(raw_data_1!L59=raw_data_2!L59,"","check")</f>
+        <f>IF(raw_data_1!K59=raw_data_2!L59,"","check")</f>
         <v/>
       </c>
       <c r="L59" t="str">
@@ -13159,7 +13162,7 @@
         <v/>
       </c>
       <c r="K60" t="str">
-        <f>IF(raw_data_1!L60=raw_data_2!L60,"","check")</f>
+        <f>IF(raw_data_1!K60=raw_data_2!L60,"","check")</f>
         <v/>
       </c>
       <c r="L60" t="str">
@@ -13213,7 +13216,7 @@
         <v/>
       </c>
       <c r="K61" t="str">
-        <f>IF(raw_data_1!L61=raw_data_2!L61,"","check")</f>
+        <f>IF(raw_data_1!K61=raw_data_2!L61,"","check")</f>
         <v/>
       </c>
       <c r="L61" t="str">
@@ -13267,7 +13270,7 @@
         <v/>
       </c>
       <c r="K62" t="str">
-        <f>IF(raw_data_1!L62=raw_data_2!L62,"","check")</f>
+        <f>IF(raw_data_1!K62=raw_data_2!L62,"","check")</f>
         <v/>
       </c>
       <c r="L62" t="str">
@@ -13321,7 +13324,7 @@
         <v/>
       </c>
       <c r="K63" t="str">
-        <f>IF(raw_data_1!L63=raw_data_2!L63,"","check")</f>
+        <f>IF(raw_data_1!K63=raw_data_2!L63,"","check")</f>
         <v/>
       </c>
       <c r="L63" t="str">
@@ -13375,7 +13378,7 @@
         <v/>
       </c>
       <c r="K64" t="str">
-        <f>IF(raw_data_1!L64=raw_data_2!L64,"","check")</f>
+        <f>IF(raw_data_1!K64=raw_data_2!L64,"","check")</f>
         <v/>
       </c>
       <c r="L64" t="str">
@@ -13429,7 +13432,7 @@
         <v/>
       </c>
       <c r="K65" t="str">
-        <f>IF(raw_data_1!L65=raw_data_2!L65,"","check")</f>
+        <f>IF(raw_data_1!K65=raw_data_2!L65,"","check")</f>
         <v/>
       </c>
       <c r="L65" t="str">
@@ -15862,10 +15865,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15955,7 +15958,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
@@ -15963,17 +15966,25 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Oyster/cultchmass/cultchmass_packet.xlsx
+++ b/Oyster/cultchmass/cultchmass_packet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="105">
   <si>
     <t>DATE (YYYYMMDD):</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>this is the number of the bar</t>
-  </si>
-  <si>
-    <t>this is the number of the quadrat on the bar</t>
   </si>
   <si>
     <t>mass of the empty weighing bucket in kg</t>
@@ -280,6 +277,69 @@
   </si>
   <si>
     <t>sbtrjh</t>
+  </si>
+  <si>
+    <t>this is the number of the quadrat (0.25 sq m) on the bar</t>
+  </si>
+  <si>
+    <t>LCI27</t>
+  </si>
+  <si>
+    <t>LCI22</t>
+  </si>
+  <si>
+    <t>LCN2</t>
+  </si>
+  <si>
+    <t>LCI14</t>
+  </si>
+  <si>
+    <t>LCI20</t>
+  </si>
+  <si>
+    <t>LCN10</t>
+  </si>
+  <si>
+    <t>LCI18</t>
+  </si>
+  <si>
+    <t>LCI25</t>
+  </si>
+  <si>
+    <t>LCI21</t>
+  </si>
+  <si>
+    <t>LCI3</t>
+  </si>
+  <si>
+    <t>BT5</t>
+  </si>
+  <si>
+    <t>LTI10</t>
+  </si>
+  <si>
+    <t>LTI8</t>
+  </si>
+  <si>
+    <t>LTI3</t>
+  </si>
+  <si>
+    <t>LTI7</t>
+  </si>
+  <si>
+    <t>LCI33</t>
+  </si>
+  <si>
+    <t>LCI31</t>
+  </si>
+  <si>
+    <t>NNI6</t>
+  </si>
+  <si>
+    <t>LCI28</t>
+  </si>
+  <si>
+    <t>LCI24</t>
   </si>
 </sst>
 </file>
@@ -773,7 +833,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -792,7 +852,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -835,7 +895,7 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -852,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="17" t="s">
@@ -862,7 +922,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>12</v>
@@ -1177,22 +1237,22 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
       <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
         <v>41</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1206,10 +1266,10 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1233,10 +1293,10 @@
         <v>-999</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1250,10 +1310,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1277,10 +1337,10 @@
         <v>-999</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1294,10 +1354,10 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1321,10 +1381,10 @@
         <v>-999</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1338,10 +1398,10 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1365,10 +1425,10 @@
         <v>-999</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1382,10 +1442,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1409,10 +1469,10 @@
         <v>-999</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1426,10 +1486,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1453,10 +1513,10 @@
         <v>-999</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1470,10 +1530,10 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1497,10 +1557,10 @@
         <v>-999</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1514,10 +1574,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1541,10 +1601,10 @@
         <v>-999</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1558,10 +1618,10 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -1585,10 +1645,10 @@
         <v>-999</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1602,10 +1662,10 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -1629,10 +1689,10 @@
         <v>-999</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1646,10 +1706,10 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -1673,10 +1733,10 @@
         <v>-999</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1690,10 +1750,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1717,10 +1777,10 @@
         <v>-999</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1734,10 +1794,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>19</v>
@@ -1761,10 +1821,10 @@
         <v>-999</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1778,10 +1838,10 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>19</v>
@@ -1805,10 +1865,10 @@
         <v>-999</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1822,10 +1882,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>19</v>
@@ -1849,10 +1909,10 @@
         <v>-999</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1866,10 +1926,10 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>19</v>
@@ -1893,10 +1953,10 @@
         <v>-999</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1910,10 +1970,10 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1937,10 +1997,10 @@
         <v>-999</v>
       </c>
       <c r="M18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1954,10 +2014,10 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -1981,10 +2041,10 @@
         <v>-999</v>
       </c>
       <c r="M19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1998,10 +2058,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -2025,10 +2085,10 @@
         <v>-999</v>
       </c>
       <c r="M20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2042,10 +2102,10 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2069,10 +2129,10 @@
         <v>-999</v>
       </c>
       <c r="M21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2086,10 +2146,10 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -2113,10 +2173,10 @@
         <v>-999</v>
       </c>
       <c r="M22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2130,10 +2190,10 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -2157,10 +2217,10 @@
         <v>-999</v>
       </c>
       <c r="M23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2174,10 +2234,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -2201,10 +2261,10 @@
         <v>-999</v>
       </c>
       <c r="M24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2218,10 +2278,10 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -2245,10 +2305,10 @@
         <v>-999</v>
       </c>
       <c r="M25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2262,7 +2322,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -2289,10 +2349,10 @@
         <v>-999</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2306,7 +2366,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -2333,10 +2393,10 @@
         <v>-999</v>
       </c>
       <c r="M27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2350,7 +2410,7 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -2377,10 +2437,10 @@
         <v>-999</v>
       </c>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2394,7 +2454,7 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -2421,10 +2481,10 @@
         <v>-999</v>
       </c>
       <c r="M29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2438,7 +2498,7 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -2465,10 +2525,10 @@
         <v>-999</v>
       </c>
       <c r="M30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2482,7 +2542,7 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -2509,10 +2569,10 @@
         <v>-999</v>
       </c>
       <c r="M31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2526,7 +2586,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -2553,10 +2613,10 @@
         <v>-999</v>
       </c>
       <c r="M32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2570,7 +2630,7 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -2597,10 +2657,10 @@
         <v>-999</v>
       </c>
       <c r="M33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2614,10 +2674,10 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -2641,10 +2701,10 @@
         <v>-999</v>
       </c>
       <c r="M34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2658,10 +2718,10 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -2685,10 +2745,10 @@
         <v>-999</v>
       </c>
       <c r="M35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2702,10 +2762,10 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -2729,10 +2789,10 @@
         <v>-999</v>
       </c>
       <c r="M36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2746,10 +2806,10 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -2773,10 +2833,10 @@
         <v>-999</v>
       </c>
       <c r="M37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2790,10 +2850,10 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2817,10 +2877,10 @@
         <v>-999</v>
       </c>
       <c r="M38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2834,10 +2894,10 @@
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2861,10 +2921,10 @@
         <v>-999</v>
       </c>
       <c r="M39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2878,10 +2938,10 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2905,10 +2965,10 @@
         <v>-999</v>
       </c>
       <c r="M40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2922,10 +2982,10 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2949,10 +3009,10 @@
         <v>-999</v>
       </c>
       <c r="M41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2966,10 +3026,10 @@
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -2993,10 +3053,10 @@
         <v>-999</v>
       </c>
       <c r="M42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3010,10 +3070,10 @@
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -3037,10 +3097,10 @@
         <v>-999</v>
       </c>
       <c r="M43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3054,10 +3114,10 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -3081,10 +3141,10 @@
         <v>-999</v>
       </c>
       <c r="M44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -3098,10 +3158,10 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -3125,10 +3185,10 @@
         <v>-999</v>
       </c>
       <c r="M45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3142,7 +3202,7 @@
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -3169,10 +3229,10 @@
         <v>-999</v>
       </c>
       <c r="M46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3186,7 +3246,7 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -3213,10 +3273,10 @@
         <v>-999</v>
       </c>
       <c r="M47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -3230,7 +3290,7 @@
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -3257,10 +3317,10 @@
         <v>-999</v>
       </c>
       <c r="M48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -3274,7 +3334,7 @@
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -3301,10 +3361,10 @@
         <v>-999</v>
       </c>
       <c r="M49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3318,10 +3378,10 @@
         <v>24</v>
       </c>
       <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
         <v>38</v>
-      </c>
-      <c r="E50" t="s">
-        <v>39</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3345,10 +3405,10 @@
         <v>-999</v>
       </c>
       <c r="M50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -3362,10 +3422,10 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
         <v>38</v>
-      </c>
-      <c r="E51" t="s">
-        <v>39</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3389,10 +3449,10 @@
         <v>-999</v>
       </c>
       <c r="M51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3406,10 +3466,10 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
         <v>38</v>
-      </c>
-      <c r="E52" t="s">
-        <v>39</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3433,10 +3493,10 @@
         <v>-999</v>
       </c>
       <c r="M52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3450,10 +3510,10 @@
         <v>24</v>
       </c>
       <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
         <v>38</v>
-      </c>
-      <c r="E53" t="s">
-        <v>39</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3477,10 +3537,10 @@
         <v>-999</v>
       </c>
       <c r="M53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3494,10 +3554,10 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -3521,10 +3581,10 @@
         <v>-999</v>
       </c>
       <c r="M54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3538,10 +3598,10 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -3565,10 +3625,10 @@
         <v>-999</v>
       </c>
       <c r="M55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3582,10 +3642,10 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -3609,10 +3669,10 @@
         <v>-999</v>
       </c>
       <c r="M56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3626,10 +3686,10 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -3653,10 +3713,10 @@
         <v>-999</v>
       </c>
       <c r="M57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3670,10 +3730,10 @@
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3697,10 +3757,10 @@
         <v>-999</v>
       </c>
       <c r="M58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3714,10 +3774,10 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3741,10 +3801,10 @@
         <v>-999</v>
       </c>
       <c r="M59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3758,10 +3818,10 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -3785,10 +3845,10 @@
         <v>-999</v>
       </c>
       <c r="M60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3802,10 +3862,10 @@
         <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3829,10 +3889,10 @@
         <v>-999</v>
       </c>
       <c r="M61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3846,10 +3906,10 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -3873,10 +3933,10 @@
         <v>-999</v>
       </c>
       <c r="M62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3890,10 +3950,10 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -3917,10 +3977,10 @@
         <v>-999</v>
       </c>
       <c r="M63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3934,10 +3994,10 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -3961,10 +4021,10 @@
         <v>-999</v>
       </c>
       <c r="M64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3978,10 +4038,10 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -4005,10 +4065,10 @@
         <v>-999</v>
       </c>
       <c r="M65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4022,10 +4082,10 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66">
         <v>27</v>
@@ -4049,10 +4109,10 @@
         <v>1.4</v>
       </c>
       <c r="M66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4066,10 +4126,10 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67">
         <v>27</v>
@@ -4093,10 +4153,10 @@
         <v>2.1</v>
       </c>
       <c r="M67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4110,10 +4170,10 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F68">
         <v>27</v>
@@ -4137,10 +4197,10 @@
         <v>2.7</v>
       </c>
       <c r="M68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -4154,10 +4214,10 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69">
         <v>22</v>
@@ -4181,10 +4241,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4198,10 +4258,10 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F70">
         <v>22</v>
@@ -4225,10 +4285,10 @@
         <v>2.9</v>
       </c>
       <c r="M70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4242,10 +4302,10 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F71">
         <v>22</v>
@@ -4269,10 +4329,10 @@
         <v>3.4</v>
       </c>
       <c r="M71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -4286,7 +4346,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
@@ -4313,10 +4373,10 @@
         <v>1.3</v>
       </c>
       <c r="M72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -4330,7 +4390,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
@@ -4357,10 +4417,10 @@
         <v>3.8</v>
       </c>
       <c r="M73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4374,7 +4434,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
@@ -4401,10 +4461,10 @@
         <v>3.1</v>
       </c>
       <c r="M74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -4418,7 +4478,7 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
@@ -4445,10 +4505,10 @@
         <v>2.5</v>
       </c>
       <c r="M75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4462,7 +4522,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
@@ -4489,10 +4549,10 @@
         <v>3.2</v>
       </c>
       <c r="M76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -4506,7 +4566,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -4533,10 +4593,10 @@
         <v>3.6</v>
       </c>
       <c r="M77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -4550,10 +4610,10 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F78">
         <v>14</v>
@@ -4577,10 +4637,10 @@
         <v>2.6</v>
       </c>
       <c r="M78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4594,10 +4654,10 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F79">
         <v>14</v>
@@ -4621,10 +4681,10 @@
         <v>1.4</v>
       </c>
       <c r="M79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4638,10 +4698,10 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80">
         <v>14</v>
@@ -4665,10 +4725,10 @@
         <v>2.7</v>
       </c>
       <c r="M80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -4682,10 +4742,10 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F81">
         <v>20</v>
@@ -4709,10 +4769,10 @@
         <v>3.4</v>
       </c>
       <c r="M81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -4726,10 +4786,10 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82">
         <v>20</v>
@@ -4753,10 +4813,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4770,10 +4830,10 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F83">
         <v>20</v>
@@ -4797,10 +4857,10 @@
         <v>1.9</v>
       </c>
       <c r="M83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -4814,7 +4874,7 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -4841,10 +4901,10 @@
         <v>0.9</v>
       </c>
       <c r="M84" t="s">
+        <v>79</v>
+      </c>
+      <c r="N84" t="s">
         <v>80</v>
-      </c>
-      <c r="N84" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -4858,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -4885,10 +4945,10 @@
         <v>1.7</v>
       </c>
       <c r="M85" t="s">
+        <v>79</v>
+      </c>
+      <c r="N85" t="s">
         <v>80</v>
-      </c>
-      <c r="N85" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -4902,7 +4962,7 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
@@ -4929,10 +4989,10 @@
         <v>1.8</v>
       </c>
       <c r="M86" t="s">
+        <v>79</v>
+      </c>
+      <c r="N86" t="s">
         <v>80</v>
-      </c>
-      <c r="N86" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4946,10 +5006,10 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -4973,10 +5033,10 @@
         <v>0.9</v>
       </c>
       <c r="M87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -4990,10 +5050,10 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F88">
         <v>3</v>
@@ -5017,10 +5077,10 @@
         <v>3.1</v>
       </c>
       <c r="M88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5034,10 +5094,10 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -5061,10 +5121,10 @@
         <v>2.6</v>
       </c>
       <c r="M89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -5078,10 +5138,10 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F90">
         <v>21</v>
@@ -5105,10 +5165,10 @@
         <v>0.8</v>
       </c>
       <c r="M90" t="s">
+        <v>79</v>
+      </c>
+      <c r="N90" t="s">
         <v>80</v>
-      </c>
-      <c r="N90" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -5122,10 +5182,10 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F91">
         <v>21</v>
@@ -5149,10 +5209,10 @@
         <v>0.9</v>
       </c>
       <c r="M91" t="s">
+        <v>79</v>
+      </c>
+      <c r="N91" t="s">
         <v>80</v>
-      </c>
-      <c r="N91" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5166,10 +5226,10 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F92">
         <v>21</v>
@@ -5193,10 +5253,10 @@
         <v>1.3</v>
       </c>
       <c r="M92" t="s">
+        <v>79</v>
+      </c>
+      <c r="N92" t="s">
         <v>80</v>
-      </c>
-      <c r="N92" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -5210,10 +5270,10 @@
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F93">
         <v>25</v>
@@ -5237,10 +5297,10 @@
         <v>1.2</v>
       </c>
       <c r="M93" t="s">
+        <v>79</v>
+      </c>
+      <c r="N93" t="s">
         <v>80</v>
-      </c>
-      <c r="N93" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5254,10 +5314,10 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F94">
         <v>25</v>
@@ -5281,10 +5341,10 @@
         <v>1.2</v>
       </c>
       <c r="M94" t="s">
+        <v>79</v>
+      </c>
+      <c r="N94" t="s">
         <v>80</v>
-      </c>
-      <c r="N94" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -5298,10 +5358,10 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F95">
         <v>25</v>
@@ -5325,10 +5385,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M95" t="s">
+        <v>79</v>
+      </c>
+      <c r="N95" t="s">
         <v>80</v>
-      </c>
-      <c r="N95" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -5342,10 +5402,10 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F96">
         <v>18</v>
@@ -5369,10 +5429,10 @@
         <v>1.9</v>
       </c>
       <c r="M96" t="s">
+        <v>79</v>
+      </c>
+      <c r="N96" t="s">
         <v>80</v>
-      </c>
-      <c r="N96" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5386,10 +5446,10 @@
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97">
         <v>18</v>
@@ -5413,10 +5473,10 @@
         <v>1.8</v>
       </c>
       <c r="M97" t="s">
+        <v>79</v>
+      </c>
+      <c r="N97" t="s">
         <v>80</v>
-      </c>
-      <c r="N97" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -5430,10 +5490,10 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F98">
         <v>18</v>
@@ -5457,10 +5517,10 @@
         <v>1.8</v>
       </c>
       <c r="M98" t="s">
+        <v>79</v>
+      </c>
+      <c r="N98" t="s">
         <v>80</v>
-      </c>
-      <c r="N98" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -5474,10 +5534,10 @@
         <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F99">
         <v>5</v>
@@ -5501,10 +5561,10 @@
         <v>7.5</v>
       </c>
       <c r="M99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -5518,10 +5578,10 @@
         <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F100">
         <v>5</v>
@@ -5545,10 +5605,10 @@
         <v>3.3</v>
       </c>
       <c r="M100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -5562,10 +5622,10 @@
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F101">
         <v>5</v>
@@ -5589,10 +5649,10 @@
         <v>3</v>
       </c>
       <c r="M101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -5606,10 +5666,10 @@
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F102">
         <v>10</v>
@@ -5633,10 +5693,10 @@
         <v>3.8</v>
       </c>
       <c r="M102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -5650,10 +5710,10 @@
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F103">
         <v>10</v>
@@ -5677,10 +5737,10 @@
         <v>3.1</v>
       </c>
       <c r="M103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -5694,10 +5754,10 @@
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F104">
         <v>10</v>
@@ -5721,10 +5781,10 @@
         <v>2.5</v>
       </c>
       <c r="M104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -5738,10 +5798,10 @@
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F105">
         <v>8</v>
@@ -5765,10 +5825,10 @@
         <v>1.9</v>
       </c>
       <c r="M105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -5782,10 +5842,10 @@
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F106">
         <v>8</v>
@@ -5809,10 +5869,10 @@
         <v>2</v>
       </c>
       <c r="M106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -5826,10 +5886,10 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F107">
         <v>8</v>
@@ -5853,10 +5913,10 @@
         <v>2.4</v>
       </c>
       <c r="M107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -5870,10 +5930,10 @@
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F108">
         <v>3</v>
@@ -5897,10 +5957,10 @@
         <v>1.5</v>
       </c>
       <c r="M108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -5914,10 +5974,10 @@
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -5941,10 +6001,10 @@
         <v>4.8</v>
       </c>
       <c r="M109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -5958,10 +6018,10 @@
         <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F110">
         <v>3</v>
@@ -5985,10 +6045,10 @@
         <v>1.7</v>
       </c>
       <c r="M110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -6002,10 +6062,10 @@
         <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F111">
         <v>7</v>
@@ -6029,10 +6089,10 @@
         <v>2.4</v>
       </c>
       <c r="M111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -6046,10 +6106,10 @@
         <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F112">
         <v>7</v>
@@ -6073,10 +6133,10 @@
         <v>3.6</v>
       </c>
       <c r="M112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -6090,10 +6150,10 @@
         <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F113">
         <v>7</v>
@@ -6117,10 +6177,10 @@
         <v>4.7</v>
       </c>
       <c r="M113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -6134,10 +6194,10 @@
         <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F114">
         <v>33</v>
@@ -6161,10 +6221,10 @@
         <v>2.1</v>
       </c>
       <c r="M114" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N114" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -6178,10 +6238,10 @@
         <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F115">
         <v>33</v>
@@ -6205,10 +6265,10 @@
         <v>3</v>
       </c>
       <c r="M115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -6222,10 +6282,10 @@
         <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F116">
         <v>33</v>
@@ -6249,10 +6309,10 @@
         <v>3.6</v>
       </c>
       <c r="M116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -6266,10 +6326,10 @@
         <v>28</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F117">
         <v>31</v>
@@ -6293,10 +6353,10 @@
         <v>3.3</v>
       </c>
       <c r="M117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6310,10 +6370,10 @@
         <v>28</v>
       </c>
       <c r="D118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F118">
         <v>31</v>
@@ -6337,10 +6397,10 @@
         <v>2.9</v>
       </c>
       <c r="M118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -6354,10 +6414,10 @@
         <v>28</v>
       </c>
       <c r="D119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F119">
         <v>31</v>
@@ -6381,10 +6441,10 @@
         <v>2.4</v>
       </c>
       <c r="M119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -6398,10 +6458,10 @@
         <v>28</v>
       </c>
       <c r="D120" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" t="s">
         <v>38</v>
-      </c>
-      <c r="E120" t="s">
-        <v>39</v>
       </c>
       <c r="F120">
         <v>6</v>
@@ -6425,10 +6485,10 @@
         <v>2.4</v>
       </c>
       <c r="M120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6442,10 +6502,10 @@
         <v>28</v>
       </c>
       <c r="D121" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" t="s">
         <v>38</v>
-      </c>
-      <c r="E121" t="s">
-        <v>39</v>
       </c>
       <c r="F121">
         <v>6</v>
@@ -6469,10 +6529,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6486,10 +6546,10 @@
         <v>28</v>
       </c>
       <c r="D122" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" t="s">
         <v>38</v>
-      </c>
-      <c r="E122" t="s">
-        <v>39</v>
       </c>
       <c r="F122">
         <v>6</v>
@@ -6513,10 +6573,10 @@
         <v>2.5</v>
       </c>
       <c r="M122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -6530,7 +6590,7 @@
         <v>28</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -6557,10 +6617,10 @@
         <v>2.6</v>
       </c>
       <c r="M123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -6574,7 +6634,7 @@
         <v>28</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
@@ -6601,10 +6661,10 @@
         <v>2</v>
       </c>
       <c r="M124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -6618,7 +6678,7 @@
         <v>28</v>
       </c>
       <c r="D125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -6645,10 +6705,10 @@
         <v>1.5</v>
       </c>
       <c r="M125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6662,10 +6722,10 @@
         <v>28</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F126">
         <v>28</v>
@@ -6689,10 +6749,10 @@
         <v>1.7</v>
       </c>
       <c r="M126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -6706,10 +6766,10 @@
         <v>28</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F127">
         <v>28</v>
@@ -6733,10 +6793,10 @@
         <v>1.6</v>
       </c>
       <c r="M127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -6750,10 +6810,10 @@
         <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F128">
         <v>28</v>
@@ -6777,10 +6837,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -6794,10 +6854,10 @@
         <v>28</v>
       </c>
       <c r="D129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F129">
         <v>24</v>
@@ -6821,10 +6881,10 @@
         <v>3.2</v>
       </c>
       <c r="M129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -6838,10 +6898,10 @@
         <v>28</v>
       </c>
       <c r="D130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F130">
         <v>24</v>
@@ -6865,10 +6925,10 @@
         <v>3.2</v>
       </c>
       <c r="M130" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N130" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -6882,10 +6942,10 @@
         <v>28</v>
       </c>
       <c r="D131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F131">
         <v>24</v>
@@ -6909,10 +6969,10 @@
         <v>1.5</v>
       </c>
       <c r="M131" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N131" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -7033,22 +7093,22 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
       <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
         <v>41</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -7062,10 +7122,10 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -7089,10 +7149,10 @@
         <v>2.15</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7106,10 +7166,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -7133,10 +7193,10 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7150,10 +7210,10 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -7177,10 +7237,10 @@
         <v>7.03</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7194,10 +7254,10 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -7221,10 +7281,10 @@
         <v>1.25</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7238,10 +7298,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -7265,10 +7325,10 @@
         <v>1.22</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7282,10 +7342,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -7309,10 +7369,10 @@
         <v>1.6</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -7326,10 +7386,10 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -7353,10 +7413,10 @@
         <v>0.96</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7370,10 +7430,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -7397,10 +7457,10 @@
         <v>0.86</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -7414,10 +7474,10 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -7441,10 +7501,10 @@
         <v>2.15</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -7458,10 +7518,10 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -7485,10 +7545,10 @@
         <v>0.86</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -7502,10 +7562,10 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -7529,10 +7589,10 @@
         <v>0.86</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7546,10 +7606,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -7573,10 +7633,10 @@
         <v>0.86</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7590,10 +7650,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>19</v>
@@ -7617,10 +7677,10 @@
         <v>1.06</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7634,10 +7694,10 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>19</v>
@@ -7661,10 +7721,10 @@
         <v>1.08</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7678,10 +7738,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>19</v>
@@ -7705,10 +7765,10 @@
         <v>1.06</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -7722,10 +7782,10 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>19</v>
@@ -7749,10 +7809,10 @@
         <v>1.86</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -7766,10 +7826,10 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -7793,10 +7853,10 @@
         <v>2.8</v>
       </c>
       <c r="M18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7810,10 +7870,10 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -7837,10 +7897,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7854,10 +7914,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -7881,10 +7941,10 @@
         <v>0.9</v>
       </c>
       <c r="M20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7898,10 +7958,10 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -7925,10 +7985,10 @@
         <v>1.4</v>
       </c>
       <c r="M21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7942,10 +8002,10 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -7969,10 +8029,10 @@
         <v>5.2</v>
       </c>
       <c r="M22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7986,10 +8046,10 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -8013,10 +8073,10 @@
         <v>5.6</v>
       </c>
       <c r="M23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -8030,10 +8090,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -8057,10 +8117,10 @@
         <v>4.8</v>
       </c>
       <c r="M24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -8074,10 +8134,10 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -8101,10 +8161,10 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -8118,7 +8178,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -8145,10 +8205,10 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -8162,7 +8222,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -8189,10 +8249,10 @@
         <v>1.7</v>
       </c>
       <c r="M27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -8206,7 +8266,7 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -8233,10 +8293,10 @@
         <v>0.8</v>
       </c>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -8250,7 +8310,7 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -8277,10 +8337,10 @@
         <v>1.7</v>
       </c>
       <c r="M29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -8294,7 +8354,7 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -8321,10 +8381,10 @@
         <v>2.4</v>
       </c>
       <c r="M30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -8338,7 +8398,7 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -8365,10 +8425,10 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -8382,7 +8442,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -8409,10 +8469,10 @@
         <v>0.9</v>
       </c>
       <c r="M32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -8426,7 +8486,7 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -8453,10 +8513,10 @@
         <v>0.9</v>
       </c>
       <c r="M33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -8470,10 +8530,10 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -8497,10 +8557,10 @@
         <v>1.4</v>
       </c>
       <c r="M34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -8514,10 +8574,10 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -8541,10 +8601,10 @@
         <v>2.4</v>
       </c>
       <c r="M35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -8558,10 +8618,10 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -8585,10 +8645,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -8602,10 +8662,10 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -8629,10 +8689,10 @@
         <v>1.4</v>
       </c>
       <c r="M37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -8646,10 +8706,10 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -8673,10 +8733,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="M38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -8690,10 +8750,10 @@
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -8717,10 +8777,10 @@
         <v>1.9</v>
       </c>
       <c r="M39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -8734,10 +8794,10 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -8761,10 +8821,10 @@
         <v>3.4</v>
       </c>
       <c r="M40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -8778,10 +8838,10 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -8805,10 +8865,10 @@
         <v>5.2</v>
       </c>
       <c r="M41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -8822,10 +8882,10 @@
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -8849,10 +8909,10 @@
         <v>3.5</v>
       </c>
       <c r="M42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -8866,10 +8926,10 @@
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -8893,10 +8953,10 @@
         <v>0.9</v>
       </c>
       <c r="M43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -8910,10 +8970,10 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -8937,10 +8997,10 @@
         <v>0.9</v>
       </c>
       <c r="M44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -8954,10 +9014,10 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -8981,10 +9041,10 @@
         <v>2</v>
       </c>
       <c r="M45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -8998,7 +9058,7 @@
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -9025,10 +9085,10 @@
         <v>0.8</v>
       </c>
       <c r="M46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -9042,7 +9102,7 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -9069,10 +9129,10 @@
         <v>0.9</v>
       </c>
       <c r="M47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -9086,7 +9146,7 @@
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -9113,10 +9173,10 @@
         <v>0.9</v>
       </c>
       <c r="M48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -9130,7 +9190,7 @@
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -9157,10 +9217,10 @@
         <v>0.8</v>
       </c>
       <c r="M49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -9174,10 +9234,10 @@
         <v>24</v>
       </c>
       <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
         <v>38</v>
-      </c>
-      <c r="E50" t="s">
-        <v>39</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -9201,10 +9261,10 @@
         <v>3.3</v>
       </c>
       <c r="M50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -9218,10 +9278,10 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
         <v>38</v>
-      </c>
-      <c r="E51" t="s">
-        <v>39</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -9245,10 +9305,10 @@
         <v>3</v>
       </c>
       <c r="M51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -9262,10 +9322,10 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
         <v>38</v>
-      </c>
-      <c r="E52" t="s">
-        <v>39</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -9289,10 +9349,10 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -9306,10 +9366,10 @@
         <v>24</v>
       </c>
       <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
         <v>38</v>
-      </c>
-      <c r="E53" t="s">
-        <v>39</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -9333,10 +9393,10 @@
         <v>3.3</v>
       </c>
       <c r="M53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -9350,10 +9410,10 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -9377,10 +9437,10 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -9394,10 +9454,10 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -9421,10 +9481,10 @@
         <v>3.5</v>
       </c>
       <c r="M55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -9438,10 +9498,10 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -9465,10 +9525,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="M56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -9482,10 +9542,10 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -9509,10 +9569,10 @@
         <v>3.4</v>
       </c>
       <c r="M57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -9526,10 +9586,10 @@
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -9553,10 +9613,10 @@
         <v>1.6</v>
       </c>
       <c r="M58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -9570,10 +9630,10 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -9597,10 +9657,10 @@
         <v>1.4</v>
       </c>
       <c r="M59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -9614,10 +9674,10 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -9641,10 +9701,10 @@
         <v>1.4</v>
       </c>
       <c r="M60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -9658,10 +9718,10 @@
         <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -9685,10 +9745,10 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -9702,10 +9762,10 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -9729,10 +9789,10 @@
         <v>0.8</v>
       </c>
       <c r="M62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -9746,10 +9806,10 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -9773,10 +9833,10 @@
         <v>1.4</v>
       </c>
       <c r="M63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -9790,10 +9850,10 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -9817,10 +9877,10 @@
         <v>1.4</v>
       </c>
       <c r="M64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -9834,10 +9894,10 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -9861,10 +9921,10 @@
         <v>2.9</v>
       </c>
       <c r="M65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -9878,10 +9938,10 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66">
         <v>27</v>
@@ -9905,10 +9965,10 @@
         <v>1.4</v>
       </c>
       <c r="M66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -9922,10 +9982,10 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67">
         <v>27</v>
@@ -9949,10 +10009,10 @@
         <v>2.1</v>
       </c>
       <c r="M67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -9966,10 +10026,10 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F68">
         <v>27</v>
@@ -9993,10 +10053,10 @@
         <v>2.7</v>
       </c>
       <c r="M68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -10010,10 +10070,10 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69">
         <v>22</v>
@@ -10037,10 +10097,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -10054,10 +10114,10 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F70">
         <v>22</v>
@@ -10081,10 +10141,10 @@
         <v>2.9</v>
       </c>
       <c r="M70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -10098,10 +10158,10 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F71">
         <v>22</v>
@@ -10125,10 +10185,10 @@
         <v>3.4</v>
       </c>
       <c r="M71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -10142,7 +10202,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
@@ -10169,10 +10229,10 @@
         <v>1.3</v>
       </c>
       <c r="M72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -10186,7 +10246,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
@@ -10213,10 +10273,10 @@
         <v>3.8</v>
       </c>
       <c r="M73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -10230,7 +10290,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
@@ -10257,10 +10317,10 @@
         <v>3.1</v>
       </c>
       <c r="M74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -10274,7 +10334,7 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
@@ -10301,10 +10361,10 @@
         <v>2.5</v>
       </c>
       <c r="M75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -10318,7 +10378,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
@@ -10345,10 +10405,10 @@
         <v>3.2</v>
       </c>
       <c r="M76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -10362,7 +10422,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -10389,10 +10449,10 @@
         <v>3.6</v>
       </c>
       <c r="M77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -10406,10 +10466,10 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F78">
         <v>14</v>
@@ -10433,10 +10493,10 @@
         <v>2.6</v>
       </c>
       <c r="M78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -10450,10 +10510,10 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F79">
         <v>14</v>
@@ -10477,10 +10537,10 @@
         <v>1.4</v>
       </c>
       <c r="M79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -10494,10 +10554,10 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80">
         <v>14</v>
@@ -10521,10 +10581,10 @@
         <v>2.7</v>
       </c>
       <c r="M80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -10538,10 +10598,10 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F81">
         <v>20</v>
@@ -10565,10 +10625,10 @@
         <v>3.4</v>
       </c>
       <c r="M81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -10582,10 +10642,10 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82">
         <v>20</v>
@@ -10609,10 +10669,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -10626,10 +10686,10 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F83">
         <v>20</v>
@@ -10653,10 +10713,10 @@
         <v>1.9</v>
       </c>
       <c r="M83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -10670,7 +10730,7 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -10697,10 +10757,10 @@
         <v>0.9</v>
       </c>
       <c r="M84" t="s">
+        <v>79</v>
+      </c>
+      <c r="N84" t="s">
         <v>80</v>
-      </c>
-      <c r="N84" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -10714,7 +10774,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -10741,10 +10801,10 @@
         <v>1.7</v>
       </c>
       <c r="M85" t="s">
+        <v>79</v>
+      </c>
+      <c r="N85" t="s">
         <v>80</v>
-      </c>
-      <c r="N85" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -10758,7 +10818,7 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
@@ -10785,10 +10845,10 @@
         <v>1.8</v>
       </c>
       <c r="M86" t="s">
+        <v>79</v>
+      </c>
+      <c r="N86" t="s">
         <v>80</v>
-      </c>
-      <c r="N86" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -10802,10 +10862,10 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -10829,10 +10889,10 @@
         <v>0.9</v>
       </c>
       <c r="M87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -10846,10 +10906,10 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F88">
         <v>3</v>
@@ -10873,10 +10933,10 @@
         <v>3.1</v>
       </c>
       <c r="M88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -10890,10 +10950,10 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -10917,10 +10977,10 @@
         <v>2.6</v>
       </c>
       <c r="M89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -10934,10 +10994,10 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F90">
         <v>21</v>
@@ -10961,10 +11021,10 @@
         <v>0.8</v>
       </c>
       <c r="M90" t="s">
+        <v>79</v>
+      </c>
+      <c r="N90" t="s">
         <v>80</v>
-      </c>
-      <c r="N90" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -10978,10 +11038,10 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F91">
         <v>21</v>
@@ -11005,10 +11065,10 @@
         <v>0.9</v>
       </c>
       <c r="M91" t="s">
+        <v>79</v>
+      </c>
+      <c r="N91" t="s">
         <v>80</v>
-      </c>
-      <c r="N91" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -11022,10 +11082,10 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F92">
         <v>21</v>
@@ -11049,10 +11109,10 @@
         <v>1.3</v>
       </c>
       <c r="M92" t="s">
+        <v>79</v>
+      </c>
+      <c r="N92" t="s">
         <v>80</v>
-      </c>
-      <c r="N92" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -11066,10 +11126,10 @@
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F93">
         <v>25</v>
@@ -11093,10 +11153,10 @@
         <v>1.2</v>
       </c>
       <c r="M93" t="s">
+        <v>79</v>
+      </c>
+      <c r="N93" t="s">
         <v>80</v>
-      </c>
-      <c r="N93" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -11110,10 +11170,10 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F94">
         <v>25</v>
@@ -11137,10 +11197,10 @@
         <v>1.2</v>
       </c>
       <c r="M94" t="s">
+        <v>79</v>
+      </c>
+      <c r="N94" t="s">
         <v>80</v>
-      </c>
-      <c r="N94" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -11154,10 +11214,10 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F95">
         <v>25</v>
@@ -11181,10 +11241,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M95" t="s">
+        <v>79</v>
+      </c>
+      <c r="N95" t="s">
         <v>80</v>
-      </c>
-      <c r="N95" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -11198,10 +11258,10 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F96">
         <v>18</v>
@@ -11225,10 +11285,10 @@
         <v>1.9</v>
       </c>
       <c r="M96" t="s">
+        <v>79</v>
+      </c>
+      <c r="N96" t="s">
         <v>80</v>
-      </c>
-      <c r="N96" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -11242,10 +11302,10 @@
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97">
         <v>18</v>
@@ -11269,10 +11329,10 @@
         <v>1.8</v>
       </c>
       <c r="M97" t="s">
+        <v>79</v>
+      </c>
+      <c r="N97" t="s">
         <v>80</v>
-      </c>
-      <c r="N97" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -11286,10 +11346,10 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F98">
         <v>18</v>
@@ -11313,10 +11373,10 @@
         <v>1.8</v>
       </c>
       <c r="M98" t="s">
+        <v>79</v>
+      </c>
+      <c r="N98" t="s">
         <v>80</v>
-      </c>
-      <c r="N98" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -11330,10 +11390,10 @@
         <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F99">
         <v>5</v>
@@ -11357,10 +11417,10 @@
         <v>7.5</v>
       </c>
       <c r="M99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -11374,10 +11434,10 @@
         <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F100">
         <v>5</v>
@@ -11401,10 +11461,10 @@
         <v>3.3</v>
       </c>
       <c r="M100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -11418,10 +11478,10 @@
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F101">
         <v>5</v>
@@ -11445,10 +11505,10 @@
         <v>3</v>
       </c>
       <c r="M101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -11462,10 +11522,10 @@
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F102">
         <v>10</v>
@@ -11489,10 +11549,10 @@
         <v>3.8</v>
       </c>
       <c r="M102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -11506,10 +11566,10 @@
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F103">
         <v>10</v>
@@ -11533,10 +11593,10 @@
         <v>3.1</v>
       </c>
       <c r="M103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -11550,10 +11610,10 @@
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F104">
         <v>10</v>
@@ -11577,10 +11637,10 @@
         <v>2.5</v>
       </c>
       <c r="M104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -11594,10 +11654,10 @@
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F105">
         <v>8</v>
@@ -11621,10 +11681,10 @@
         <v>1.9</v>
       </c>
       <c r="M105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -11638,10 +11698,10 @@
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F106">
         <v>8</v>
@@ -11665,10 +11725,10 @@
         <v>2</v>
       </c>
       <c r="M106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -11682,10 +11742,10 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F107">
         <v>8</v>
@@ -11709,10 +11769,10 @@
         <v>2.4</v>
       </c>
       <c r="M107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -11726,10 +11786,10 @@
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F108">
         <v>3</v>
@@ -11753,10 +11813,10 @@
         <v>1.5</v>
       </c>
       <c r="M108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -11770,10 +11830,10 @@
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -11797,10 +11857,10 @@
         <v>4.8</v>
       </c>
       <c r="M109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -11814,10 +11874,10 @@
         <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F110">
         <v>3</v>
@@ -11841,10 +11901,10 @@
         <v>1.7</v>
       </c>
       <c r="M110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -11858,10 +11918,10 @@
         <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F111">
         <v>7</v>
@@ -11885,10 +11945,10 @@
         <v>2.4</v>
       </c>
       <c r="M111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -11902,10 +11962,10 @@
         <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F112">
         <v>7</v>
@@ -11929,10 +11989,10 @@
         <v>3.6</v>
       </c>
       <c r="M112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -11946,10 +12006,10 @@
         <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F113">
         <v>7</v>
@@ -11973,10 +12033,10 @@
         <v>4.7</v>
       </c>
       <c r="M113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -11990,10 +12050,10 @@
         <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F114">
         <v>33</v>
@@ -12017,10 +12077,10 @@
         <v>2.1</v>
       </c>
       <c r="M114" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N114" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -12034,10 +12094,10 @@
         <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F115">
         <v>33</v>
@@ -12061,10 +12121,10 @@
         <v>3</v>
       </c>
       <c r="M115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -12078,10 +12138,10 @@
         <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F116">
         <v>33</v>
@@ -12105,10 +12165,10 @@
         <v>3.6</v>
       </c>
       <c r="M116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -12122,10 +12182,10 @@
         <v>28</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F117">
         <v>31</v>
@@ -12149,10 +12209,10 @@
         <v>3.3</v>
       </c>
       <c r="M117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -12166,10 +12226,10 @@
         <v>28</v>
       </c>
       <c r="D118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F118">
         <v>31</v>
@@ -12193,10 +12253,10 @@
         <v>2.9</v>
       </c>
       <c r="M118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -12210,10 +12270,10 @@
         <v>28</v>
       </c>
       <c r="D119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F119">
         <v>31</v>
@@ -12237,10 +12297,10 @@
         <v>2.4</v>
       </c>
       <c r="M119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -12254,10 +12314,10 @@
         <v>28</v>
       </c>
       <c r="D120" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" t="s">
         <v>38</v>
-      </c>
-      <c r="E120" t="s">
-        <v>39</v>
       </c>
       <c r="F120">
         <v>6</v>
@@ -12281,10 +12341,10 @@
         <v>2.4</v>
       </c>
       <c r="M120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -12298,10 +12358,10 @@
         <v>28</v>
       </c>
       <c r="D121" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" t="s">
         <v>38</v>
-      </c>
-      <c r="E121" t="s">
-        <v>39</v>
       </c>
       <c r="F121">
         <v>6</v>
@@ -12325,10 +12385,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -12342,10 +12402,10 @@
         <v>28</v>
       </c>
       <c r="D122" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" t="s">
         <v>38</v>
-      </c>
-      <c r="E122" t="s">
-        <v>39</v>
       </c>
       <c r="F122">
         <v>6</v>
@@ -12369,10 +12429,10 @@
         <v>2.5</v>
       </c>
       <c r="M122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -12386,7 +12446,7 @@
         <v>28</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -12413,10 +12473,10 @@
         <v>2.6</v>
       </c>
       <c r="M123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -12430,7 +12490,7 @@
         <v>28</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
@@ -12457,10 +12517,10 @@
         <v>2</v>
       </c>
       <c r="M124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -12474,7 +12534,7 @@
         <v>28</v>
       </c>
       <c r="D125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -12501,10 +12561,10 @@
         <v>1.5</v>
       </c>
       <c r="M125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -12518,10 +12578,10 @@
         <v>28</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F126">
         <v>28</v>
@@ -12545,10 +12605,10 @@
         <v>1.7</v>
       </c>
       <c r="M126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -12562,10 +12622,10 @@
         <v>28</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F127">
         <v>28</v>
@@ -12589,10 +12649,10 @@
         <v>1.6</v>
       </c>
       <c r="M127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -12606,10 +12666,10 @@
         <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F128">
         <v>28</v>
@@ -12633,10 +12693,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -12650,10 +12710,10 @@
         <v>28</v>
       </c>
       <c r="D129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F129">
         <v>24</v>
@@ -12677,10 +12737,10 @@
         <v>3.2</v>
       </c>
       <c r="M129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -12694,10 +12754,10 @@
         <v>28</v>
       </c>
       <c r="D130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F130">
         <v>24</v>
@@ -12721,10 +12781,10 @@
         <v>3.2</v>
       </c>
       <c r="M130" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N130" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -12738,10 +12798,10 @@
         <v>28</v>
       </c>
       <c r="D131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F131">
         <v>24</v>
@@ -12765,10 +12825,10 @@
         <v>1.5</v>
       </c>
       <c r="M131" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N131" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -12848,8 +12908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N300"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12880,19 +12940,19 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
       <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -30035,7 +30095,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30066,19 +30126,19 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
       <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -30092,10 +30152,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -30104,10 +30164,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -30118,7 +30178,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -30130,10 +30190,10 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -30141,7 +30201,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -30150,10 +30210,10 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -30161,7 +30221,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -30170,10 +30230,10 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -30184,10 +30244,10 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -30375,7 +30435,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30436,7 +30496,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -30444,55 +30504,55 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
         <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -30502,10 +30562,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30516,30 +30576,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -30562,7 +30622,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -30585,7 +30645,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -30608,7 +30668,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -30631,7 +30691,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -30654,7 +30714,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -30677,7 +30737,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -30700,7 +30760,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -30723,7 +30783,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -30746,7 +30806,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -30769,7 +30829,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -30792,7 +30852,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -30815,7 +30875,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -30838,7 +30898,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -30861,7 +30921,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -30884,7 +30944,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -30907,7 +30967,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -30930,7 +30990,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -30953,7 +31013,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -30976,7 +31036,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -30999,7 +31059,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -31022,7 +31082,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -31045,7 +31105,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -31068,7 +31128,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -31091,7 +31151,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -31114,7 +31174,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -31137,7 +31197,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -31160,7 +31220,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -31183,7 +31243,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -31206,7 +31266,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -31229,7 +31289,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -31252,7 +31312,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -31275,7 +31335,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -31298,7 +31358,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -31321,7 +31381,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -31344,7 +31404,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -31367,7 +31427,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -31390,7 +31450,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -31413,7 +31473,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -31436,7 +31496,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -31459,7 +31519,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -31482,7 +31542,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -31505,7 +31565,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -31528,7 +31588,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -31551,7 +31611,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -31574,7 +31634,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -31597,7 +31657,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -31620,7 +31680,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -31643,7 +31703,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -31666,7 +31726,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -31689,7 +31749,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -31712,7 +31772,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -31735,7 +31795,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -31758,7 +31818,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -31781,7 +31841,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -31804,7 +31864,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -31827,7 +31887,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -31850,7 +31910,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -31873,7 +31933,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -31896,7 +31956,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -31919,7 +31979,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -31942,7 +32002,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -31965,7 +32025,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -31988,7 +32048,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -32007,6 +32067,1524 @@
       </c>
       <c r="G65" s="20">
         <v>43749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D66" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E66" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F66" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G66" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D67" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E67" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F67" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G67" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D68" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E68" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F68" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G68" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D69" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E69" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F69" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G69" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D70" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E70" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F70" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G70" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D71" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E71" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F71" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G71" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D72" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E72" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F72" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G72" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D73" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E73" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F73" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G73" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D74" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E74" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F74" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G74" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D75" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E75" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F75" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G75" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D76" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E76" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F76" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G76" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D77" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E77" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F77" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G77" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D78" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E78" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F78" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G78" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D79" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E79" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F79" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G79" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D80" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E80" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F80" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G80" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D81" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E81" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F81" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G81" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D82" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E82" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F82" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G82" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D83" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E83" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F83" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G83" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D84" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E84" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F84" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G84" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D85" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E85" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F85" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G85" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D86" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E86" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F86" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G86" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D87" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E87" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F87" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G87" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D88" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E88" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F88" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G88" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D89" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E89" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F89" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G89" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D90" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E90" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F90" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G90" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D91" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E91" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F91" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G91" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D92" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E92" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F92" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G92" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D93" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E93" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F93" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G93" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D94" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E94" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F94" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G94" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D95" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E95" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F95" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G95" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D96" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E96" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F96" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G96" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D97" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E97" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F97" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G97" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" s="20">
+        <v>43842</v>
+      </c>
+      <c r="D98" s="20">
+        <v>43843</v>
+      </c>
+      <c r="E98" s="20">
+        <v>43847</v>
+      </c>
+      <c r="F98" s="20">
+        <v>43847</v>
+      </c>
+      <c r="G98" s="20">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D99" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E99" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F99" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G99" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D100" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E100" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F100" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G100" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D101" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E101" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F101" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G101" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D102" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E102" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F102" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G102" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D103" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E103" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F103" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G103" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D104" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E104" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F104" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G104" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D105" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E105" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F105" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G105" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D106" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E106" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F106" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G106" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D107" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E107" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F107" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G107" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D108" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E108" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F108" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G108" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D109" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E109" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F109" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G109" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D110" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E110" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F110" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G110" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D111" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E111" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F111" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G111" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D112" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E112" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F112" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G112" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113" s="20">
+        <v>43857</v>
+      </c>
+      <c r="D113" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E113" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F113" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G113" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>100</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D114" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E114" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F114" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G114" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>100</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D115" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E115" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F115" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G115" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>100</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D116" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E116" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F116" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G116" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>101</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D117" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E117" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F117" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G117" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D118" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E118" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F118" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G118" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>101</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D119" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E119" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F119" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G119" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D120" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E120" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F120" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G120" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>102</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D121" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E121" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F121" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G121" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>102</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D122" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E122" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F122" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G122" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D123" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E123" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F123" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G123" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D124" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E124" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F124" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G124" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D125" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E125" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F125" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G125" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>103</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D126" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E126" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F126" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G126" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>104</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D127" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E127" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F127" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G127" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>104</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D128" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E128" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F128" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G128" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>104</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D129" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E129" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F129" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G129" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D130" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E130" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F130" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G130" s="20">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131" s="20">
+        <v>43858</v>
+      </c>
+      <c r="D131" s="20">
+        <v>43858</v>
+      </c>
+      <c r="E131" s="20">
+        <v>43859</v>
+      </c>
+      <c r="F131" s="20">
+        <v>43859</v>
+      </c>
+      <c r="G131" s="20">
+        <v>43860</v>
       </c>
     </row>
   </sheetData>
